--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -1635,11 +1635,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,9 +1648,9 @@
     <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="6" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="2" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35" style="3" customWidth="1"/>
+    <col min="6" max="6" width="54.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="12" customWidth="1"/>
@@ -1790,7 +1791,7 @@
         <v>3001</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>202</v>
@@ -1806,7 +1807,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>134</v>
       </c>
@@ -1853,7 +1854,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>134</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>3001</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>202</v>
@@ -1894,7 +1895,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>202</v>
@@ -1947,7 +1948,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>134</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>202</v>
@@ -2014,7 +2015,7 @@
       </c>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>134</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>134</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>3072</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>202</v>
@@ -2106,7 +2107,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>3072</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>202</v>
@@ -2150,7 +2151,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>134</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>7</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>202</v>
@@ -2206,7 +2207,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>7</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>202</v>
@@ -2264,7 +2265,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>134</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>202</v>
@@ -2315,7 +2316,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>7</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>202</v>
@@ -2373,7 +2374,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>134</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>202</v>
@@ -2434,7 +2435,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>134</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>7</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>202</v>
@@ -2492,7 +2493,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>134</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>7</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>202</v>
@@ -2543,7 +2544,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>202</v>
@@ -2594,7 +2595,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>134</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>7</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>202</v>
@@ -2641,7 +2642,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>202</v>
@@ -2694,7 +2695,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>134</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>202</v>
@@ -2747,7 +2748,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>134</v>
       </c>
@@ -2777,7 +2778,7 @@
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13" t="s">
@@ -2810,7 +2811,7 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>134</v>
       </c>
@@ -2840,7 +2841,7 @@
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12" t="s">
@@ -2873,7 +2874,7 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>3001</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>202</v>
@@ -2952,7 +2953,7 @@
         <v>3049</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>202</v>
@@ -2964,7 +2965,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>134</v>
       </c>
@@ -2994,7 +2995,7 @@
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L25" s="13" t="s">
         <v>202</v>
@@ -3025,7 +3026,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>134</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>134</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>7</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>202</v>
@@ -3114,7 +3115,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>134</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>7</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>202</v>
@@ -3191,7 +3192,7 @@
         <v>3068</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L29" s="12" t="s">
         <v>202</v>
@@ -3203,7 +3204,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>134</v>
       </c>
@@ -3233,7 +3234,7 @@
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>202</v>
@@ -3264,7 +3265,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>134</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>134</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>3049</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>202</v>
@@ -3350,7 +3351,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>3049</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>202</v>
@@ -3424,7 +3425,7 @@
         <v>3003</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>202</v>
@@ -3439,7 +3440,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>134</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>3068</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>202</v>
@@ -3484,7 +3485,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>134</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>134</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>3068</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>202</v>
@@ -3576,7 +3577,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>134</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>3068</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>202</v>
@@ -3620,7 +3621,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>134</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>202</v>
@@ -3673,7 +3674,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>134</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>202</v>
@@ -3726,7 +3727,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>134</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>202</v>
@@ -3779,7 +3780,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>202</v>
@@ -3846,7 +3847,7 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
     </row>
-    <row r="43" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>134</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>202</v>
@@ -3902,7 +3903,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>134</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>202</v>
@@ -3958,7 +3959,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>134</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>202</v>
@@ -4008,7 +4009,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>134</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>3</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>202</v>
@@ -4058,7 +4059,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L47" s="12" t="s">
         <v>202</v>
@@ -4105,7 +4106,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>134</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>3</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>202</v>
@@ -4158,7 +4159,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>134</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>3</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>202</v>
@@ -4240,7 +4241,7 @@
         <v>3056</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L50" s="12" t="s">
         <v>202</v>
@@ -4252,7 +4253,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>134</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>202</v>
@@ -4299,7 +4300,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>134</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>134</v>
       </c>
@@ -4372,7 +4373,7 @@
         <v>3</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L53" s="12" t="s">
         <v>202</v>
@@ -4387,7 +4388,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>134</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L54" s="12" t="s">
         <v>202</v>
@@ -4434,7 +4435,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>134</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L55" s="12" t="s">
         <v>202</v>
@@ -4481,7 +4482,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>134</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L56" s="12" t="s">
         <v>202</v>
@@ -4560,7 +4561,7 @@
         <v>3058</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L57" s="12" t="s">
         <v>202</v>
@@ -4572,7 +4573,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>134</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>3058</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L58" s="12" t="s">
         <v>202</v>
@@ -4619,7 +4620,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>134</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>3058</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L59" s="12" t="s">
         <v>202</v>
@@ -4666,7 +4667,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>134</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>3058</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L60" s="12" t="s">
         <v>202</v>
@@ -4713,7 +4714,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>134</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>3058</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L61" s="12" t="s">
         <v>202</v>
@@ -4760,7 +4761,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>134</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L62" s="12" t="s">
         <v>202</v>
@@ -4807,7 +4808,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>134</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L63" s="12" t="s">
         <v>202</v>
@@ -4886,7 +4887,7 @@
         <v>3072</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>193</v>
@@ -4895,7 +4896,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>134</v>
       </c>
@@ -4962,7 +4963,7 @@
         <v>3023</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L66" s="12" t="s">
         <v>202</v>
@@ -4977,7 +4978,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>134</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>3023</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L67" s="12" t="s">
         <v>202</v>
@@ -5021,7 +5022,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>134</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>134</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>7</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L70" s="12" t="s">
         <v>202</v>
@@ -5150,7 +5151,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>134</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>7</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L71" s="12" t="s">
         <v>202</v>
@@ -5197,7 +5198,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>134</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>8</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L72" s="12" t="s">
         <v>202</v>
@@ -5247,7 +5248,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>134</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>8</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L73" s="12" t="s">
         <v>202</v>
@@ -5294,7 +5295,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>134</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>8</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L74" s="12" t="s">
         <v>202</v>
@@ -5341,7 +5342,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>134</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>8</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L75" s="12" t="s">
         <v>202</v>
@@ -5388,7 +5389,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>134</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>8</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L76" s="12" t="s">
         <v>202</v>
@@ -5435,7 +5436,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>134</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>8</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L77" s="12" t="s">
         <v>202</v>
@@ -5485,7 +5486,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>134</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>8</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L78" s="12" t="s">
         <v>202</v>
@@ -5535,7 +5536,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>134</v>
       </c>
@@ -5567,7 +5568,7 @@
         <v>8</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L79" s="12" t="s">
         <v>202</v>
@@ -5585,7 +5586,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>134</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>8</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L80" s="12" t="s">
         <v>202</v>
@@ -5635,7 +5636,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>134</v>
       </c>
@@ -5667,7 +5668,7 @@
         <v>8</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L81" s="12" t="s">
         <v>202</v>
@@ -5682,7 +5683,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>134</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>8</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L82" s="12" t="s">
         <v>202</v>
@@ -5735,7 +5736,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>134</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>8</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L83" s="12" t="s">
         <v>202</v>
@@ -5788,7 +5789,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>134</v>
       </c>
@@ -5820,7 +5821,7 @@
         <v>8</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L84" s="12" t="s">
         <v>202</v>
@@ -5841,7 +5842,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>134</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>8</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L85" s="12" t="s">
         <v>202</v>
@@ -5894,7 +5895,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>134</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>3023</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L86" s="12" t="s">
         <v>202</v>
@@ -5944,7 +5945,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>134</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>3023</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L87" s="12" t="s">
         <v>202</v>
@@ -5994,7 +5995,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>134</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>3023</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L88" s="12" t="s">
         <v>202</v>
@@ -6073,7 +6074,7 @@
         <v>3042</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L89" s="12" t="s">
         <v>202</v>
@@ -6085,7 +6086,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>134</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>3</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L90" s="12" t="s">
         <v>202</v>
@@ -6138,7 +6139,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>134</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>3</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L91" s="12" t="s">
         <v>202</v>
@@ -6191,7 +6192,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>134</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>3</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L92" s="12" t="s">
         <v>202</v>
@@ -6241,7 +6242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>134</v>
       </c>
@@ -6273,7 +6274,7 @@
         <v>3</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L93" s="12" t="s">
         <v>202</v>
@@ -6291,7 +6292,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>134</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>3</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L94" s="12" t="s">
         <v>202</v>
@@ -6341,7 +6342,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>134</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>3</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L95" s="12" t="s">
         <v>202</v>
@@ -6391,7 +6392,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>134</v>
       </c>
@@ -6423,7 +6424,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L96" s="12" t="s">
         <v>202</v>
@@ -6438,7 +6439,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>134</v>
       </c>
@@ -6470,7 +6471,7 @@
         <v>3</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L97" s="12" t="s">
         <v>202</v>
@@ -6491,7 +6492,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>134</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L98" s="12" t="s">
         <v>202</v>
@@ -6544,7 +6545,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>134</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>3</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L99" s="12" t="s">
         <v>202</v>
@@ -6594,7 +6595,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>134</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>3</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L100" s="12" t="s">
         <v>202</v>
@@ -6644,7 +6645,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>134</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>3048</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L101" s="12" t="s">
         <v>202</v>
@@ -6714,7 +6715,7 @@
         <v>3041</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L102" s="12" t="s">
         <v>202</v>
@@ -6726,7 +6727,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>134</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>3056</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L103" s="12" t="s">
         <v>202</v>
@@ -6770,7 +6771,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>134</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>134</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L105" s="12" t="s">
         <v>202</v>
@@ -6861,7 +6862,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>134</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L106" s="12" t="s">
         <v>202</v>
@@ -6908,7 +6909,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>134</v>
       </c>
@@ -6940,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L107" s="12" t="s">
         <v>202</v>
@@ -6961,7 +6962,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>134</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>4</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L108" s="12" t="s">
         <v>202</v>
@@ -7014,7 +7015,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>134</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L109" s="12" t="s">
         <v>202</v>
@@ -7067,7 +7068,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>134</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>4</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L110" s="12" t="s">
         <v>202</v>
@@ -7120,7 +7121,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>134</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L111" s="12" t="s">
         <v>202</v>
@@ -7176,7 +7177,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>134</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>4</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L112" s="12" t="s">
         <v>202</v>
@@ -7232,7 +7233,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>134</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>4</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L113" s="12" t="s">
         <v>202</v>
@@ -7282,7 +7283,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>134</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>4</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L114" s="12" t="s">
         <v>202</v>
@@ -7332,7 +7333,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>134</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>4</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L115" s="12" t="s">
         <v>202</v>
@@ -7379,7 +7380,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>134</v>
       </c>
@@ -7411,7 +7412,7 @@
         <v>4</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L116" s="12" t="s">
         <v>202</v>
@@ -7432,7 +7433,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>134</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>4</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L117" s="12" t="s">
         <v>202</v>
@@ -7514,7 +7515,7 @@
         <v>3067</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L118" s="12" t="s">
         <v>202</v>
@@ -7526,7 +7527,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>134</v>
       </c>
@@ -7558,7 +7559,7 @@
         <v>9</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L119" s="12" t="s">
         <v>202</v>
@@ -7573,7 +7574,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>134</v>
       </c>
@@ -7614,7 +7615,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>134</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L121" s="12" t="s">
         <v>202</v>
@@ -7661,7 +7662,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>134</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>4</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L122" s="12" t="s">
         <v>202</v>
@@ -7708,7 +7709,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>134</v>
       </c>
@@ -7740,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L123" s="12" t="s">
         <v>202</v>
@@ -7755,7 +7756,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>134</v>
       </c>
@@ -7787,7 +7788,7 @@
         <v>2</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L124" s="12" t="s">
         <v>202</v>
@@ -7805,7 +7806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>134</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L125" s="12" t="s">
         <v>202</v>
@@ -7852,7 +7853,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>134</v>
       </c>
@@ -7884,7 +7885,7 @@
         <v>2</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L126" s="12" t="s">
         <v>202</v>
@@ -7931,7 +7932,7 @@
         <v>3046</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L127" s="13" t="s">
         <v>202</v>
@@ -7943,7 +7944,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>134</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>3</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L128" s="12" t="s">
         <v>202</v>
@@ -7996,7 +7997,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>134</v>
       </c>
@@ -8028,7 +8029,7 @@
         <v>3</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L129" s="12" t="s">
         <v>202</v>
@@ -8049,7 +8050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>134</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>3</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L130" s="12" t="s">
         <v>202</v>
@@ -8099,7 +8100,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>134</v>
       </c>
@@ -8131,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L131" s="12" t="s">
         <v>202</v>
@@ -8149,7 +8150,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>134</v>
       </c>
@@ -8181,7 +8182,7 @@
         <v>3</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L132" s="12" t="s">
         <v>202</v>
@@ -8199,7 +8200,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>134</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>3</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L133" s="12" t="s">
         <v>202</v>
@@ -8249,7 +8250,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>134</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>3</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L134" s="12" t="s">
         <v>202</v>
@@ -8296,7 +8297,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
@@ -8328,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L135" s="12" t="s">
         <v>202</v>
@@ -8349,7 +8350,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
@@ -8381,7 +8382,7 @@
         <v>3</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L136" s="12" t="s">
         <v>202</v>
@@ -8402,7 +8403,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>134</v>
       </c>
@@ -8434,7 +8435,7 @@
         <v>3</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L137" s="12" t="s">
         <v>202</v>
@@ -8452,7 +8453,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>134</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>3</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L138" s="13" t="s">
         <v>202</v>
@@ -8517,7 +8518,7 @@
       <c r="AD138" s="13"/>
       <c r="AE138" s="13"/>
     </row>
-    <row r="139" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>134</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>3071</v>
       </c>
       <c r="K139" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L139" s="12" t="s">
         <v>202</v>
@@ -8587,7 +8588,7 @@
         <v>3091</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L140" s="12" t="s">
         <v>202</v>
@@ -8599,7 +8600,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>134</v>
       </c>
@@ -8631,7 +8632,7 @@
         <v>3</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L141" s="12" t="s">
         <v>370</v>
@@ -8640,7 +8641,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>134</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>3</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L142" s="12" t="s">
         <v>370</v>
@@ -8681,7 +8682,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>134</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>3</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L143" s="12" t="s">
         <v>370</v>
@@ -8722,7 +8723,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>134</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>3</v>
       </c>
       <c r="K144" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L144" s="12" t="s">
         <v>370</v>
@@ -8763,7 +8764,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>134</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>134</v>
       </c>
@@ -8845,7 +8846,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>134</v>
       </c>
@@ -8886,7 +8887,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>134</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>134</v>
       </c>
@@ -8968,7 +8969,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>134</v>
       </c>
@@ -9009,7 +9010,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>134</v>
       </c>
@@ -9038,13 +9039,13 @@
         <v>3097</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L151" s="12" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>134</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>134</v>
       </c>
@@ -9120,7 +9121,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>134</v>
       </c>
@@ -9158,7 +9159,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>134</v>
       </c>
@@ -9196,7 +9197,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>134</v>
       </c>
@@ -9234,7 +9235,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>134</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>134</v>
       </c>
@@ -9301,7 +9302,7 @@
         <v>3097</v>
       </c>
       <c r="K158" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L158" s="12" t="s">
         <v>370</v>
@@ -9339,7 +9340,7 @@
         <v>3</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L159" s="12" t="s">
         <v>202</v>
@@ -9348,7 +9349,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>134</v>
       </c>
@@ -9377,7 +9378,7 @@
         <v>3099</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L160" s="12" t="s">
         <v>370</v>
@@ -9389,7 +9390,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>134</v>
       </c>
@@ -9418,7 +9419,7 @@
         <v>3099</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L161" s="12" t="s">
         <v>370</v>
@@ -9430,7 +9431,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>134</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>134</v>
       </c>
@@ -9550,7 +9551,7 @@
         <v>3</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L164" s="12" t="s">
         <v>202</v>
@@ -9562,7 +9563,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>134</v>
       </c>
@@ -9592,7 +9593,7 @@
       </c>
       <c r="J165" s="12"/>
       <c r="K165" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L165" s="12" t="s">
         <v>370</v>
@@ -9621,7 +9622,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>134</v>
       </c>
@@ -9651,7 +9652,7 @@
       </c>
       <c r="J166" s="12"/>
       <c r="K166" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L166" s="12" t="s">
         <v>370</v>
@@ -9680,7 +9681,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>134</v>
       </c>
@@ -9724,7 +9725,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>134</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>134</v>
       </c>
@@ -9800,7 +9801,7 @@
         <v>5</v>
       </c>
       <c r="K169" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L169" s="12" t="s">
         <v>202</v>
@@ -9815,7 +9816,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>134</v>
       </c>
@@ -9847,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="K170" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L170" s="12" t="s">
         <v>202</v>
@@ -9862,7 +9863,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>134</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="K171" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="L171" s="12" t="s">
         <v>202</v>
@@ -9910,7 +9911,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE171"/>
+  <autoFilter ref="A1:AE171">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="T1_104"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState columnSort="1" ref="K1:T168">
     <sortCondition ref="K1:T1"/>
   </sortState>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="381">
   <si>
     <t>T8_160</t>
   </si>
@@ -633,15 +633,9 @@
     <t>,3,29,39,83,</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>,2,</t>
   </si>
   <si>
-    <t>,3,29,39,83</t>
-  </si>
-  <si>
     <t>3002</t>
   </si>
   <si>
@@ -681,9 +675,6 @@
     <t>DEC B1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>,KKP,</t>
   </si>
   <si>
@@ -714,9 +705,6 @@
     <t>3007</t>
   </si>
   <si>
-    <t>18, 81</t>
-  </si>
-  <si>
     <t>,KS,</t>
   </si>
   <si>
@@ -735,9 +723,6 @@
     <t>DEC E</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>DEC EU</t>
   </si>
   <si>
@@ -753,9 +738,6 @@
     <t>DEC RC</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>,700,</t>
   </si>
   <si>
@@ -1201,6 +1183,18 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>,1,</t>
+  </si>
+  <si>
+    <t>,18,</t>
+  </si>
+  <si>
+    <t>,18,81,</t>
+  </si>
+  <si>
+    <t>,32,</t>
   </si>
 </sst>
 </file>
@@ -1635,12 +1629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,13 +1689,13 @@
         <v>184</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M1" s="2">
         <v>1</v>
@@ -1791,10 +1784,10 @@
         <v>3001</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>192</v>
@@ -1807,7 +1800,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>134</v>
       </c>
@@ -1827,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>185</v>
@@ -1839,22 +1832,22 @@
         <v>4</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AE3" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>134</v>
       </c>
@@ -1874,7 +1867,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>191</v>
@@ -1883,19 +1876,19 @@
         <v>3001</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA4" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -1915,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>191</v>
@@ -1927,13 +1920,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="12">
         <v>700</v>
@@ -1945,10 +1938,10 @@
         <v>186</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>134</v>
       </c>
@@ -1968,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>191</v>
@@ -1980,13 +1973,13 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -2015,12 +2008,12 @@
       </c>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>135</v>
@@ -2044,16 +2037,16 @@
         <v>3001</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R7" s="13" t="s">
         <v>189</v>
@@ -2063,12 +2056,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>135</v>
@@ -2092,27 +2085,27 @@
         <v>3072</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L8" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>204</v>
-      </c>
       <c r="AE8" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>135</v>
@@ -2136,27 +2129,27 @@
         <v>3072</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AE9" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>135</v>
@@ -2171,7 +2164,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>191</v>
@@ -2183,22 +2176,22 @@
         <v>7</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>192</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB10" s="12">
         <v>1</v>
@@ -2207,12 +2200,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>135</v>
@@ -2227,7 +2220,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>191</v>
@@ -2239,23 +2232,23 @@
         <v>7</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10">
@@ -2265,12 +2258,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>135</v>
@@ -2285,7 +2278,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>191</v>
@@ -2297,16 +2290,16 @@
         <v>7</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>192</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="11">
@@ -2316,12 +2309,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>135</v>
@@ -2336,7 +2329,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>191</v>
@@ -2348,10 +2341,10 @@
         <v>7</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>192</v>
@@ -2364,7 +2357,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10">
@@ -2374,12 +2367,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>135</v>
@@ -2394,7 +2387,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>191</v>
@@ -2406,10 +2399,10 @@
         <v>7</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>192</v>
@@ -2418,14 +2411,14 @@
         <v>700</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10">
@@ -2435,12 +2428,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>135</v>
@@ -2455,7 +2448,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>191</v>
@@ -2467,23 +2460,23 @@
         <v>7</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>192</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10">
@@ -2493,12 +2486,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>135</v>
@@ -2513,7 +2506,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>191</v>
@@ -2525,10 +2518,10 @@
         <v>7</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>192</v>
@@ -2544,12 +2537,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>135</v>
@@ -2564,7 +2557,7 @@
         <v>34</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>191</v>
@@ -2576,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>192</v>
@@ -2595,12 +2588,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>135</v>
@@ -2615,7 +2608,7 @@
         <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>191</v>
@@ -2627,10 +2620,10 @@
         <v>7</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>192</v>
@@ -2642,12 +2635,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>135</v>
@@ -2662,7 +2655,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>191</v>
@@ -2674,10 +2667,10 @@
         <v>7</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>192</v>
@@ -2695,12 +2688,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>135</v>
@@ -2715,7 +2708,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>191</v>
@@ -2727,10 +2720,10 @@
         <v>7</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>192</v>
@@ -2748,12 +2741,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>135</v>
@@ -2768,7 +2761,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>191</v>
@@ -2778,11 +2771,11 @@
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13" t="s">
@@ -2811,12 +2804,12 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>135</v>
@@ -2831,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>191</v>
@@ -2841,15 +2834,15 @@
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P22" s="12" t="s">
         <v>186</v>
@@ -2874,12 +2867,12 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>135</v>
@@ -2894,7 +2887,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>191</v>
@@ -2903,19 +2896,19 @@
         <v>3001</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>186</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="12">
         <v>700</v>
@@ -2947,25 +2940,25 @@
         <v>188</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I24" s="12">
         <v>3049</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="AE24" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>134</v>
       </c>
@@ -2995,10 +2988,10 @@
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>192</v>
@@ -3026,12 +3019,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>135</v>
@@ -3049,30 +3042,30 @@
         <v>190</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I26" s="12">
         <v>3049</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="AE26" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>135</v>
@@ -3087,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>191</v>
@@ -3099,28 +3092,28 @@
         <v>7</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>192</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S27" s="10"/>
       <c r="AE27" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>135</v>
@@ -3135,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>191</v>
@@ -3147,16 +3140,16 @@
         <v>7</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>192</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S28" s="10"/>
       <c r="AE28" s="10" t="s">
@@ -3186,25 +3179,25 @@
         <v>188</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I29" s="12">
         <v>3068</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AE29" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>134</v>
       </c>
@@ -3227,20 +3220,20 @@
         <v>3762</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I30" s="13">
         <v>3049</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -3265,12 +3258,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>135</v>
@@ -3288,30 +3281,30 @@
         <v>190</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I31" s="12">
         <v>3068</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AE31" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>135</v>
@@ -3326,37 +3319,37 @@
         <v>3</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I32" s="12">
         <v>3049</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L32" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="R32" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="R32" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="S32" s="10"/>
       <c r="AE32" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>135</v>
@@ -3371,25 +3364,25 @@
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I33" s="12">
         <v>3049</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="S33" s="10"/>
       <c r="AE33" s="10" t="s">
@@ -3419,19 +3412,19 @@
         <v>188</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I34" s="12">
         <v>3003</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AC34" s="14" t="s">
         <v>186</v>
@@ -3440,7 +3433,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>134</v>
       </c>
@@ -3463,19 +3456,19 @@
         <v>3762</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I35" s="12">
         <v>3068</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R35" s="14" t="s">
         <v>189</v>
@@ -3485,12 +3478,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>135</v>
@@ -3508,36 +3501,36 @@
         <v>190</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I36" s="12">
         <v>3003</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AE36" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>135</v>
@@ -3552,37 +3545,37 @@
         <v>3</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I37" s="12">
         <v>3068</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L37" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="R37" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="R37" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="S37" s="14"/>
       <c r="AE37" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>135</v>
@@ -3597,36 +3590,36 @@
         <v>1</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I38" s="12">
         <v>3068</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R38" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S38" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>135</v>
@@ -3641,10 +3634,10 @@
         <v>20</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I39" s="12">
         <v>3003</v>
@@ -3653,19 +3646,19 @@
         <v>3</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB39" s="14">
         <v>1</v>
@@ -3674,12 +3667,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>135</v>
@@ -3694,10 +3687,10 @@
         <v>22</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I40" s="12">
         <v>3003</v>
@@ -3706,19 +3699,19 @@
         <v>3</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U40" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB40" s="14">
         <v>2</v>
@@ -3727,12 +3720,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>135</v>
@@ -3747,10 +3740,10 @@
         <v>24</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I41" s="12">
         <v>3003</v>
@@ -3759,19 +3752,19 @@
         <v>3</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U41" s="14" t="s">
         <v>186</v>
       </c>
       <c r="Z41" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB41" s="14">
         <v>2</v>
@@ -3780,12 +3773,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>135</v>
@@ -3800,10 +3793,10 @@
         <v>44</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I42" s="12">
         <v>3003</v>
@@ -3812,13 +3805,13 @@
         <v>3</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
@@ -3835,7 +3828,7 @@
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA42" s="12"/>
       <c r="AB42" s="14">
@@ -3847,12 +3840,12 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
     </row>
-    <row r="43" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>135</v>
@@ -3867,10 +3860,10 @@
         <v>28</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I43" s="12">
         <v>3003</v>
@@ -3879,22 +3872,22 @@
         <v>3</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q43" s="10">
         <v>700</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z43" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB43" s="14">
         <v>2</v>
@@ -3903,12 +3896,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>135</v>
@@ -3923,10 +3916,10 @@
         <v>30</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I44" s="12">
         <v>3003</v>
@@ -3935,22 +3928,22 @@
         <v>3</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q44" s="10">
         <v>700</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z44" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB44" s="14">
         <v>1</v>
@@ -3959,12 +3952,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>135</v>
@@ -3979,10 +3972,10 @@
         <v>32</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I45" s="12">
         <v>3003</v>
@@ -3991,13 +3984,13 @@
         <v>3</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Z45" s="14" t="s">
         <v>186</v>
@@ -4009,12 +4002,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>135</v>
@@ -4029,10 +4022,10 @@
         <v>34</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I46" s="12">
         <v>3003</v>
@@ -4041,13 +4034,13 @@
         <v>3</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Z46" s="14" t="s">
         <v>186</v>
@@ -4059,12 +4052,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>135</v>
@@ -4079,10 +4072,10 @@
         <v>36</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I47" s="12">
         <v>3003</v>
@@ -4091,13 +4084,13 @@
         <v>3</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AB47" s="14">
         <v>4</v>
@@ -4106,12 +4099,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>135</v>
@@ -4126,10 +4119,10 @@
         <v>38</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I48" s="12">
         <v>3003</v>
@@ -4138,13 +4131,13 @@
         <v>3</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V48" s="14" t="s">
         <v>186</v>
@@ -4159,12 +4152,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>135</v>
@@ -4179,10 +4172,10 @@
         <v>40</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I49" s="12">
         <v>3003</v>
@@ -4191,13 +4184,13 @@
         <v>3</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V49" s="14" t="s">
         <v>186</v>
@@ -4235,25 +4228,25 @@
         <v>188</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I50" s="12">
         <v>3056</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AE50" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>134</v>
       </c>
@@ -4276,7 +4269,7 @@
         <v>3762</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I51" s="12">
         <v>3003</v>
@@ -4285,13 +4278,13 @@
         <v>1</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R51" s="14" t="s">
         <v>189</v>
@@ -4300,12 +4293,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>135</v>
@@ -4323,30 +4316,30 @@
         <v>190</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I52" s="12">
         <v>3056</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AE52" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>135</v>
@@ -4361,10 +4354,10 @@
         <v>3</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I53" s="12">
         <v>3003</v>
@@ -4373,27 +4366,27 @@
         <v>3</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L53" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="R53" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="M53" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="R53" s="14" t="s">
-        <v>204</v>
-      </c>
       <c r="AE53" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>135</v>
@@ -4408,10 +4401,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I54" s="12">
         <v>3003</v>
@@ -4420,22 +4413,22 @@
         <v>3</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AE54" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>134</v>
       </c>
@@ -4455,10 +4448,10 @@
         <v>89</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I55" s="12">
         <v>3033</v>
@@ -4467,22 +4460,22 @@
         <v>1</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="W55" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X55" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>134</v>
       </c>
@@ -4502,10 +4495,10 @@
         <v>91</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I56" s="12">
         <v>3033</v>
@@ -4514,13 +4507,13 @@
         <v>2</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>186</v>
@@ -4555,25 +4548,25 @@
         <v>188</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I57" s="12">
         <v>3058</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AC57" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>134</v>
       </c>
@@ -4593,25 +4586,25 @@
         <v>97</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I58" s="12">
         <v>3058</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="U58" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB58" s="14">
         <v>1</v>
@@ -4620,7 +4613,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>134</v>
       </c>
@@ -4640,25 +4633,25 @@
         <v>97</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I59" s="12">
         <v>3058</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB59" s="14">
         <v>2</v>
@@ -4667,7 +4660,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>134</v>
       </c>
@@ -4687,22 +4680,22 @@
         <v>97</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I60" s="12">
         <v>3058</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="U60" s="14" t="s">
         <v>186</v>
@@ -4714,7 +4707,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>134</v>
       </c>
@@ -4734,22 +4727,22 @@
         <v>99</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I61" s="12">
         <v>3058</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="U61" s="14" t="s">
         <v>186</v>
@@ -4761,7 +4754,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>134</v>
       </c>
@@ -4781,10 +4774,10 @@
         <v>89</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I62" s="12">
         <v>3047</v>
@@ -4793,22 +4786,22 @@
         <v>1</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M62" s="17" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="W62" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X62" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>134</v>
       </c>
@@ -4828,10 +4821,10 @@
         <v>91</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I63" s="12">
         <v>3047</v>
@@ -4840,13 +4833,13 @@
         <v>2</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M63" s="17" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>186</v>
@@ -4887,16 +4880,16 @@
         <v>3072</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="AE64" s="13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>134</v>
       </c>
@@ -4925,7 +4918,7 @@
         <v>3072</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="R65" s="12" t="s">
         <v>189</v>
@@ -4957,19 +4950,19 @@
         <v>188</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I66" s="12">
         <v>3023</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M66" s="14">
-        <v>18</v>
+        <v>200</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="AC66" s="11" t="s">
         <v>186</v>
@@ -4978,7 +4971,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>134</v>
       </c>
@@ -5001,19 +4994,19 @@
         <v>3762</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I67" s="12">
         <v>3023</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M67" s="10">
-        <v>18</v>
+        <v>200</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="R67" s="10" t="s">
         <v>189</v>
@@ -5022,12 +5015,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>135</v>
@@ -5042,33 +5035,33 @@
         <v>45</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I68" s="12">
         <v>3023</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M68" s="10">
-        <v>18</v>
+        <v>200</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="AE68" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>135</v>
@@ -5083,33 +5076,33 @@
         <v>47</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I69" s="12">
         <v>3023</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M69" s="10">
-        <v>18</v>
+        <v>200</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="AE69" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>135</v>
@@ -5124,10 +5117,10 @@
         <v>57</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I70" s="12">
         <v>3023</v>
@@ -5136,27 +5129,27 @@
         <v>7</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L70" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="R70" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="M70" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="R70" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="AE70" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>135</v>
@@ -5171,10 +5164,10 @@
         <v>59</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I71" s="12">
         <v>3023</v>
@@ -5183,27 +5176,27 @@
         <v>7</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="R71" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AE71" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>135</v>
@@ -5218,10 +5211,10 @@
         <v>61</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I72" s="12">
         <v>3023</v>
@@ -5230,16 +5223,16 @@
         <v>8</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB72" s="11">
         <v>2</v>
@@ -5248,12 +5241,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>135</v>
@@ -5268,10 +5261,10 @@
         <v>63</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I73" s="12">
         <v>3023</v>
@@ -5280,27 +5273,27 @@
         <v>8</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC73" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>135</v>
@@ -5315,10 +5308,10 @@
         <v>65</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I74" s="12">
         <v>3023</v>
@@ -5327,27 +5320,27 @@
         <v>8</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L74" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="R74" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="M74" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="R74" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="T74" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>135</v>
@@ -5362,10 +5355,10 @@
         <v>67</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I75" s="12">
         <v>3023</v>
@@ -5374,27 +5367,27 @@
         <v>8</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="R75" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T75" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>135</v>
@@ -5409,10 +5402,10 @@
         <v>69</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I76" s="12">
         <v>3023</v>
@@ -5421,27 +5414,27 @@
         <v>8</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="R76" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="T76" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>135</v>
@@ -5456,10 +5449,10 @@
         <v>71</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I77" s="12">
         <v>3023</v>
@@ -5468,16 +5461,16 @@
         <v>8</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="Z77" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB77" s="11">
         <v>1</v>
@@ -5486,12 +5479,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>135</v>
@@ -5506,10 +5499,10 @@
         <v>73</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I78" s="12">
         <v>3023</v>
@@ -5518,16 +5511,16 @@
         <v>8</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="Z78" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB78" s="11">
         <v>2</v>
@@ -5536,12 +5529,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>135</v>
@@ -5556,10 +5549,10 @@
         <v>75</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I79" s="12">
         <v>3023</v>
@@ -5568,13 +5561,13 @@
         <v>8</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="Z79" s="11" t="s">
         <v>186</v>
@@ -5586,12 +5579,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>135</v>
@@ -5606,10 +5599,10 @@
         <v>77</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I80" s="12">
         <v>3023</v>
@@ -5618,13 +5611,13 @@
         <v>8</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="Z80" s="11" t="s">
         <v>186</v>
@@ -5636,12 +5629,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>135</v>
@@ -5656,10 +5649,10 @@
         <v>79</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I81" s="12">
         <v>3023</v>
@@ -5668,13 +5661,13 @@
         <v>8</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="AB81" s="11">
         <v>4</v>
@@ -5683,12 +5676,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>135</v>
@@ -5703,10 +5696,10 @@
         <v>81</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I82" s="12">
         <v>3023</v>
@@ -5715,19 +5708,19 @@
         <v>8</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="Q82" s="11">
         <v>700</v>
       </c>
       <c r="Z82" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB82" s="11">
         <v>2</v>
@@ -5736,12 +5729,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>135</v>
@@ -5756,10 +5749,10 @@
         <v>83</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I83" s="12">
         <v>3023</v>
@@ -5768,19 +5761,19 @@
         <v>8</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="Q83" s="11">
         <v>700</v>
       </c>
       <c r="Z83" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB83" s="11">
         <v>1</v>
@@ -5789,12 +5782,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>135</v>
@@ -5809,10 +5802,10 @@
         <v>85</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I84" s="12">
         <v>3023</v>
@@ -5821,13 +5814,13 @@
         <v>8</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="V84" s="11" t="s">
         <v>186</v>
@@ -5842,12 +5835,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>135</v>
@@ -5862,10 +5855,10 @@
         <v>87</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I85" s="12">
         <v>3023</v>
@@ -5874,13 +5867,13 @@
         <v>8</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="V85" s="11" t="s">
         <v>186</v>
@@ -5895,12 +5888,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>135</v>
@@ -5915,22 +5908,22 @@
         <v>49</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I86" s="12">
         <v>3023</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="O86" s="11" t="s">
         <v>186</v>
@@ -5945,12 +5938,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>135</v>
@@ -5965,42 +5958,42 @@
         <v>51</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I87" s="12">
         <v>3023</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="O87" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P87" s="11" t="s">
         <v>186</v>
       </c>
       <c r="R87" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T87" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>135</v>
@@ -6015,31 +6008,31 @@
         <v>53</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I88" s="12">
         <v>3023</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="O88" s="11" t="s">
         <v>186</v>
       </c>
       <c r="P88" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R88" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="T88" s="11" t="s">
         <v>186</v>
@@ -6068,30 +6061,30 @@
         <v>188</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I89" s="12">
         <v>3042</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="AC89" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>135</v>
@@ -6106,10 +6099,10 @@
         <v>61</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I90" s="12">
         <v>3042</v>
@@ -6118,19 +6111,19 @@
         <v>3</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z90" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB90" s="15">
         <v>2</v>
@@ -6139,12 +6132,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>135</v>
@@ -6159,10 +6152,10 @@
         <v>63</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I91" s="12">
         <v>3042</v>
@@ -6171,19 +6164,19 @@
         <v>3</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z91" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB91" s="15">
         <v>2</v>
@@ -6192,12 +6185,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>135</v>
@@ -6212,10 +6205,10 @@
         <v>71</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I92" s="12">
         <v>3042</v>
@@ -6224,16 +6217,16 @@
         <v>3</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Z92" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB92" s="15">
         <v>1</v>
@@ -6242,12 +6235,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>135</v>
@@ -6262,10 +6255,10 @@
         <v>73</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I93" s="12">
         <v>3042</v>
@@ -6274,16 +6267,16 @@
         <v>3</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Z93" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB93" s="15">
         <v>2</v>
@@ -6292,12 +6285,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>135</v>
@@ -6312,10 +6305,10 @@
         <v>75</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I94" s="12">
         <v>3042</v>
@@ -6324,13 +6317,13 @@
         <v>3</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Z94" s="15" t="s">
         <v>186</v>
@@ -6342,12 +6335,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>135</v>
@@ -6362,10 +6355,10 @@
         <v>77</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I95" s="12">
         <v>3042</v>
@@ -6374,13 +6367,13 @@
         <v>3</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Z95" s="15" t="s">
         <v>186</v>
@@ -6392,12 +6385,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>135</v>
@@ -6412,10 +6405,10 @@
         <v>79</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I96" s="12">
         <v>3042</v>
@@ -6424,13 +6417,13 @@
         <v>3</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="AB96" s="15">
         <v>4</v>
@@ -6439,12 +6432,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>135</v>
@@ -6459,10 +6452,10 @@
         <v>81</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I97" s="12">
         <v>3042</v>
@@ -6471,19 +6464,19 @@
         <v>3</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Q97" s="14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z97" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB97" s="15">
         <v>2</v>
@@ -6492,12 +6485,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>135</v>
@@ -6512,10 +6505,10 @@
         <v>83</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I98" s="12">
         <v>3042</v>
@@ -6524,19 +6517,19 @@
         <v>3</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Q98" s="14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z98" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB98" s="15">
         <v>1</v>
@@ -6545,12 +6538,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>135</v>
@@ -6565,10 +6558,10 @@
         <v>85</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I99" s="12">
         <v>3042</v>
@@ -6577,13 +6570,13 @@
         <v>3</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="V99" s="15" t="s">
         <v>186</v>
@@ -6595,12 +6588,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>135</v>
@@ -6615,10 +6608,10 @@
         <v>87</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I100" s="12">
         <v>3042</v>
@@ -6627,13 +6620,13 @@
         <v>3</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>186</v>
@@ -6645,7 +6638,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>134</v>
       </c>
@@ -6665,22 +6658,22 @@
         <v>93</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I101" s="12">
         <v>3048</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M101" s="14">
-        <v>32</v>
+        <v>200</v>
+      </c>
+      <c r="M101" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="X101" s="15" t="s">
         <v>186</v>
@@ -6709,25 +6702,25 @@
         <v>188</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I102" s="12">
         <v>3041</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AE102" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>134</v>
       </c>
@@ -6750,19 +6743,19 @@
         <v>3762</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I103" s="12">
         <v>3056</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R103" s="14" t="s">
         <v>189</v>
@@ -6771,12 +6764,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>135</v>
@@ -6794,33 +6787,33 @@
         <v>190</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I104" s="12">
         <v>3041</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE104" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>135</v>
@@ -6835,10 +6828,10 @@
         <v>3</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I105" s="12">
         <v>3056</v>
@@ -6847,27 +6840,27 @@
         <v>1</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R105" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AE105" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>135</v>
@@ -6882,10 +6875,10 @@
         <v>1</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I106" s="12">
         <v>3056</v>
@@ -6894,27 +6887,27 @@
         <v>1</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R106" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AE106" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>135</v>
@@ -6929,10 +6922,10 @@
         <v>20</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I107" s="12">
         <v>3041</v>
@@ -6941,19 +6934,19 @@
         <v>4</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U107" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z107" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB107" s="14">
         <v>1</v>
@@ -6962,12 +6955,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>135</v>
@@ -6982,10 +6975,10 @@
         <v>22</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I108" s="12">
         <v>3041</v>
@@ -6994,19 +6987,19 @@
         <v>4</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U108" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z108" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB108" s="14">
         <v>2</v>
@@ -7015,12 +7008,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>135</v>
@@ -7035,10 +7028,10 @@
         <v>24</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I109" s="12">
         <v>3041</v>
@@ -7047,19 +7040,19 @@
         <v>4</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U109" s="14" t="s">
         <v>186</v>
       </c>
       <c r="Z109" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB109" s="14">
         <v>2</v>
@@ -7068,12 +7061,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>135</v>
@@ -7088,10 +7081,10 @@
         <v>44</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I110" s="12">
         <v>3041</v>
@@ -7100,19 +7093,19 @@
         <v>4</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U110" s="14" t="s">
         <v>186</v>
       </c>
       <c r="Z110" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB110" s="14">
         <v>1</v>
@@ -7121,12 +7114,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>135</v>
@@ -7141,10 +7134,10 @@
         <v>28</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I111" s="12">
         <v>3041</v>
@@ -7153,22 +7146,22 @@
         <v>4</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q111" s="11">
         <v>700</v>
       </c>
       <c r="U111" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z111" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB111" s="14">
         <v>2</v>
@@ -7177,12 +7170,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>135</v>
@@ -7197,10 +7190,10 @@
         <v>30</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I112" s="12">
         <v>3041</v>
@@ -7209,22 +7202,22 @@
         <v>4</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q112" s="11">
         <v>700</v>
       </c>
       <c r="U112" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z112" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB112" s="14">
         <v>1</v>
@@ -7233,12 +7226,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>135</v>
@@ -7253,10 +7246,10 @@
         <v>32</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I113" s="12">
         <v>3041</v>
@@ -7265,13 +7258,13 @@
         <v>4</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Z113" s="14" t="s">
         <v>186</v>
@@ -7283,12 +7276,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>135</v>
@@ -7303,10 +7296,10 @@
         <v>34</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I114" s="12">
         <v>3041</v>
@@ -7315,13 +7308,13 @@
         <v>4</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L114" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Z114" s="14" t="s">
         <v>186</v>
@@ -7333,12 +7326,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>135</v>
@@ -7353,10 +7346,10 @@
         <v>36</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I115" s="12">
         <v>3041</v>
@@ -7365,13 +7358,13 @@
         <v>4</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L115" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AB115" s="14">
         <v>4</v>
@@ -7380,12 +7373,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>135</v>
@@ -7400,10 +7393,10 @@
         <v>38</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I116" s="12">
         <v>3041</v>
@@ -7412,13 +7405,13 @@
         <v>4</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L116" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V116" s="14" t="s">
         <v>186</v>
@@ -7433,12 +7426,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>135</v>
@@ -7453,10 +7446,10 @@
         <v>40</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I117" s="12">
         <v>3041</v>
@@ -7465,13 +7458,13 @@
         <v>4</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L117" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V117" s="14" t="s">
         <v>186</v>
@@ -7509,25 +7502,25 @@
         <v>188</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I118" s="12">
         <v>3067</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L118" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AE118" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>134</v>
       </c>
@@ -7550,7 +7543,7 @@
         <v>3762</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I119" s="12">
         <v>3041</v>
@@ -7559,13 +7552,13 @@
         <v>9</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L119" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R119" s="14" t="s">
         <v>189</v>
@@ -7574,12 +7567,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>135</v>
@@ -7597,30 +7590,30 @@
         <v>190</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I120" s="12">
         <v>3067</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L120" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AE120" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="121" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>135</v>
@@ -7635,10 +7628,10 @@
         <v>3</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I121" s="12">
         <v>3041</v>
@@ -7647,27 +7640,27 @@
         <v>4</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L121" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="M121" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="R121" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="M121" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="R121" s="14" t="s">
-        <v>204</v>
-      </c>
       <c r="AE121" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>135</v>
@@ -7682,10 +7675,10 @@
         <v>1</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I122" s="12">
         <v>3041</v>
@@ -7694,22 +7687,22 @@
         <v>4</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L122" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R122" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AE122" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>134</v>
       </c>
@@ -7729,10 +7722,10 @@
         <v>89</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I123" s="12">
         <v>3042</v>
@@ -7741,22 +7734,22 @@
         <v>1</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L123" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M123" s="11">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="W123" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X123" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>134</v>
       </c>
@@ -7776,10 +7769,10 @@
         <v>91</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I124" s="12">
         <v>3042</v>
@@ -7788,13 +7781,13 @@
         <v>2</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M124" s="11">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="W124" s="17" t="s">
         <v>186</v>
@@ -7806,7 +7799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>134</v>
       </c>
@@ -7826,10 +7819,10 @@
         <v>89</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I125" s="12">
         <v>3070</v>
@@ -7838,22 +7831,22 @@
         <v>1</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L125" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="W125" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X125" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>134</v>
       </c>
@@ -7873,10 +7866,10 @@
         <v>91</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I126" s="12">
         <v>3070</v>
@@ -7885,13 +7878,13 @@
         <v>2</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L126" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="W126" s="11" t="s">
         <v>186</v>
@@ -7926,30 +7919,30 @@
         <v>3000</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I127" s="13">
         <v>3046</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L127" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="AC127" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>135</v>
@@ -7964,10 +7957,10 @@
         <v>61</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I128" s="12">
         <v>3046</v>
@@ -7976,19 +7969,19 @@
         <v>3</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L128" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="N128" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z128" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB128" s="15">
         <v>2</v>
@@ -7997,12 +7990,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>135</v>
@@ -8017,10 +8010,10 @@
         <v>63</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I129" s="12">
         <v>3046</v>
@@ -8029,19 +8022,19 @@
         <v>3</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z129" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB129" s="15">
         <v>2</v>
@@ -8050,12 +8043,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>135</v>
@@ -8070,10 +8063,10 @@
         <v>71</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I130" s="12">
         <v>3046</v>
@@ -8082,16 +8075,16 @@
         <v>3</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Z130" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB130" s="15">
         <v>1</v>
@@ -8100,12 +8093,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>135</v>
@@ -8120,10 +8113,10 @@
         <v>73</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I131" s="12">
         <v>3046</v>
@@ -8132,16 +8125,16 @@
         <v>3</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L131" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Z131" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB131" s="15">
         <v>2</v>
@@ -8150,12 +8143,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>135</v>
@@ -8170,10 +8163,10 @@
         <v>75</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I132" s="12">
         <v>3046</v>
@@ -8182,13 +8175,13 @@
         <v>3</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Z132" s="15" t="s">
         <v>186</v>
@@ -8200,12 +8193,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>135</v>
@@ -8220,10 +8213,10 @@
         <v>77</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I133" s="12">
         <v>3046</v>
@@ -8232,13 +8225,13 @@
         <v>3</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Z133" s="15" t="s">
         <v>186</v>
@@ -8250,12 +8243,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>135</v>
@@ -8270,10 +8263,10 @@
         <v>79</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I134" s="12">
         <v>3046</v>
@@ -8282,13 +8275,13 @@
         <v>3</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="AB134" s="15">
         <v>4</v>
@@ -8297,12 +8290,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>135</v>
@@ -8317,10 +8310,10 @@
         <v>81</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I135" s="12">
         <v>3046</v>
@@ -8329,19 +8322,19 @@
         <v>3</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Q135" s="14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z135" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB135" s="15">
         <v>2</v>
@@ -8350,12 +8343,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>135</v>
@@ -8370,10 +8363,10 @@
         <v>83</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I136" s="12">
         <v>3046</v>
@@ -8382,19 +8375,19 @@
         <v>3</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L136" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="Q136" s="14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z136" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB136" s="15">
         <v>1</v>
@@ -8403,12 +8396,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>135</v>
@@ -8423,10 +8416,10 @@
         <v>85</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I137" s="12">
         <v>3046</v>
@@ -8435,13 +8428,13 @@
         <v>3</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="V137" s="15" t="s">
         <v>186</v>
@@ -8453,12 +8446,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>135</v>
@@ -8473,10 +8466,10 @@
         <v>87</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I138" s="13">
         <v>3046</v>
@@ -8485,13 +8478,13 @@
         <v>3</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L138" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
@@ -8518,7 +8511,7 @@
       <c r="AD138" s="13"/>
       <c r="AE138" s="13"/>
     </row>
-    <row r="139" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>134</v>
       </c>
@@ -8538,22 +8531,22 @@
         <v>93</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I139" s="12">
         <v>3071</v>
       </c>
       <c r="K139" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L139" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M139" s="10">
-        <v>32</v>
+        <v>200</v>
+      </c>
+      <c r="M139" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="X139" s="10" t="s">
         <v>186</v>
@@ -8582,30 +8575,30 @@
         <v>188</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I140" s="12">
         <v>3091</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L140" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AE140" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>135</v>
@@ -8620,10 +8613,10 @@
         <v>101</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I141" s="12">
         <v>3091</v>
@@ -8632,21 +8625,21 @@
         <v>3</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AE141" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>135</v>
@@ -8661,10 +8654,10 @@
         <v>103</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I142" s="12">
         <v>3091</v>
@@ -8673,21 +8666,21 @@
         <v>3</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AE142" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>135</v>
@@ -8702,10 +8695,10 @@
         <v>105</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I143" s="12">
         <v>3091</v>
@@ -8714,21 +8707,21 @@
         <v>3</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L143" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AE143" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>135</v>
@@ -8743,10 +8736,10 @@
         <v>107</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I144" s="12">
         <v>3091</v>
@@ -8755,21 +8748,21 @@
         <v>3</v>
       </c>
       <c r="K144" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AE144" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>135</v>
@@ -8784,10 +8777,10 @@
         <v>109</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I145" s="12">
         <v>3091</v>
@@ -8796,21 +8789,21 @@
         <v>4</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AE145" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>135</v>
@@ -8825,10 +8818,10 @@
         <v>111</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I146" s="12">
         <v>3091</v>
@@ -8837,21 +8830,21 @@
         <v>4</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AE146" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>135</v>
@@ -8866,10 +8859,10 @@
         <v>113</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I147" s="12">
         <v>3091</v>
@@ -8878,21 +8871,21 @@
         <v>4</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AE147" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>135</v>
@@ -8907,10 +8900,10 @@
         <v>115</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I148" s="12">
         <v>3091</v>
@@ -8919,21 +8912,21 @@
         <v>4</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L148" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AE148" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>135</v>
@@ -8948,10 +8941,10 @@
         <v>117</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I149" s="12">
         <v>3091</v>
@@ -8960,21 +8953,21 @@
         <v>4</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L149" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AE149" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>135</v>
@@ -8989,10 +8982,10 @@
         <v>119</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I150" s="12">
         <v>3091</v>
@@ -9001,21 +8994,21 @@
         <v>4</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AE150" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>135</v>
@@ -9030,27 +9023,27 @@
         <v>121</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I151" s="12">
         <v>3097</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L151" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="152" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>135</v>
@@ -9065,10 +9058,10 @@
         <v>125</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I152" s="12">
         <v>3097</v>
@@ -9077,18 +9070,18 @@
         <v>2</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>135</v>
@@ -9103,10 +9096,10 @@
         <v>126</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I153" s="12">
         <v>3097</v>
@@ -9115,18 +9108,18 @@
         <v>2</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>135</v>
@@ -9141,10 +9134,10 @@
         <v>127</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I154" s="12">
         <v>3097</v>
@@ -9153,18 +9146,18 @@
         <v>2</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="155" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>135</v>
@@ -9179,10 +9172,10 @@
         <v>128</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I155" s="12">
         <v>3097</v>
@@ -9191,18 +9184,18 @@
         <v>2</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>135</v>
@@ -9217,10 +9210,10 @@
         <v>130</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I156" s="12">
         <v>3097</v>
@@ -9229,18 +9222,18 @@
         <v>2</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="157" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>135</v>
@@ -9255,10 +9248,10 @@
         <v>132</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I157" s="12">
         <v>3097</v>
@@ -9267,18 +9260,18 @@
         <v>2</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>135</v>
@@ -9293,19 +9286,19 @@
         <v>123</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="I158" s="12">
         <v>3097</v>
       </c>
       <c r="K158" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="159" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9331,7 +9324,7 @@
         <v>188</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I159" s="12">
         <v>3099</v>
@@ -9340,21 +9333,21 @@
         <v>3</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AE159" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>135</v>
@@ -9369,33 +9362,33 @@
         <v>101</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I160" s="12">
         <v>3099</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AE160" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>135</v>
@@ -9410,33 +9403,33 @@
         <v>103</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I161" s="12">
         <v>3099</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M161" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AE161" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>135</v>
@@ -9451,10 +9444,10 @@
         <v>109</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I162" s="12">
         <v>3099</v>
@@ -9463,24 +9456,24 @@
         <v>2</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M162" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AE162" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>135</v>
@@ -9495,10 +9488,10 @@
         <v>111</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I163" s="12">
         <v>3099</v>
@@ -9507,13 +9500,13 @@
         <v>2</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L163" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M163" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AE163" s="15" t="s">
         <v>186</v>
@@ -9542,7 +9535,7 @@
         <v>188</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="I164" s="12">
         <v>3101</v>
@@ -9551,24 +9544,24 @@
         <v>3</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L164" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AE164" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>135</v>
@@ -9583,23 +9576,23 @@
         <v>101</v>
       </c>
       <c r="G165" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H165" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="H165" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="I165" s="12">
         <v>3101</v>
       </c>
       <c r="J165" s="12"/>
       <c r="K165" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L165" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="M165" s="14" t="s">
         <v>370</v>
-      </c>
-      <c r="M165" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
@@ -9622,12 +9615,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>135</v>
@@ -9642,23 +9635,23 @@
         <v>103</v>
       </c>
       <c r="G166" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H166" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="H166" s="19" t="s">
-        <v>375</v>
       </c>
       <c r="I166" s="12">
         <v>3101</v>
       </c>
       <c r="J166" s="12"/>
       <c r="K166" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L166" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="M166" s="14" t="s">
         <v>370</v>
-      </c>
-      <c r="M166" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="N166" s="12"/>
       <c r="O166" s="12"/>
@@ -9681,12 +9674,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>135</v>
@@ -9701,10 +9694,10 @@
         <v>109</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="I167" s="12">
         <v>3101</v>
@@ -9713,24 +9706,24 @@
         <v>3</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L167" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="M167" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="M167" s="14" t="s">
-        <v>376</v>
-      </c>
       <c r="AE167" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>135</v>
@@ -9745,10 +9738,10 @@
         <v>111</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="I168" s="12">
         <v>3101</v>
@@ -9757,19 +9750,19 @@
         <v>3</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L168" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="M168" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="M168" s="14" t="s">
-        <v>376</v>
-      </c>
       <c r="AE168" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>134</v>
       </c>
@@ -9792,7 +9785,7 @@
         <v>3762</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I169" s="12">
         <v>3067</v>
@@ -9801,13 +9794,13 @@
         <v>5</v>
       </c>
       <c r="K169" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L169" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M169" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R169" s="10" t="s">
         <v>189</v>
@@ -9816,12 +9809,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>135</v>
@@ -9836,10 +9829,10 @@
         <v>3</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I170" s="12">
         <v>3067</v>
@@ -9848,27 +9841,27 @@
         <v>1</v>
       </c>
       <c r="K170" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L170" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M170" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R170" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AE170" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>135</v>
@@ -9883,10 +9876,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I171" s="12">
         <v>3067</v>
@@ -9895,29 +9888,23 @@
         <v>1</v>
       </c>
       <c r="K171" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L171" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M171" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R171" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AE171" s="10" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE171">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="T1_104"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AE171"/>
   <sortState columnSort="1" ref="K1:T168">
     <sortCondition ref="K1:T1"/>
   </sortState>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="15" windowWidth="23415" windowHeight="9960" tabRatio="179"/>
+    <workbookView xWindow="2805" yWindow="15" windowWidth="23415" windowHeight="9960" tabRatio="179"/>
   </bookViews>
   <sheets>
     <sheet name="toSOS_S_TEKSTOW" sheetId="1" r:id="rId1"/>
@@ -714,9 +714,6 @@
     <t>3007</t>
   </si>
   <si>
-    <t>18, 81</t>
-  </si>
-  <si>
     <t>,KS,</t>
   </si>
   <si>
@@ -1201,12 +1198,15 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>,18,81,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1332,7 +1332,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1349,9 +1349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1389,7 +1389,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1461,7 +1461,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1635,12 +1635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1647,7 @@
     <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="6" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="2" style="3" customWidth="1"/>
     <col min="6" max="6" width="54.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
@@ -1659,7 +1658,7 @@
     <col min="12" max="12" width="7.7109375" style="12" customWidth="1"/>
     <col min="13" max="13" width="24" style="12" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="13" style="12" customWidth="1"/>
     <col min="16" max="16" width="2.85546875" style="12" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="12" customWidth="1"/>
     <col min="18" max="19" width="4.5703125" style="12" customWidth="1"/>
@@ -1699,7 +1698,7 @@
         <v>200</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>201</v>
@@ -1807,7 +1806,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>134</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>185</v>
@@ -1848,13 +1847,13 @@
         <v>193</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AE3" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>134</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>134</v>
       </c>
@@ -2015,12 +2014,12 @@
       </c>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>135</v>
@@ -2044,7 +2043,7 @@
         <v>3001</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>202</v>
@@ -2063,12 +2062,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>135</v>
@@ -2107,12 +2106,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>135</v>
@@ -2151,12 +2150,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>135</v>
@@ -2207,12 +2206,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>135</v>
@@ -2265,12 +2264,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>135</v>
@@ -2316,12 +2315,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>135</v>
@@ -2374,12 +2373,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>135</v>
@@ -2435,12 +2434,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>135</v>
@@ -2493,12 +2492,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>135</v>
@@ -2544,12 +2543,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>135</v>
@@ -2595,12 +2594,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>135</v>
@@ -2642,12 +2641,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>135</v>
@@ -2695,12 +2694,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>135</v>
@@ -2748,12 +2747,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>135</v>
@@ -2811,12 +2810,12 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>135</v>
@@ -2874,12 +2873,12 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>135</v>
@@ -2965,7 +2964,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>134</v>
       </c>
@@ -3026,12 +3025,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>135</v>
@@ -3055,7 +3054,7 @@
         <v>3049</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>202</v>
@@ -3067,12 +3066,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>135</v>
@@ -3115,12 +3114,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>135</v>
@@ -3204,7 +3203,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>134</v>
       </c>
@@ -3265,12 +3264,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>135</v>
@@ -3294,7 +3293,7 @@
         <v>3068</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>202</v>
@@ -3306,12 +3305,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>135</v>
@@ -3351,12 +3350,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>135</v>
@@ -3440,7 +3439,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>134</v>
       </c>
@@ -3485,12 +3484,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>135</v>
@@ -3514,7 +3513,7 @@
         <v>3003</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>202</v>
@@ -3532,12 +3531,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>135</v>
@@ -3577,12 +3576,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>135</v>
@@ -3621,12 +3620,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>135</v>
@@ -3674,12 +3673,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>135</v>
@@ -3727,12 +3726,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>135</v>
@@ -3780,12 +3779,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>135</v>
@@ -3847,12 +3846,12 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
     </row>
-    <row r="43" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>135</v>
@@ -3903,12 +3902,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>135</v>
@@ -3959,12 +3958,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>135</v>
@@ -4009,12 +4008,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>135</v>
@@ -4059,12 +4058,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>135</v>
@@ -4106,12 +4105,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>135</v>
@@ -4159,12 +4158,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>135</v>
@@ -4235,7 +4234,7 @@
         <v>188</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I50" s="12">
         <v>3056</v>
@@ -4247,13 +4246,13 @@
         <v>202</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE50" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>134</v>
       </c>
@@ -4300,12 +4299,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>135</v>
@@ -4323,30 +4322,30 @@
         <v>190</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I52" s="12">
         <v>3056</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L52" s="12" t="s">
         <v>202</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE52" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>135</v>
@@ -4388,12 +4387,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>135</v>
@@ -4435,7 +4434,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>134</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>207</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I55" s="12">
         <v>3033</v>
@@ -4473,7 +4472,7 @@
         <v>202</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W55" s="15" t="s">
         <v>198</v>
@@ -4482,7 +4481,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>134</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>207</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I56" s="12">
         <v>3033</v>
@@ -4520,7 +4519,7 @@
         <v>202</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>186</v>
@@ -4555,7 +4554,7 @@
         <v>188</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I57" s="12">
         <v>3058</v>
@@ -4567,13 +4566,13 @@
         <v>202</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AC57" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>134</v>
       </c>
@@ -4593,10 +4592,10 @@
         <v>97</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I58" s="12">
         <v>3058</v>
@@ -4608,7 +4607,7 @@
         <v>202</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U58" s="14" t="s">
         <v>198</v>
@@ -4620,7 +4619,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>134</v>
       </c>
@@ -4640,10 +4639,10 @@
         <v>97</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I59" s="12">
         <v>3058</v>
@@ -4655,7 +4654,7 @@
         <v>202</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U59" s="14" t="s">
         <v>198</v>
@@ -4667,7 +4666,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>134</v>
       </c>
@@ -4687,10 +4686,10 @@
         <v>97</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I60" s="12">
         <v>3058</v>
@@ -4702,7 +4701,7 @@
         <v>202</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U60" s="14" t="s">
         <v>186</v>
@@ -4714,7 +4713,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>134</v>
       </c>
@@ -4734,10 +4733,10 @@
         <v>99</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I61" s="12">
         <v>3058</v>
@@ -4749,7 +4748,7 @@
         <v>202</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U61" s="14" t="s">
         <v>186</v>
@@ -4761,7 +4760,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>134</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>207</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I62" s="12">
         <v>3047</v>
@@ -4799,7 +4798,7 @@
         <v>202</v>
       </c>
       <c r="M62" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W62" s="17" t="s">
         <v>198</v>
@@ -4808,7 +4807,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>134</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>207</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I63" s="12">
         <v>3047</v>
@@ -4846,7 +4845,7 @@
         <v>202</v>
       </c>
       <c r="M63" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>186</v>
@@ -4896,7 +4895,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>134</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>3072</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R65" s="12" t="s">
         <v>189</v>
@@ -4978,7 +4977,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>134</v>
       </c>
@@ -5022,12 +5021,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>135</v>
@@ -5051,7 +5050,7 @@
         <v>3023</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>202</v>
@@ -5063,12 +5062,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>135</v>
@@ -5092,7 +5091,7 @@
         <v>3023</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L69" s="12" t="s">
         <v>202</v>
@@ -5104,12 +5103,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>135</v>
@@ -5142,7 +5141,7 @@
         <v>202</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="R70" s="11" t="s">
         <v>204</v>
@@ -5151,12 +5150,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>135</v>
@@ -5189,7 +5188,7 @@
         <v>202</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="R71" s="11" t="s">
         <v>210</v>
@@ -5198,12 +5197,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>135</v>
@@ -5236,7 +5235,7 @@
         <v>202</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="N72" s="11" t="s">
         <v>194</v>
@@ -5248,12 +5247,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>135</v>
@@ -5286,7 +5285,7 @@
         <v>202</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="N73" s="11" t="s">
         <v>194</v>
@@ -5295,12 +5294,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>135</v>
@@ -5333,7 +5332,7 @@
         <v>202</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="R74" s="11" t="s">
         <v>204</v>
@@ -5342,12 +5341,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>135</v>
@@ -5380,21 +5379,21 @@
         <v>202</v>
       </c>
       <c r="M75" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="R75" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R75" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="T75" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>135</v>
@@ -5427,7 +5426,7 @@
         <v>202</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="R76" s="11" t="s">
         <v>210</v>
@@ -5436,12 +5435,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>135</v>
@@ -5474,7 +5473,7 @@
         <v>202</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="Z77" s="11" t="s">
         <v>198</v>
@@ -5486,12 +5485,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>135</v>
@@ -5524,7 +5523,7 @@
         <v>202</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="Z78" s="11" t="s">
         <v>198</v>
@@ -5536,12 +5535,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>135</v>
@@ -5574,7 +5573,7 @@
         <v>202</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="Z79" s="11" t="s">
         <v>186</v>
@@ -5586,12 +5585,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>135</v>
@@ -5624,7 +5623,7 @@
         <v>202</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="Z80" s="11" t="s">
         <v>186</v>
@@ -5636,12 +5635,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>135</v>
@@ -5674,7 +5673,7 @@
         <v>202</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="AB81" s="11">
         <v>4</v>
@@ -5683,12 +5682,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>135</v>
@@ -5721,7 +5720,7 @@
         <v>202</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="Q82" s="11">
         <v>700</v>
@@ -5736,12 +5735,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>135</v>
@@ -5774,7 +5773,7 @@
         <v>202</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="Q83" s="11">
         <v>700</v>
@@ -5789,12 +5788,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>135</v>
@@ -5827,7 +5826,7 @@
         <v>202</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="V84" s="11" t="s">
         <v>186</v>
@@ -5842,12 +5841,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>135</v>
@@ -5880,7 +5879,7 @@
         <v>202</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="V85" s="11" t="s">
         <v>186</v>
@@ -5895,12 +5894,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>135</v>
@@ -5929,8 +5928,8 @@
       <c r="L86" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="M86" s="14" t="s">
-        <v>220</v>
+      <c r="M86" s="11" t="s">
+        <v>382</v>
       </c>
       <c r="O86" s="11" t="s">
         <v>186</v>
@@ -5945,12 +5944,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>135</v>
@@ -5980,27 +5979,27 @@
         <v>202</v>
       </c>
       <c r="M87" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="R87" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="O87" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="P87" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="R87" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="T87" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>135</v>
@@ -6030,7 +6029,7 @@
         <v>202</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="O88" s="11" t="s">
         <v>186</v>
@@ -6068,7 +6067,7 @@
         <v>188</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I89" s="12">
         <v>3042</v>
@@ -6080,18 +6079,18 @@
         <v>202</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC89" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>135</v>
@@ -6109,7 +6108,7 @@
         <v>203</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I90" s="12">
         <v>3042</v>
@@ -6124,7 +6123,7 @@
         <v>202</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N90" s="10" t="s">
         <v>194</v>
@@ -6139,12 +6138,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>135</v>
@@ -6162,7 +6161,7 @@
         <v>203</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I91" s="12">
         <v>3042</v>
@@ -6177,7 +6176,7 @@
         <v>202</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N91" s="10" t="s">
         <v>194</v>
@@ -6192,12 +6191,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>135</v>
@@ -6215,7 +6214,7 @@
         <v>203</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I92" s="12">
         <v>3042</v>
@@ -6230,7 +6229,7 @@
         <v>202</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z92" s="15" t="s">
         <v>198</v>
@@ -6242,12 +6241,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>135</v>
@@ -6265,7 +6264,7 @@
         <v>203</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I93" s="12">
         <v>3042</v>
@@ -6280,7 +6279,7 @@
         <v>202</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z93" s="15" t="s">
         <v>198</v>
@@ -6292,12 +6291,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>135</v>
@@ -6315,7 +6314,7 @@
         <v>203</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I94" s="12">
         <v>3042</v>
@@ -6330,7 +6329,7 @@
         <v>202</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z94" s="15" t="s">
         <v>186</v>
@@ -6342,12 +6341,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>135</v>
@@ -6365,7 +6364,7 @@
         <v>203</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I95" s="12">
         <v>3042</v>
@@ -6380,7 +6379,7 @@
         <v>202</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z95" s="15" t="s">
         <v>186</v>
@@ -6392,12 +6391,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>135</v>
@@ -6415,7 +6414,7 @@
         <v>203</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I96" s="12">
         <v>3042</v>
@@ -6430,7 +6429,7 @@
         <v>202</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB96" s="15">
         <v>4</v>
@@ -6439,12 +6438,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>135</v>
@@ -6462,7 +6461,7 @@
         <v>203</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I97" s="12">
         <v>3042</v>
@@ -6477,10 +6476,10 @@
         <v>202</v>
       </c>
       <c r="M97" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q97" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="Q97" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="Z97" s="15" t="s">
         <v>198</v>
@@ -6492,12 +6491,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>135</v>
@@ -6515,7 +6514,7 @@
         <v>203</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I98" s="12">
         <v>3042</v>
@@ -6530,10 +6529,10 @@
         <v>202</v>
       </c>
       <c r="M98" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q98" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="Q98" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="Z98" s="15" t="s">
         <v>198</v>
@@ -6545,12 +6544,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>135</v>
@@ -6568,7 +6567,7 @@
         <v>203</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I99" s="12">
         <v>3042</v>
@@ -6583,7 +6582,7 @@
         <v>202</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V99" s="15" t="s">
         <v>186</v>
@@ -6595,12 +6594,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>135</v>
@@ -6618,7 +6617,7 @@
         <v>203</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I100" s="12">
         <v>3042</v>
@@ -6633,7 +6632,7 @@
         <v>202</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>186</v>
@@ -6645,7 +6644,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>134</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>207</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I101" s="12">
         <v>3048</v>
@@ -6727,7 +6726,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>134</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>3762</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I103" s="12">
         <v>3056</v>
@@ -6762,7 +6761,7 @@
         <v>202</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R103" s="14" t="s">
         <v>189</v>
@@ -6771,12 +6770,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>135</v>
@@ -6800,7 +6799,7 @@
         <v>3041</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L104" s="12" t="s">
         <v>202</v>
@@ -6815,12 +6814,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>135</v>
@@ -6838,7 +6837,7 @@
         <v>203</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I105" s="12">
         <v>3056</v>
@@ -6853,21 +6852,21 @@
         <v>202</v>
       </c>
       <c r="M105" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="R105" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="R105" s="14" t="s">
-        <v>224</v>
-      </c>
       <c r="AE105" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>135</v>
@@ -6885,7 +6884,7 @@
         <v>203</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I106" s="12">
         <v>3056</v>
@@ -6900,7 +6899,7 @@
         <v>202</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R106" s="14" t="s">
         <v>210</v>
@@ -6909,12 +6908,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>135</v>
@@ -6962,12 +6961,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>135</v>
@@ -7015,12 +7014,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>135</v>
@@ -7068,12 +7067,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>135</v>
@@ -7121,12 +7120,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>135</v>
@@ -7177,12 +7176,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>135</v>
@@ -7233,12 +7232,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>135</v>
@@ -7283,12 +7282,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>135</v>
@@ -7333,12 +7332,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>135</v>
@@ -7380,12 +7379,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>135</v>
@@ -7433,12 +7432,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>135</v>
@@ -7509,7 +7508,7 @@
         <v>188</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I118" s="12">
         <v>3067</v>
@@ -7521,13 +7520,13 @@
         <v>202</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE118" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>134</v>
       </c>
@@ -7574,12 +7573,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>135</v>
@@ -7597,30 +7596,30 @@
         <v>190</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I120" s="12">
         <v>3067</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L120" s="12" t="s">
         <v>202</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE120" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>135</v>
@@ -7662,12 +7661,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>135</v>
@@ -7709,7 +7708,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>134</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>207</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I123" s="12">
         <v>3042</v>
@@ -7756,7 +7755,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>134</v>
       </c>
@@ -7779,7 +7778,7 @@
         <v>207</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I124" s="12">
         <v>3042</v>
@@ -7806,7 +7805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>134</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>207</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I125" s="12">
         <v>3070</v>
@@ -7844,7 +7843,7 @@
         <v>202</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W125" s="17" t="s">
         <v>198</v>
@@ -7853,7 +7852,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>134</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>207</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I126" s="12">
         <v>3070</v>
@@ -7891,7 +7890,7 @@
         <v>202</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W126" s="11" t="s">
         <v>186</v>
@@ -7926,7 +7925,7 @@
         <v>3000</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I127" s="13">
         <v>3046</v>
@@ -7938,18 +7937,18 @@
         <v>202</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC127" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>135</v>
@@ -7967,7 +7966,7 @@
         <v>203</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I128" s="12">
         <v>3046</v>
@@ -7982,7 +7981,7 @@
         <v>202</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N128" s="10" t="s">
         <v>194</v>
@@ -7997,12 +7996,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>135</v>
@@ -8020,7 +8019,7 @@
         <v>203</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I129" s="12">
         <v>3046</v>
@@ -8035,7 +8034,7 @@
         <v>202</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N129" s="10" t="s">
         <v>194</v>
@@ -8050,12 +8049,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>135</v>
@@ -8073,7 +8072,7 @@
         <v>203</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I130" s="12">
         <v>3046</v>
@@ -8088,7 +8087,7 @@
         <v>202</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z130" s="15" t="s">
         <v>198</v>
@@ -8100,12 +8099,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>135</v>
@@ -8123,7 +8122,7 @@
         <v>203</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I131" s="12">
         <v>3046</v>
@@ -8138,7 +8137,7 @@
         <v>202</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z131" s="15" t="s">
         <v>198</v>
@@ -8150,12 +8149,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>135</v>
@@ -8173,7 +8172,7 @@
         <v>203</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I132" s="12">
         <v>3046</v>
@@ -8188,7 +8187,7 @@
         <v>202</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z132" s="15" t="s">
         <v>186</v>
@@ -8200,12 +8199,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>135</v>
@@ -8223,7 +8222,7 @@
         <v>203</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I133" s="12">
         <v>3046</v>
@@ -8238,7 +8237,7 @@
         <v>202</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z133" s="15" t="s">
         <v>186</v>
@@ -8250,12 +8249,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>135</v>
@@ -8273,7 +8272,7 @@
         <v>203</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I134" s="12">
         <v>3046</v>
@@ -8288,7 +8287,7 @@
         <v>202</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB134" s="15">
         <v>4</v>
@@ -8297,12 +8296,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>135</v>
@@ -8320,7 +8319,7 @@
         <v>203</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I135" s="12">
         <v>3046</v>
@@ -8335,10 +8334,10 @@
         <v>202</v>
       </c>
       <c r="M135" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q135" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="Q135" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="Z135" s="15" t="s">
         <v>198</v>
@@ -8350,12 +8349,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>135</v>
@@ -8373,7 +8372,7 @@
         <v>203</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I136" s="12">
         <v>3046</v>
@@ -8388,10 +8387,10 @@
         <v>202</v>
       </c>
       <c r="M136" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q136" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="Q136" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="Z136" s="15" t="s">
         <v>198</v>
@@ -8403,12 +8402,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>135</v>
@@ -8426,7 +8425,7 @@
         <v>203</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I137" s="12">
         <v>3046</v>
@@ -8441,7 +8440,7 @@
         <v>202</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V137" s="15" t="s">
         <v>186</v>
@@ -8453,12 +8452,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>135</v>
@@ -8476,7 +8475,7 @@
         <v>203</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I138" s="13">
         <v>3046</v>
@@ -8491,7 +8490,7 @@
         <v>202</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
@@ -8518,7 +8517,7 @@
       <c r="AD138" s="13"/>
       <c r="AE138" s="13"/>
     </row>
-    <row r="139" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>134</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v>207</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I139" s="12">
         <v>3071</v>
@@ -8582,7 +8581,7 @@
         <v>188</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I140" s="12">
         <v>3091</v>
@@ -8594,18 +8593,18 @@
         <v>202</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AE140" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>135</v>
@@ -8620,10 +8619,10 @@
         <v>101</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I141" s="12">
         <v>3091</v>
@@ -8635,18 +8634,18 @@
         <v>198</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE141" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>135</v>
@@ -8661,10 +8660,10 @@
         <v>103</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I142" s="12">
         <v>3091</v>
@@ -8676,18 +8675,18 @@
         <v>198</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE142" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>135</v>
@@ -8702,10 +8701,10 @@
         <v>105</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I143" s="12">
         <v>3091</v>
@@ -8717,18 +8716,18 @@
         <v>198</v>
       </c>
       <c r="L143" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE143" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>135</v>
@@ -8743,10 +8742,10 @@
         <v>107</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I144" s="12">
         <v>3091</v>
@@ -8758,18 +8757,18 @@
         <v>198</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE144" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>135</v>
@@ -8784,10 +8783,10 @@
         <v>109</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I145" s="12">
         <v>3091</v>
@@ -8796,21 +8795,21 @@
         <v>4</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE145" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>135</v>
@@ -8825,10 +8824,10 @@
         <v>111</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I146" s="12">
         <v>3091</v>
@@ -8837,21 +8836,21 @@
         <v>4</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE146" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>135</v>
@@ -8866,10 +8865,10 @@
         <v>113</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I147" s="12">
         <v>3091</v>
@@ -8878,21 +8877,21 @@
         <v>4</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE147" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>135</v>
@@ -8907,10 +8906,10 @@
         <v>115</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I148" s="12">
         <v>3091</v>
@@ -8919,21 +8918,21 @@
         <v>4</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L148" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE148" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>135</v>
@@ -8948,10 +8947,10 @@
         <v>117</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I149" s="12">
         <v>3091</v>
@@ -8960,21 +8959,21 @@
         <v>4</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L149" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE149" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>135</v>
@@ -8989,10 +8988,10 @@
         <v>119</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I150" s="12">
         <v>3091</v>
@@ -9001,21 +9000,21 @@
         <v>4</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE150" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>135</v>
@@ -9030,10 +9029,10 @@
         <v>121</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I151" s="12">
         <v>3097</v>
@@ -9042,15 +9041,15 @@
         <v>198</v>
       </c>
       <c r="L151" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="152" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>135</v>
@@ -9065,10 +9064,10 @@
         <v>125</v>
       </c>
       <c r="G152" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H152" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="H152" s="12" t="s">
-        <v>372</v>
       </c>
       <c r="I152" s="12">
         <v>3097</v>
@@ -9077,18 +9076,18 @@
         <v>2</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>135</v>
@@ -9103,10 +9102,10 @@
         <v>126</v>
       </c>
       <c r="G153" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H153" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="H153" s="12" t="s">
-        <v>372</v>
       </c>
       <c r="I153" s="12">
         <v>3097</v>
@@ -9115,18 +9114,18 @@
         <v>2</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>135</v>
@@ -9141,10 +9140,10 @@
         <v>127</v>
       </c>
       <c r="G154" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H154" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="H154" s="12" t="s">
-        <v>372</v>
       </c>
       <c r="I154" s="12">
         <v>3097</v>
@@ -9153,18 +9152,18 @@
         <v>2</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="155" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>135</v>
@@ -9179,10 +9178,10 @@
         <v>128</v>
       </c>
       <c r="G155" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H155" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>372</v>
       </c>
       <c r="I155" s="12">
         <v>3097</v>
@@ -9191,18 +9190,18 @@
         <v>2</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>135</v>
@@ -9217,10 +9216,10 @@
         <v>130</v>
       </c>
       <c r="G156" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H156" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="H156" s="12" t="s">
-        <v>372</v>
       </c>
       <c r="I156" s="12">
         <v>3097</v>
@@ -9229,18 +9228,18 @@
         <v>2</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="157" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>135</v>
@@ -9255,10 +9254,10 @@
         <v>132</v>
       </c>
       <c r="G157" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H157" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="H157" s="12" t="s">
-        <v>372</v>
       </c>
       <c r="I157" s="12">
         <v>3097</v>
@@ -9267,18 +9266,18 @@
         <v>2</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>135</v>
@@ -9293,10 +9292,10 @@
         <v>123</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I158" s="12">
         <v>3097</v>
@@ -9305,7 +9304,7 @@
         <v>198</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="159" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9331,7 +9330,7 @@
         <v>188</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I159" s="12">
         <v>3099</v>
@@ -9349,12 +9348,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>135</v>
@@ -9369,10 +9368,10 @@
         <v>101</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I160" s="12">
         <v>3099</v>
@@ -9381,7 +9380,7 @@
         <v>198</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M160" s="14" t="s">
         <v>212</v>
@@ -9390,12 +9389,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>135</v>
@@ -9410,10 +9409,10 @@
         <v>103</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I161" s="12">
         <v>3099</v>
@@ -9422,7 +9421,7 @@
         <v>198</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M161" s="14" t="s">
         <v>212</v>
@@ -9431,12 +9430,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>135</v>
@@ -9451,10 +9450,10 @@
         <v>109</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I162" s="12">
         <v>3099</v>
@@ -9463,10 +9462,10 @@
         <v>2</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M162" s="14" t="s">
         <v>212</v>
@@ -9475,12 +9474,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>135</v>
@@ -9495,10 +9494,10 @@
         <v>111</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I163" s="12">
         <v>3099</v>
@@ -9507,10 +9506,10 @@
         <v>2</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L163" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M163" s="14" t="s">
         <v>212</v>
@@ -9542,7 +9541,7 @@
         <v>188</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I164" s="12">
         <v>3101</v>
@@ -9557,18 +9556,18 @@
         <v>202</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AE164" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>135</v>
@@ -9583,10 +9582,10 @@
         <v>101</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I165" s="12">
         <v>3101</v>
@@ -9596,10 +9595,10 @@
         <v>198</v>
       </c>
       <c r="L165" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
@@ -9622,12 +9621,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>135</v>
@@ -9642,10 +9641,10 @@
         <v>103</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I166" s="12">
         <v>3101</v>
@@ -9655,10 +9654,10 @@
         <v>198</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N166" s="12"/>
       <c r="O166" s="12"/>
@@ -9681,12 +9680,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>135</v>
@@ -9701,10 +9700,10 @@
         <v>109</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I167" s="12">
         <v>3101</v>
@@ -9713,24 +9712,24 @@
         <v>3</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L167" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AE167" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>135</v>
@@ -9745,10 +9744,10 @@
         <v>111</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I168" s="12">
         <v>3101</v>
@@ -9757,19 +9756,19 @@
         <v>3</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L168" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M168" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AE168" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>134</v>
       </c>
@@ -9792,7 +9791,7 @@
         <v>3762</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I169" s="12">
         <v>3067</v>
@@ -9807,7 +9806,7 @@
         <v>202</v>
       </c>
       <c r="M169" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R169" s="10" t="s">
         <v>189</v>
@@ -9816,12 +9815,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>135</v>
@@ -9839,7 +9838,7 @@
         <v>203</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I170" s="12">
         <v>3067</v>
@@ -9854,21 +9853,21 @@
         <v>202</v>
       </c>
       <c r="M170" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="R170" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="R170" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="AE170" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>135</v>
@@ -9886,7 +9885,7 @@
         <v>203</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I171" s="12">
         <v>3067</v>
@@ -9901,7 +9900,7 @@
         <v>202</v>
       </c>
       <c r="M171" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R171" s="10" t="s">
         <v>205</v>
@@ -9911,13 +9910,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE171">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="T1_104"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AE171"/>
   <sortState columnSort="1" ref="K1:T168">
     <sortCondition ref="K1:T1"/>
   </sortState>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="387">
   <si>
     <t>Po ponownym ustaleniu wysokość &lt;NAZWASWIADCZENIAGL&gt; wynosi: 
 &lt;KWOTAKAPITALUPOCZATKOWEGOKOR&gt;/&lt;SREDNIEDALSZETRWANIEZYCIA&gt; = &lt;KWOTAEMERYTURYKOR&gt; zł.</t>
@@ -499,9 +499,6 @@
   </si>
   <si>
     <t>,4,23,80,</t>
-  </si>
-  <si>
-    <t>,KKP, KKPS,</t>
   </si>
   <si>
     <t>DRZ DEC C</t>
@@ -1654,7 +1651,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomLeft" activeCell="Q120" sqref="Q120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,10 +1659,10 @@
     <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="158.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27" style="3" customWidth="1"/>
     <col min="5" max="5" width="2" style="3" customWidth="1"/>
     <col min="6" max="6" width="39.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="12" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="12" customWidth="1"/>
@@ -1676,7 +1673,8 @@
     <col min="15" max="15" width="7.28515625" style="12" customWidth="1"/>
     <col min="16" max="16" width="2.85546875" style="12" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="12" customWidth="1"/>
-    <col min="18" max="19" width="4.5703125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="4.5703125" style="12" customWidth="1"/>
     <col min="20" max="20" width="8.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="21" max="28" width="3.5703125" style="12" customWidth="1"/>
     <col min="29" max="29" width="3.85546875" style="12" customWidth="1"/>
@@ -1713,7 +1711,7 @@
         <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>135</v>
@@ -1787,7 +1785,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>70</v>
@@ -1832,7 +1830,7 @@
         <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>70</v>
@@ -1841,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>119</v>
@@ -1862,7 +1860,7 @@
         <v>127</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AE3" s="15" t="s">
         <v>120</v>
@@ -1879,7 +1877,7 @@
         <v>69</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>70</v>
@@ -1920,7 +1918,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>70</v>
@@ -1973,7 +1971,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>70</v>
@@ -2034,13 +2032,13 @@
         <v>68</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>70</v>
@@ -2058,7 +2056,7 @@
         <v>3001</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>136</v>
@@ -2070,25 +2068,23 @@
         <v>128</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="S7" s="13"/>
-      <c r="AE7" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="AE7" s="13"/>
     </row>
     <row r="8" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>70</v>
@@ -2126,13 +2122,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>70</v>
@@ -2170,13 +2166,13 @@
         <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -2226,13 +2222,13 @@
         <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>70</v>
@@ -2284,13 +2280,13 @@
         <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>70</v>
@@ -2335,13 +2331,13 @@
         <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>70</v>
@@ -2393,13 +2389,13 @@
         <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>70</v>
@@ -2454,13 +2450,13 @@
         <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>70</v>
@@ -2512,13 +2508,13 @@
         <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>70</v>
@@ -2563,13 +2559,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>70</v>
@@ -2614,13 +2610,13 @@
         <v>68</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>70</v>
@@ -2661,13 +2657,13 @@
         <v>68</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>70</v>
@@ -2714,13 +2710,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>70</v>
@@ -2767,13 +2763,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>70</v>
@@ -2830,13 +2826,13 @@
         <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>70</v>
@@ -2893,13 +2889,13 @@
         <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>70</v>
@@ -2949,7 +2945,7 @@
         <v>69</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>70</v>
@@ -2990,7 +2986,7 @@
         <v>69</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>70</v>
@@ -3045,13 +3041,13 @@
         <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>70</v>
@@ -3069,7 +3065,7 @@
         <v>3049</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>136</v>
@@ -3077,22 +3073,26 @@
       <c r="M26" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="AE26" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="N26" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE26" s="13"/>
     </row>
     <row r="27" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>70</v>
@@ -3134,13 +3134,13 @@
         <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>70</v>
@@ -3188,7 +3188,7 @@
         <v>69</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>70</v>
@@ -3229,7 +3229,7 @@
         <v>69</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>70</v>
@@ -3284,13 +3284,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>70</v>
@@ -3308,7 +3308,7 @@
         <v>3068</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>136</v>
@@ -3316,22 +3316,26 @@
       <c r="M31" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="AE31" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="N31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE31" s="13"/>
     </row>
     <row r="32" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>70</v>
@@ -3370,13 +3374,13 @@
         <v>68</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>70</v>
@@ -3421,7 +3425,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>70</v>
@@ -3465,7 +3469,7 @@
         <v>69</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>70</v>
@@ -3504,13 +3508,13 @@
         <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>70</v>
@@ -3528,7 +3532,7 @@
         <v>3003</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>136</v>
@@ -3539,25 +3543,23 @@
       <c r="N36" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="R36" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE36" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="R36" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE36" s="13"/>
     </row>
     <row r="37" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>70</v>
@@ -3596,13 +3598,13 @@
         <v>68</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>70</v>
@@ -3640,13 +3642,13 @@
         <v>68</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>70</v>
@@ -3693,13 +3695,13 @@
         <v>68</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>70</v>
@@ -3746,13 +3748,13 @@
         <v>68</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>70</v>
@@ -3799,13 +3801,13 @@
         <v>68</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>70</v>
@@ -3866,13 +3868,13 @@
         <v>68</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>70</v>
@@ -3922,13 +3924,13 @@
         <v>68</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>70</v>
@@ -3978,13 +3980,13 @@
         <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>70</v>
@@ -4028,13 +4030,13 @@
         <v>68</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>70</v>
@@ -4078,13 +4080,13 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>70</v>
@@ -4125,13 +4127,13 @@
         <v>68</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>70</v>
@@ -4178,13 +4180,13 @@
         <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>70</v>
@@ -4237,7 +4239,7 @@
         <v>69</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>70</v>
@@ -4249,7 +4251,7 @@
         <v>122</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I50" s="12">
         <v>3056</v>
@@ -4261,7 +4263,7 @@
         <v>136</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AE50" s="15" t="s">
         <v>120</v>
@@ -4278,7 +4280,7 @@
         <v>69</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>70</v>
@@ -4319,13 +4321,13 @@
         <v>68</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>70</v>
@@ -4337,36 +4339,40 @@
         <v>124</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I52" s="12">
         <v>3056</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L52" s="12" t="s">
         <v>136</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE52" s="15" t="s">
-        <v>120</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE52" s="13"/>
     </row>
     <row r="53" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>70</v>
@@ -4407,13 +4413,13 @@
         <v>68</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>70</v>
@@ -4460,7 +4466,7 @@
         <v>69</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>70</v>
@@ -4472,7 +4478,7 @@
         <v>141</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I55" s="12">
         <v>3033</v>
@@ -4487,7 +4493,7 @@
         <v>136</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W55" s="15" t="s">
         <v>132</v>
@@ -4507,7 +4513,7 @@
         <v>69</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>70</v>
@@ -4519,7 +4525,7 @@
         <v>141</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I56" s="12">
         <v>3033</v>
@@ -4534,7 +4540,7 @@
         <v>136</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>120</v>
@@ -4557,7 +4563,7 @@
         <v>69</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>70</v>
@@ -4569,7 +4575,7 @@
         <v>122</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I57" s="12">
         <v>3058</v>
@@ -4581,7 +4587,7 @@
         <v>136</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC57" s="14" t="s">
         <v>120</v>
@@ -4598,7 +4604,7 @@
         <v>69</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>70</v>
@@ -4607,10 +4613,10 @@
         <v>48</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I58" s="12">
         <v>3058</v>
@@ -4622,7 +4628,7 @@
         <v>136</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U58" s="14" t="s">
         <v>132</v>
@@ -4645,7 +4651,7 @@
         <v>69</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>70</v>
@@ -4654,10 +4660,10 @@
         <v>48</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I59" s="12">
         <v>3058</v>
@@ -4669,7 +4675,7 @@
         <v>136</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U59" s="14" t="s">
         <v>132</v>
@@ -4692,7 +4698,7 @@
         <v>69</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>70</v>
@@ -4701,10 +4707,10 @@
         <v>48</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I60" s="12">
         <v>3058</v>
@@ -4716,7 +4722,7 @@
         <v>136</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U60" s="14" t="s">
         <v>120</v>
@@ -4739,7 +4745,7 @@
         <v>69</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>70</v>
@@ -4748,10 +4754,10 @@
         <v>49</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I61" s="12">
         <v>3058</v>
@@ -4763,7 +4769,7 @@
         <v>136</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U61" s="14" t="s">
         <v>120</v>
@@ -4786,7 +4792,7 @@
         <v>69</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>70</v>
@@ -4798,7 +4804,7 @@
         <v>141</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I62" s="12">
         <v>3047</v>
@@ -4813,7 +4819,7 @@
         <v>136</v>
       </c>
       <c r="M62" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W62" s="17" t="s">
         <v>132</v>
@@ -4833,7 +4839,7 @@
         <v>69</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>70</v>
@@ -4845,7 +4851,7 @@
         <v>141</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I63" s="12">
         <v>3047</v>
@@ -4860,7 +4866,7 @@
         <v>136</v>
       </c>
       <c r="M63" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>120</v>
@@ -4883,7 +4889,7 @@
         <v>69</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>70</v>
@@ -4921,7 +4927,7 @@
         <v>69</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>70</v>
@@ -4939,14 +4945,15 @@
         <v>3072</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="R65" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE65" s="12" t="s">
-        <v>120</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="R65" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE65" s="13"/>
     </row>
     <row r="66" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -4959,7 +4966,7 @@
         <v>69</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>70</v>
@@ -4971,7 +4978,7 @@
         <v>122</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I66" s="12">
         <v>3023</v>
@@ -5003,7 +5010,7 @@
         <v>69</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>70</v>
@@ -5015,7 +5022,7 @@
         <v>3762</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I67" s="12">
         <v>3023</v>
@@ -5041,13 +5048,13 @@
         <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>70</v>
@@ -5056,16 +5063,16 @@
         <v>23</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I68" s="12">
         <v>3023</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>136</v>
@@ -5082,13 +5089,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>70</v>
@@ -5097,16 +5104,16 @@
         <v>24</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I69" s="12">
         <v>3023</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L69" s="12" t="s">
         <v>136</v>
@@ -5123,13 +5130,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>70</v>
@@ -5141,7 +5148,7 @@
         <v>137</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I70" s="12">
         <v>3023</v>
@@ -5156,7 +5163,7 @@
         <v>136</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R70" s="11" t="s">
         <v>138</v>
@@ -5170,13 +5177,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>70</v>
@@ -5188,7 +5195,7 @@
         <v>137</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I71" s="12">
         <v>3023</v>
@@ -5203,7 +5210,7 @@
         <v>136</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R71" s="11" t="s">
         <v>144</v>
@@ -5217,13 +5224,13 @@
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>70</v>
@@ -5235,7 +5242,7 @@
         <v>137</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I72" s="12">
         <v>3023</v>
@@ -5250,7 +5257,7 @@
         <v>136</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N72" s="11" t="s">
         <v>128</v>
@@ -5267,13 +5274,13 @@
         <v>68</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>70</v>
@@ -5285,7 +5292,7 @@
         <v>137</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I73" s="12">
         <v>3023</v>
@@ -5300,7 +5307,7 @@
         <v>136</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N73" s="11" t="s">
         <v>128</v>
@@ -5314,13 +5321,13 @@
         <v>68</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>70</v>
@@ -5332,7 +5339,7 @@
         <v>137</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I74" s="12">
         <v>3023</v>
@@ -5347,7 +5354,7 @@
         <v>136</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R74" s="11" t="s">
         <v>138</v>
@@ -5361,13 +5368,13 @@
         <v>68</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>70</v>
@@ -5379,7 +5386,7 @@
         <v>137</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I75" s="12">
         <v>3023</v>
@@ -5394,10 +5401,10 @@
         <v>136</v>
       </c>
       <c r="M75" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="R75" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="R75" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="T75" s="11" t="s">
         <v>120</v>
@@ -5408,13 +5415,13 @@
         <v>68</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>70</v>
@@ -5426,7 +5433,7 @@
         <v>137</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I76" s="12">
         <v>3023</v>
@@ -5441,7 +5448,7 @@
         <v>136</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R76" s="11" t="s">
         <v>144</v>
@@ -5455,13 +5462,13 @@
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>70</v>
@@ -5473,7 +5480,7 @@
         <v>137</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I77" s="12">
         <v>3023</v>
@@ -5488,7 +5495,7 @@
         <v>136</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z77" s="11" t="s">
         <v>132</v>
@@ -5505,13 +5512,13 @@
         <v>68</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>70</v>
@@ -5523,7 +5530,7 @@
         <v>137</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I78" s="12">
         <v>3023</v>
@@ -5538,7 +5545,7 @@
         <v>136</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z78" s="11" t="s">
         <v>132</v>
@@ -5555,13 +5562,13 @@
         <v>68</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>70</v>
@@ -5573,7 +5580,7 @@
         <v>137</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I79" s="12">
         <v>3023</v>
@@ -5588,7 +5595,7 @@
         <v>136</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z79" s="11" t="s">
         <v>120</v>
@@ -5605,13 +5612,13 @@
         <v>68</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>70</v>
@@ -5623,7 +5630,7 @@
         <v>137</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I80" s="12">
         <v>3023</v>
@@ -5638,7 +5645,7 @@
         <v>136</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z80" s="11" t="s">
         <v>120</v>
@@ -5655,13 +5662,13 @@
         <v>68</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>70</v>
@@ -5673,7 +5680,7 @@
         <v>137</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I81" s="12">
         <v>3023</v>
@@ -5688,7 +5695,7 @@
         <v>136</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB81" s="11">
         <v>4</v>
@@ -5702,13 +5709,13 @@
         <v>68</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>70</v>
@@ -5720,7 +5727,7 @@
         <v>137</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I82" s="12">
         <v>3023</v>
@@ -5735,7 +5742,7 @@
         <v>136</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q82" s="11">
         <v>700</v>
@@ -5755,13 +5762,13 @@
         <v>68</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>70</v>
@@ -5773,7 +5780,7 @@
         <v>137</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I83" s="12">
         <v>3023</v>
@@ -5788,7 +5795,7 @@
         <v>136</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q83" s="11">
         <v>700</v>
@@ -5808,13 +5815,13 @@
         <v>68</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>70</v>
@@ -5826,7 +5833,7 @@
         <v>137</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I84" s="12">
         <v>3023</v>
@@ -5841,7 +5848,7 @@
         <v>136</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V84" s="11" t="s">
         <v>120</v>
@@ -5861,13 +5868,13 @@
         <v>68</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>70</v>
@@ -5879,7 +5886,7 @@
         <v>137</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I85" s="12">
         <v>3023</v>
@@ -5894,7 +5901,7 @@
         <v>136</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V85" s="11" t="s">
         <v>120</v>
@@ -5914,13 +5921,13 @@
         <v>68</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>70</v>
@@ -5932,7 +5939,7 @@
         <v>133</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I86" s="12">
         <v>3023</v>
@@ -5944,7 +5951,7 @@
         <v>136</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O86" s="11" t="s">
         <v>120</v>
@@ -5964,13 +5971,13 @@
         <v>68</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>70</v>
@@ -5982,7 +5989,7 @@
         <v>133</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I87" s="12">
         <v>3023</v>
@@ -5994,16 +6001,16 @@
         <v>136</v>
       </c>
       <c r="M87" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="R87" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="O87" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="P87" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="R87" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="T87" s="11" t="s">
         <v>120</v>
@@ -6014,13 +6021,13 @@
         <v>68</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>70</v>
@@ -6032,7 +6039,7 @@
         <v>133</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I88" s="12">
         <v>3023</v>
@@ -6044,7 +6051,7 @@
         <v>136</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O88" s="11" t="s">
         <v>120</v>
@@ -6070,7 +6077,7 @@
         <v>69</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>70</v>
@@ -6082,7 +6089,7 @@
         <v>122</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I89" s="12">
         <v>3042</v>
@@ -6094,7 +6101,7 @@
         <v>136</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC89" s="15" t="s">
         <v>120</v>
@@ -6105,13 +6112,13 @@
         <v>68</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>70</v>
@@ -6123,7 +6130,7 @@
         <v>137</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I90" s="12">
         <v>3042</v>
@@ -6138,7 +6145,7 @@
         <v>136</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N90" s="10" t="s">
         <v>128</v>
@@ -6158,13 +6165,13 @@
         <v>68</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>70</v>
@@ -6176,7 +6183,7 @@
         <v>137</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I91" s="12">
         <v>3042</v>
@@ -6191,7 +6198,7 @@
         <v>136</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N91" s="10" t="s">
         <v>128</v>
@@ -6211,13 +6218,13 @@
         <v>68</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>70</v>
@@ -6229,7 +6236,7 @@
         <v>137</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I92" s="12">
         <v>3042</v>
@@ -6244,7 +6251,7 @@
         <v>136</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z92" s="15" t="s">
         <v>132</v>
@@ -6261,13 +6268,13 @@
         <v>68</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>70</v>
@@ -6279,7 +6286,7 @@
         <v>137</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I93" s="12">
         <v>3042</v>
@@ -6294,7 +6301,7 @@
         <v>136</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z93" s="15" t="s">
         <v>132</v>
@@ -6311,13 +6318,13 @@
         <v>68</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>70</v>
@@ -6329,7 +6336,7 @@
         <v>137</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I94" s="12">
         <v>3042</v>
@@ -6344,7 +6351,7 @@
         <v>136</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z94" s="15" t="s">
         <v>120</v>
@@ -6361,13 +6368,13 @@
         <v>68</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>70</v>
@@ -6379,7 +6386,7 @@
         <v>137</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I95" s="12">
         <v>3042</v>
@@ -6394,7 +6401,7 @@
         <v>136</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z95" s="15" t="s">
         <v>120</v>
@@ -6411,13 +6418,13 @@
         <v>68</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>70</v>
@@ -6429,7 +6436,7 @@
         <v>137</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I96" s="12">
         <v>3042</v>
@@ -6444,7 +6451,7 @@
         <v>136</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB96" s="15">
         <v>4</v>
@@ -6458,13 +6465,13 @@
         <v>68</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>70</v>
@@ -6476,7 +6483,7 @@
         <v>137</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I97" s="12">
         <v>3042</v>
@@ -6491,10 +6498,10 @@
         <v>136</v>
       </c>
       <c r="M97" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q97" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="Q97" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="Z97" s="15" t="s">
         <v>132</v>
@@ -6511,13 +6518,13 @@
         <v>68</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>70</v>
@@ -6529,7 +6536,7 @@
         <v>137</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I98" s="12">
         <v>3042</v>
@@ -6544,10 +6551,10 @@
         <v>136</v>
       </c>
       <c r="M98" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q98" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="Q98" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="Z98" s="15" t="s">
         <v>132</v>
@@ -6564,13 +6571,13 @@
         <v>68</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>70</v>
@@ -6582,7 +6589,7 @@
         <v>137</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I99" s="12">
         <v>3042</v>
@@ -6597,7 +6604,7 @@
         <v>136</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V99" s="15" t="s">
         <v>120</v>
@@ -6614,13 +6621,13 @@
         <v>68</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>70</v>
@@ -6632,7 +6639,7 @@
         <v>137</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I100" s="12">
         <v>3042</v>
@@ -6647,7 +6654,7 @@
         <v>136</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>120</v>
@@ -6670,7 +6677,7 @@
         <v>69</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>70</v>
@@ -6682,7 +6689,7 @@
         <v>141</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I101" s="12">
         <v>3048</v>
@@ -6711,7 +6718,7 @@
         <v>69</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>70</v>
@@ -6723,7 +6730,7 @@
         <v>122</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I102" s="12">
         <v>3041</v>
@@ -6752,7 +6759,7 @@
         <v>69</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>70</v>
@@ -6764,7 +6771,7 @@
         <v>3762</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I103" s="12">
         <v>3056</v>
@@ -6776,7 +6783,7 @@
         <v>136</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R103" s="14" t="s">
         <v>123</v>
@@ -6790,13 +6797,13 @@
         <v>68</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>70</v>
@@ -6808,13 +6815,13 @@
         <v>124</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I104" s="12">
         <v>3041</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L104" s="12" t="s">
         <v>136</v>
@@ -6825,22 +6832,23 @@
       <c r="N104" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AE104" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="R104" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE104" s="13"/>
     </row>
     <row r="105" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>70</v>
@@ -6852,7 +6860,7 @@
         <v>137</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I105" s="12">
         <v>3056</v>
@@ -6867,10 +6875,10 @@
         <v>136</v>
       </c>
       <c r="M105" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="R105" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="R105" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="AE105" s="15" t="s">
         <v>120</v>
@@ -6881,13 +6889,13 @@
         <v>68</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>70</v>
@@ -6899,7 +6907,7 @@
         <v>137</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I106" s="12">
         <v>3056</v>
@@ -6914,7 +6922,7 @@
         <v>136</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R106" s="14" t="s">
         <v>144</v>
@@ -6928,13 +6936,13 @@
         <v>68</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>70</v>
@@ -6946,7 +6954,7 @@
         <v>137</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I107" s="12">
         <v>3041</v>
@@ -6981,13 +6989,13 @@
         <v>68</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>70</v>
@@ -6999,7 +7007,7 @@
         <v>137</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I108" s="12">
         <v>3041</v>
@@ -7034,13 +7042,13 @@
         <v>68</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>70</v>
@@ -7052,7 +7060,7 @@
         <v>137</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I109" s="12">
         <v>3041</v>
@@ -7087,13 +7095,13 @@
         <v>68</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>70</v>
@@ -7105,7 +7113,7 @@
         <v>137</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I110" s="12">
         <v>3041</v>
@@ -7140,13 +7148,13 @@
         <v>68</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>70</v>
@@ -7158,7 +7166,7 @@
         <v>137</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I111" s="12">
         <v>3041</v>
@@ -7196,13 +7204,13 @@
         <v>68</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>70</v>
@@ -7214,7 +7222,7 @@
         <v>137</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I112" s="12">
         <v>3041</v>
@@ -7252,13 +7260,13 @@
         <v>68</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>70</v>
@@ -7270,7 +7278,7 @@
         <v>137</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I113" s="12">
         <v>3041</v>
@@ -7302,13 +7310,13 @@
         <v>68</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>70</v>
@@ -7320,7 +7328,7 @@
         <v>137</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I114" s="12">
         <v>3041</v>
@@ -7352,13 +7360,13 @@
         <v>68</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>70</v>
@@ -7370,7 +7378,7 @@
         <v>137</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I115" s="12">
         <v>3041</v>
@@ -7399,13 +7407,13 @@
         <v>68</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>70</v>
@@ -7417,7 +7425,7 @@
         <v>137</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I116" s="12">
         <v>3041</v>
@@ -7452,13 +7460,13 @@
         <v>68</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>70</v>
@@ -7470,7 +7478,7 @@
         <v>137</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I117" s="12">
         <v>3041</v>
@@ -7511,7 +7519,7 @@
         <v>69</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>70</v>
@@ -7523,7 +7531,7 @@
         <v>122</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I118" s="12">
         <v>3067</v>
@@ -7535,7 +7543,7 @@
         <v>136</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AE118" s="10" t="s">
         <v>120</v>
@@ -7552,7 +7560,7 @@
         <v>69</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>70</v>
@@ -7564,7 +7572,7 @@
         <v>3762</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I119" s="12">
         <v>3041</v>
@@ -7593,13 +7601,13 @@
         <v>68</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>70</v>
@@ -7611,36 +7619,40 @@
         <v>124</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I120" s="12">
         <v>3067</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L120" s="12" t="s">
         <v>136</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE120" s="10" t="s">
-        <v>136</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N120" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="R120" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE120" s="13"/>
     </row>
     <row r="121" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>70</v>
@@ -7652,7 +7664,7 @@
         <v>137</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I121" s="12">
         <v>3041</v>
@@ -7681,13 +7693,13 @@
         <v>68</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>70</v>
@@ -7699,7 +7711,7 @@
         <v>137</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I122" s="12">
         <v>3041</v>
@@ -7734,7 +7746,7 @@
         <v>69</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>70</v>
@@ -7746,7 +7758,7 @@
         <v>141</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I123" s="12">
         <v>3042</v>
@@ -7781,7 +7793,7 @@
         <v>69</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>70</v>
@@ -7793,7 +7805,7 @@
         <v>141</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I124" s="12">
         <v>3042</v>
@@ -7831,7 +7843,7 @@
         <v>69</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>70</v>
@@ -7843,7 +7855,7 @@
         <v>141</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I125" s="12">
         <v>3070</v>
@@ -7858,7 +7870,7 @@
         <v>136</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W125" s="17" t="s">
         <v>132</v>
@@ -7878,7 +7890,7 @@
         <v>69</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>70</v>
@@ -7890,7 +7902,7 @@
         <v>141</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I126" s="12">
         <v>3070</v>
@@ -7905,7 +7917,7 @@
         <v>136</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W126" s="11" t="s">
         <v>120</v>
@@ -7928,7 +7940,7 @@
         <v>69</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>70</v>
@@ -7940,7 +7952,7 @@
         <v>3000</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I127" s="13">
         <v>3046</v>
@@ -7952,7 +7964,7 @@
         <v>136</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC127" s="15" t="s">
         <v>120</v>
@@ -7963,13 +7975,13 @@
         <v>68</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>70</v>
@@ -7981,7 +7993,7 @@
         <v>137</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I128" s="12">
         <v>3046</v>
@@ -7996,7 +8008,7 @@
         <v>136</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N128" s="10" t="s">
         <v>128</v>
@@ -8016,13 +8028,13 @@
         <v>68</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>70</v>
@@ -8034,7 +8046,7 @@
         <v>137</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I129" s="12">
         <v>3046</v>
@@ -8049,7 +8061,7 @@
         <v>136</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N129" s="10" t="s">
         <v>128</v>
@@ -8069,13 +8081,13 @@
         <v>68</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>70</v>
@@ -8087,7 +8099,7 @@
         <v>137</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I130" s="12">
         <v>3046</v>
@@ -8102,7 +8114,7 @@
         <v>136</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z130" s="15" t="s">
         <v>132</v>
@@ -8119,13 +8131,13 @@
         <v>68</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>70</v>
@@ -8137,7 +8149,7 @@
         <v>137</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I131" s="12">
         <v>3046</v>
@@ -8152,7 +8164,7 @@
         <v>136</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z131" s="15" t="s">
         <v>132</v>
@@ -8169,13 +8181,13 @@
         <v>68</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>70</v>
@@ -8187,7 +8199,7 @@
         <v>137</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I132" s="12">
         <v>3046</v>
@@ -8202,7 +8214,7 @@
         <v>136</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z132" s="15" t="s">
         <v>120</v>
@@ -8219,13 +8231,13 @@
         <v>68</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>70</v>
@@ -8237,7 +8249,7 @@
         <v>137</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I133" s="12">
         <v>3046</v>
@@ -8252,7 +8264,7 @@
         <v>136</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z133" s="15" t="s">
         <v>120</v>
@@ -8269,13 +8281,13 @@
         <v>68</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>70</v>
@@ -8287,7 +8299,7 @@
         <v>137</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I134" s="12">
         <v>3046</v>
@@ -8302,7 +8314,7 @@
         <v>136</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB134" s="15">
         <v>4</v>
@@ -8316,13 +8328,13 @@
         <v>68</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>70</v>
@@ -8334,7 +8346,7 @@
         <v>137</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I135" s="12">
         <v>3046</v>
@@ -8349,10 +8361,10 @@
         <v>136</v>
       </c>
       <c r="M135" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q135" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="Q135" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="Z135" s="15" t="s">
         <v>132</v>
@@ -8369,13 +8381,13 @@
         <v>68</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>70</v>
@@ -8387,7 +8399,7 @@
         <v>137</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I136" s="12">
         <v>3046</v>
@@ -8402,10 +8414,10 @@
         <v>136</v>
       </c>
       <c r="M136" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q136" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="Q136" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="Z136" s="15" t="s">
         <v>132</v>
@@ -8422,13 +8434,13 @@
         <v>68</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>70</v>
@@ -8440,7 +8452,7 @@
         <v>137</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I137" s="12">
         <v>3046</v>
@@ -8455,7 +8467,7 @@
         <v>136</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V137" s="15" t="s">
         <v>120</v>
@@ -8472,13 +8484,13 @@
         <v>68</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>70</v>
@@ -8490,7 +8502,7 @@
         <v>137</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I138" s="13">
         <v>3046</v>
@@ -8505,7 +8517,7 @@
         <v>136</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
@@ -8543,7 +8555,7 @@
         <v>69</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>70</v>
@@ -8555,7 +8567,7 @@
         <v>141</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I139" s="12">
         <v>3071</v>
@@ -8584,7 +8596,7 @@
         <v>69</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>70</v>
@@ -8596,7 +8608,7 @@
         <v>122</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I140" s="12">
         <v>3091</v>
@@ -8608,7 +8620,7 @@
         <v>136</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE140" s="15" t="s">
         <v>120</v>
@@ -8619,13 +8631,13 @@
         <v>68</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>70</v>
@@ -8634,10 +8646,10 @@
         <v>50</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I141" s="12">
         <v>3091</v>
@@ -8649,7 +8661,7 @@
         <v>132</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE141" s="15" t="s">
         <v>120</v>
@@ -8660,13 +8672,13 @@
         <v>68</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>70</v>
@@ -8675,10 +8687,10 @@
         <v>51</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I142" s="12">
         <v>3091</v>
@@ -8690,7 +8702,7 @@
         <v>132</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE142" s="15" t="s">
         <v>120</v>
@@ -8701,13 +8713,13 @@
         <v>68</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>70</v>
@@ -8716,10 +8728,10 @@
         <v>52</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I143" s="12">
         <v>3091</v>
@@ -8731,7 +8743,7 @@
         <v>132</v>
       </c>
       <c r="L143" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE143" s="15" t="s">
         <v>120</v>
@@ -8742,13 +8754,13 @@
         <v>68</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>70</v>
@@ -8757,10 +8769,10 @@
         <v>53</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I144" s="12">
         <v>3091</v>
@@ -8772,7 +8784,7 @@
         <v>132</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE144" s="15" t="s">
         <v>120</v>
@@ -8783,13 +8795,13 @@
         <v>68</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>70</v>
@@ -8798,10 +8810,10 @@
         <v>54</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I145" s="12">
         <v>3091</v>
@@ -8810,10 +8822,10 @@
         <v>4</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE145" s="15" t="s">
         <v>120</v>
@@ -8824,13 +8836,13 @@
         <v>68</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>70</v>
@@ -8839,10 +8851,10 @@
         <v>55</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I146" s="12">
         <v>3091</v>
@@ -8851,10 +8863,10 @@
         <v>4</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE146" s="15" t="s">
         <v>120</v>
@@ -8865,13 +8877,13 @@
         <v>68</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>70</v>
@@ -8880,10 +8892,10 @@
         <v>56</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I147" s="12">
         <v>3091</v>
@@ -8892,10 +8904,10 @@
         <v>4</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE147" s="15" t="s">
         <v>120</v>
@@ -8906,13 +8918,13 @@
         <v>68</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>70</v>
@@ -8921,10 +8933,10 @@
         <v>57</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I148" s="12">
         <v>3091</v>
@@ -8933,10 +8945,10 @@
         <v>4</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L148" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE148" s="15" t="s">
         <v>120</v>
@@ -8947,13 +8959,13 @@
         <v>68</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>70</v>
@@ -8962,10 +8974,10 @@
         <v>58</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I149" s="12">
         <v>3091</v>
@@ -8974,10 +8986,10 @@
         <v>4</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L149" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE149" s="15" t="s">
         <v>120</v>
@@ -8988,13 +9000,13 @@
         <v>68</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>70</v>
@@ -9003,10 +9015,10 @@
         <v>59</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I150" s="12">
         <v>3091</v>
@@ -9015,10 +9027,10 @@
         <v>4</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE150" s="15" t="s">
         <v>120</v>
@@ -9029,13 +9041,13 @@
         <v>68</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>70</v>
@@ -9044,10 +9056,10 @@
         <v>60</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I151" s="12">
         <v>3097</v>
@@ -9056,7 +9068,7 @@
         <v>132</v>
       </c>
       <c r="L151" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9064,13 +9076,13 @@
         <v>68</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>70</v>
@@ -9079,10 +9091,10 @@
         <v>62</v>
       </c>
       <c r="G152" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H152" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="H152" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="I152" s="12">
         <v>3097</v>
@@ -9091,10 +9103,10 @@
         <v>2</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9102,13 +9114,13 @@
         <v>68</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>70</v>
@@ -9117,10 +9129,10 @@
         <v>63</v>
       </c>
       <c r="G153" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H153" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="H153" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="I153" s="12">
         <v>3097</v>
@@ -9129,10 +9141,10 @@
         <v>2</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9140,13 +9152,13 @@
         <v>68</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>70</v>
@@ -9155,10 +9167,10 @@
         <v>64</v>
       </c>
       <c r="G154" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H154" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="H154" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="I154" s="12">
         <v>3097</v>
@@ -9167,10 +9179,10 @@
         <v>2</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9178,13 +9190,13 @@
         <v>68</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>70</v>
@@ -9193,10 +9205,10 @@
         <v>65</v>
       </c>
       <c r="G155" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H155" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="I155" s="12">
         <v>3097</v>
@@ -9205,10 +9217,10 @@
         <v>2</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9216,13 +9228,13 @@
         <v>68</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>70</v>
@@ -9231,10 +9243,10 @@
         <v>66</v>
       </c>
       <c r="G156" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H156" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="H156" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="I156" s="12">
         <v>3097</v>
@@ -9243,10 +9255,10 @@
         <v>2</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9254,13 +9266,13 @@
         <v>68</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>70</v>
@@ -9269,10 +9281,10 @@
         <v>67</v>
       </c>
       <c r="G157" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H157" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="H157" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="I157" s="12">
         <v>3097</v>
@@ -9281,10 +9293,10 @@
         <v>2</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9292,13 +9304,13 @@
         <v>68</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>70</v>
@@ -9307,10 +9319,10 @@
         <v>61</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I158" s="12">
         <v>3097</v>
@@ -9319,7 +9331,7 @@
         <v>132</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9333,7 +9345,7 @@
         <v>69</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>70</v>
@@ -9345,7 +9357,7 @@
         <v>122</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I159" s="12">
         <v>3099</v>
@@ -9368,13 +9380,13 @@
         <v>68</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>70</v>
@@ -9383,10 +9395,10 @@
         <v>50</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I160" s="12">
         <v>3099</v>
@@ -9395,7 +9407,7 @@
         <v>132</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M160" s="14" t="s">
         <v>146</v>
@@ -9409,13 +9421,13 @@
         <v>68</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>70</v>
@@ -9424,10 +9436,10 @@
         <v>51</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I161" s="12">
         <v>3099</v>
@@ -9436,7 +9448,7 @@
         <v>132</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M161" s="14" t="s">
         <v>146</v>
@@ -9450,13 +9462,13 @@
         <v>68</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>70</v>
@@ -9465,10 +9477,10 @@
         <v>54</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I162" s="12">
         <v>3099</v>
@@ -9477,10 +9489,10 @@
         <v>2</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M162" s="14" t="s">
         <v>146</v>
@@ -9494,13 +9506,13 @@
         <v>68</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>70</v>
@@ -9509,10 +9521,10 @@
         <v>55</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I163" s="12">
         <v>3099</v>
@@ -9521,10 +9533,10 @@
         <v>2</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L163" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M163" s="14" t="s">
         <v>146</v>
@@ -9544,7 +9556,7 @@
         <v>69</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>70</v>
@@ -9556,7 +9568,7 @@
         <v>122</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I164" s="12">
         <v>3101</v>
@@ -9571,7 +9583,7 @@
         <v>136</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE164" s="15" t="s">
         <v>120</v>
@@ -9582,13 +9594,13 @@
         <v>68</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>70</v>
@@ -9597,10 +9609,10 @@
         <v>50</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I165" s="12">
         <v>3101</v>
@@ -9610,10 +9622,10 @@
         <v>132</v>
       </c>
       <c r="L165" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
@@ -9641,13 +9653,13 @@
         <v>68</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>70</v>
@@ -9656,10 +9668,10 @@
         <v>51</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I166" s="12">
         <v>3101</v>
@@ -9669,10 +9681,10 @@
         <v>132</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N166" s="12"/>
       <c r="O166" s="12"/>
@@ -9700,13 +9712,13 @@
         <v>68</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>70</v>
@@ -9715,10 +9727,10 @@
         <v>54</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I167" s="12">
         <v>3101</v>
@@ -9727,13 +9739,13 @@
         <v>3</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L167" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE167" s="15" t="s">
         <v>120</v>
@@ -9744,13 +9756,13 @@
         <v>68</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>70</v>
@@ -9759,10 +9771,10 @@
         <v>55</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I168" s="12">
         <v>3101</v>
@@ -9771,13 +9783,13 @@
         <v>3</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L168" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M168" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE168" s="15" t="s">
         <v>120</v>
@@ -9794,7 +9806,7 @@
         <v>69</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>70</v>
@@ -9806,7 +9818,7 @@
         <v>3762</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I169" s="12">
         <v>3067</v>
@@ -9821,7 +9833,7 @@
         <v>136</v>
       </c>
       <c r="M169" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R169" s="10" t="s">
         <v>123</v>
@@ -9835,13 +9847,13 @@
         <v>68</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>70</v>
@@ -9853,7 +9865,7 @@
         <v>137</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I170" s="12">
         <v>3067</v>
@@ -9868,10 +9880,10 @@
         <v>136</v>
       </c>
       <c r="M170" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="R170" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="R170" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="AE170" s="10" t="s">
         <v>120</v>
@@ -9882,13 +9894,13 @@
         <v>68</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>70</v>
@@ -9900,7 +9912,7 @@
         <v>137</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I171" s="12">
         <v>3067</v>
@@ -9915,7 +9927,7 @@
         <v>136</v>
       </c>
       <c r="M171" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R171" s="10" t="s">
         <v>139</v>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -1647,11 +1647,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q120" sqref="Q120"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,6 +1803,9 @@
       <c r="I2" s="12">
         <v>3001</v>
       </c>
+      <c r="J2" s="12">
+        <v>2</v>
+      </c>
       <c r="K2" s="12" t="s">
         <v>132</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>68</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
@@ -2027,7 +2031,7 @@
       </c>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>68</v>
       </c>
@@ -2073,7 +2077,7 @@
       <c r="S7" s="13"/>
       <c r="AE7" s="13"/>
     </row>
-    <row r="8" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
@@ -2117,7 +2121,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>68</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -2275,7 +2279,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>68</v>
       </c>
@@ -2384,7 +2388,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -2503,7 +2507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>68</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>68</v>
       </c>
@@ -2821,7 +2825,7 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
@@ -2884,7 +2888,7 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
@@ -2962,6 +2966,9 @@
       <c r="I24" s="12">
         <v>3049</v>
       </c>
+      <c r="J24" s="12">
+        <v>2</v>
+      </c>
       <c r="K24" s="12" t="s">
         <v>132</v>
       </c>
@@ -2975,7 +2982,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>68</v>
       </c>
@@ -3036,7 +3043,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>68</v>
       </c>
@@ -3081,7 +3088,7 @@
       </c>
       <c r="AE26" s="13"/>
     </row>
-    <row r="27" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
@@ -3129,7 +3136,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
@@ -3205,6 +3212,9 @@
       <c r="I29" s="12">
         <v>3068</v>
       </c>
+      <c r="J29" s="12">
+        <v>2</v>
+      </c>
       <c r="K29" s="12" t="s">
         <v>132</v>
       </c>
@@ -3218,7 +3228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
@@ -3279,7 +3289,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -3324,7 +3334,7 @@
       </c>
       <c r="AE31" s="13"/>
     </row>
-    <row r="32" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -3369,7 +3379,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -3442,6 +3452,9 @@
       <c r="I34" s="12">
         <v>3003</v>
       </c>
+      <c r="J34" s="12">
+        <v>2</v>
+      </c>
       <c r="K34" s="12" t="s">
         <v>132</v>
       </c>
@@ -3458,7 +3471,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -3503,7 +3516,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
@@ -3548,7 +3561,7 @@
       </c>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>68</v>
       </c>
@@ -3593,7 +3606,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>68</v>
       </c>
@@ -3637,7 +3650,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -3690,7 +3703,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
@@ -3743,7 +3756,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>68</v>
       </c>
@@ -3796,7 +3809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
@@ -3863,7 +3876,7 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
     </row>
-    <row r="43" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
@@ -3975,7 +3988,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>68</v>
       </c>
@@ -4025,7 +4038,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>68</v>
       </c>
@@ -4075,7 +4088,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>68</v>
       </c>
@@ -4122,7 +4135,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>68</v>
       </c>
@@ -4175,7 +4188,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>68</v>
       </c>
@@ -4256,6 +4269,9 @@
       <c r="I50" s="12">
         <v>3056</v>
       </c>
+      <c r="J50" s="12">
+        <v>2</v>
+      </c>
       <c r="K50" s="12" t="s">
         <v>132</v>
       </c>
@@ -4269,7 +4285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
@@ -4316,7 +4332,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>68</v>
       </c>
@@ -4361,7 +4377,7 @@
       </c>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
@@ -4408,7 +4424,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>68</v>
       </c>
@@ -4455,7 +4471,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>68</v>
       </c>
@@ -4502,7 +4518,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4580,6 +4596,9 @@
       <c r="I57" s="12">
         <v>3058</v>
       </c>
+      <c r="J57" s="12">
+        <v>2</v>
+      </c>
       <c r="K57" s="12" t="s">
         <v>132</v>
       </c>
@@ -4593,7 +4612,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>68</v>
       </c>
@@ -4640,7 +4659,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
@@ -4687,7 +4706,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>68</v>
       </c>
@@ -4734,7 +4753,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>68</v>
       </c>
@@ -4781,7 +4800,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>68</v>
       </c>
@@ -4828,7 +4847,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -4906,6 +4925,9 @@
       <c r="I64" s="12">
         <v>3072</v>
       </c>
+      <c r="J64" s="12">
+        <v>2</v>
+      </c>
       <c r="K64" s="12" t="s">
         <v>132</v>
       </c>
@@ -4916,7 +4938,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -4983,6 +5005,9 @@
       <c r="I66" s="12">
         <v>3023</v>
       </c>
+      <c r="J66" s="12">
+        <v>2</v>
+      </c>
       <c r="K66" s="12" t="s">
         <v>132</v>
       </c>
@@ -4999,7 +5024,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -5043,7 +5068,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>68</v>
       </c>
@@ -5084,7 +5109,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -5125,7 +5150,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -5172,7 +5197,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
@@ -5219,7 +5244,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>68</v>
       </c>
@@ -5269,7 +5294,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>68</v>
       </c>
@@ -5316,7 +5341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -5363,7 +5388,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>68</v>
       </c>
@@ -5410,7 +5435,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>68</v>
       </c>
@@ -5457,7 +5482,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>68</v>
       </c>
@@ -5507,7 +5532,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>68</v>
       </c>
@@ -5557,7 +5582,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>68</v>
       </c>
@@ -5607,7 +5632,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>68</v>
       </c>
@@ -5657,7 +5682,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>68</v>
       </c>
@@ -5704,7 +5729,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>68</v>
       </c>
@@ -5757,7 +5782,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>68</v>
       </c>
@@ -5810,7 +5835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>68</v>
       </c>
@@ -5863,7 +5888,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>68</v>
       </c>
@@ -5916,7 +5941,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>68</v>
       </c>
@@ -5966,7 +5991,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>68</v>
       </c>
@@ -6016,7 +6041,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>68</v>
       </c>
@@ -6094,6 +6119,9 @@
       <c r="I89" s="12">
         <v>3042</v>
       </c>
+      <c r="J89" s="12">
+        <v>2</v>
+      </c>
       <c r="K89" s="12" t="s">
         <v>132</v>
       </c>
@@ -6107,7 +6135,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>68</v>
       </c>
@@ -6160,7 +6188,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>68</v>
       </c>
@@ -6213,7 +6241,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>68</v>
       </c>
@@ -6263,7 +6291,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>68</v>
       </c>
@@ -6313,7 +6341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>68</v>
       </c>
@@ -6363,7 +6391,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>68</v>
       </c>
@@ -6413,7 +6441,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>68</v>
       </c>
@@ -6460,7 +6488,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>68</v>
       </c>
@@ -6513,7 +6541,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>68</v>
       </c>
@@ -6566,7 +6594,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>68</v>
       </c>
@@ -6616,7 +6644,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>68</v>
       </c>
@@ -6666,7 +6694,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>68</v>
       </c>
@@ -6735,6 +6763,9 @@
       <c r="I102" s="12">
         <v>3041</v>
       </c>
+      <c r="J102" s="12">
+        <v>2</v>
+      </c>
       <c r="K102" s="12" t="s">
         <v>132</v>
       </c>
@@ -6748,7 +6779,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>68</v>
       </c>
@@ -6792,7 +6823,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>68</v>
       </c>
@@ -6837,7 +6868,7 @@
       </c>
       <c r="AE104" s="13"/>
     </row>
-    <row r="105" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>68</v>
       </c>
@@ -6884,7 +6915,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>68</v>
       </c>
@@ -6931,7 +6962,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>68</v>
       </c>
@@ -6984,7 +7015,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>68</v>
       </c>
@@ -7037,7 +7068,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>68</v>
       </c>
@@ -7090,7 +7121,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>68</v>
       </c>
@@ -7143,7 +7174,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>68</v>
       </c>
@@ -7199,7 +7230,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>68</v>
       </c>
@@ -7255,7 +7286,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>68</v>
       </c>
@@ -7305,7 +7336,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>68</v>
       </c>
@@ -7355,7 +7386,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>68</v>
       </c>
@@ -7402,7 +7433,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>68</v>
       </c>
@@ -7455,7 +7486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>68</v>
       </c>
@@ -7536,6 +7567,9 @@
       <c r="I118" s="12">
         <v>3067</v>
       </c>
+      <c r="J118" s="12">
+        <v>2</v>
+      </c>
       <c r="K118" s="12" t="s">
         <v>132</v>
       </c>
@@ -7549,7 +7583,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>68</v>
       </c>
@@ -7596,7 +7630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>68</v>
       </c>
@@ -7641,7 +7675,7 @@
       </c>
       <c r="AE120" s="13"/>
     </row>
-    <row r="121" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>68</v>
       </c>
@@ -7688,7 +7722,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>68</v>
       </c>
@@ -7735,7 +7769,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>68</v>
       </c>
@@ -7782,7 +7816,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>68</v>
       </c>
@@ -7832,7 +7866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>68</v>
       </c>
@@ -7879,7 +7913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>68</v>
       </c>
@@ -7957,6 +7991,9 @@
       <c r="I127" s="13">
         <v>3046</v>
       </c>
+      <c r="J127" s="12">
+        <v>2</v>
+      </c>
       <c r="K127" s="12" t="s">
         <v>132</v>
       </c>
@@ -7970,7 +8007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>68</v>
       </c>
@@ -8023,7 +8060,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>68</v>
       </c>
@@ -8076,7 +8113,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>68</v>
       </c>
@@ -8126,7 +8163,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>68</v>
       </c>
@@ -8176,7 +8213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>68</v>
       </c>
@@ -8226,7 +8263,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>68</v>
       </c>
@@ -8276,7 +8313,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>68</v>
       </c>
@@ -8323,7 +8360,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>68</v>
       </c>
@@ -8376,7 +8413,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>68</v>
       </c>
@@ -8429,7 +8466,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>68</v>
       </c>
@@ -8479,7 +8516,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>68</v>
       </c>
@@ -8544,7 +8581,7 @@
       <c r="AD138" s="13"/>
       <c r="AE138" s="13"/>
     </row>
-    <row r="139" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>68</v>
       </c>
@@ -8613,6 +8650,9 @@
       <c r="I140" s="12">
         <v>3091</v>
       </c>
+      <c r="J140" s="12">
+        <v>2</v>
+      </c>
       <c r="K140" s="12" t="s">
         <v>132</v>
       </c>
@@ -8626,7 +8666,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>68</v>
       </c>
@@ -8667,7 +8707,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>68</v>
       </c>
@@ -8708,7 +8748,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>68</v>
       </c>
@@ -8749,7 +8789,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>68</v>
       </c>
@@ -8790,7 +8830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>68</v>
       </c>
@@ -8831,7 +8871,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>68</v>
       </c>
@@ -8872,7 +8912,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>68</v>
       </c>
@@ -8913,7 +8953,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>68</v>
       </c>
@@ -8954,7 +8994,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>68</v>
       </c>
@@ -8995,7 +9035,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>68</v>
       </c>
@@ -9036,7 +9076,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>68</v>
       </c>
@@ -9071,7 +9111,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>68</v>
       </c>
@@ -9109,7 +9149,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>68</v>
       </c>
@@ -9147,7 +9187,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>68</v>
       </c>
@@ -9185,7 +9225,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>68</v>
       </c>
@@ -9223,7 +9263,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>68</v>
       </c>
@@ -9261,7 +9301,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>68</v>
       </c>
@@ -9299,7 +9339,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>68</v>
       </c>
@@ -9363,7 +9403,7 @@
         <v>3099</v>
       </c>
       <c r="J159" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K159" s="12" t="s">
         <v>132</v>
@@ -9375,7 +9415,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>68</v>
       </c>
@@ -9416,7 +9456,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>68</v>
       </c>
@@ -9457,7 +9497,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>68</v>
       </c>
@@ -9501,7 +9541,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>68</v>
       </c>
@@ -9574,7 +9614,7 @@
         <v>3101</v>
       </c>
       <c r="J164" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K164" s="12" t="s">
         <v>132</v>
@@ -9589,7 +9629,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>68</v>
       </c>
@@ -9648,7 +9688,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>68</v>
       </c>
@@ -9707,7 +9747,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>68</v>
       </c>
@@ -9751,7 +9791,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>68</v>
       </c>
@@ -9795,7 +9835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>68</v>
       </c>
@@ -9842,7 +9882,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>68</v>
       </c>
@@ -9889,7 +9929,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>68</v>
       </c>
@@ -9940,7 +9980,13 @@
       <c r="D173" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE171"/>
+  <autoFilter ref="A1:AE171">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="T1_104 - (Dz. U. z 2015 r. poz. 552)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState columnSort="1" ref="K1:T168">
     <sortCondition ref="K1:T1"/>
   </sortState>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="386">
   <si>
     <t>Po ponownym ustaleniu wysokość &lt;NAZWASWIADCZENIAGL&gt; wynosi: 
 &lt;KWOTAKAPITALUPOCZATKOWEGOKOR&gt;/&lt;SREDNIEDALSZETRWANIEZYCIA&gt; = &lt;KWOTAEMERYTURYKOR&gt; zł.</t>
@@ -970,9 +970,6 @@
   </si>
   <si>
     <t>Rp-31g</t>
-  </si>
-  <si>
-    <t>Rp-31-g</t>
   </si>
   <si>
     <t>Rp-31i</t>
@@ -1651,8 +1648,8 @@
   <dimension ref="A1:AE173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J173" sqref="J173"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A158" sqref="A158:XFD158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,9 +1657,9 @@
     <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="2" style="3" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="78.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="12" customWidth="1"/>
@@ -1712,7 +1709,7 @@
         <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>135</v>
@@ -1775,7 +1772,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -1786,7 +1783,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>70</v>
@@ -1834,7 +1831,7 @@
         <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>70</v>
@@ -1843,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>119</v>
@@ -1864,7 +1861,7 @@
         <v>127</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AE3" s="15" t="s">
         <v>120</v>
@@ -1881,7 +1878,7 @@
         <v>69</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>70</v>
@@ -1922,7 +1919,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>70</v>
@@ -1975,7 +1972,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>70</v>
@@ -2042,7 +2039,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>70</v>
@@ -2060,7 +2057,7 @@
         <v>3001</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>136</v>
@@ -2088,7 +2085,7 @@
         <v>69</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>70</v>
@@ -2132,7 +2129,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>70</v>
@@ -2176,7 +2173,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -2232,7 +2229,7 @@
         <v>69</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>70</v>
@@ -2290,7 +2287,7 @@
         <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>70</v>
@@ -2341,7 +2338,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>70</v>
@@ -2399,7 +2396,7 @@
         <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>70</v>
@@ -2460,7 +2457,7 @@
         <v>69</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>70</v>
@@ -2518,7 +2515,7 @@
         <v>69</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>70</v>
@@ -2569,7 +2566,7 @@
         <v>69</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>70</v>
@@ -2620,7 +2617,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>70</v>
@@ -2667,7 +2664,7 @@
         <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>70</v>
@@ -2720,7 +2717,7 @@
         <v>69</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>70</v>
@@ -2773,7 +2770,7 @@
         <v>69</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>70</v>
@@ -2836,7 +2833,7 @@
         <v>69</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>70</v>
@@ -2899,7 +2896,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>70</v>
@@ -2938,7 +2935,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
@@ -2949,7 +2946,7 @@
         <v>69</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>70</v>
@@ -2993,7 +2990,7 @@
         <v>69</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>70</v>
@@ -3054,7 +3051,7 @@
         <v>69</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>70</v>
@@ -3072,7 +3069,7 @@
         <v>3049</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>136</v>
@@ -3099,7 +3096,7 @@
         <v>69</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>70</v>
@@ -3147,7 +3144,7 @@
         <v>69</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>70</v>
@@ -3184,7 +3181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>68</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>69</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>70</v>
@@ -3239,7 +3236,7 @@
         <v>69</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>70</v>
@@ -3300,7 +3297,7 @@
         <v>69</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>70</v>
@@ -3318,7 +3315,7 @@
         <v>3068</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>136</v>
@@ -3345,7 +3342,7 @@
         <v>69</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>70</v>
@@ -3390,7 +3387,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>70</v>
@@ -3424,7 +3421,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>70</v>
@@ -3482,7 +3479,7 @@
         <v>69</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>70</v>
@@ -3527,7 +3524,7 @@
         <v>69</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>70</v>
@@ -3545,7 +3542,7 @@
         <v>3003</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>136</v>
@@ -3572,7 +3569,7 @@
         <v>69</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>70</v>
@@ -3617,7 +3614,7 @@
         <v>69</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>70</v>
@@ -3661,7 +3658,7 @@
         <v>69</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>70</v>
@@ -3714,7 +3711,7 @@
         <v>69</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>70</v>
@@ -3767,7 +3764,7 @@
         <v>69</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>70</v>
@@ -3820,7 +3817,7 @@
         <v>69</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>70</v>
@@ -3887,7 +3884,7 @@
         <v>69</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>70</v>
@@ -3943,7 +3940,7 @@
         <v>69</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>70</v>
@@ -3999,7 +3996,7 @@
         <v>69</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>70</v>
@@ -4049,7 +4046,7 @@
         <v>69</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>70</v>
@@ -4099,7 +4096,7 @@
         <v>69</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>70</v>
@@ -4146,7 +4143,7 @@
         <v>69</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>70</v>
@@ -4199,7 +4196,7 @@
         <v>69</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>70</v>
@@ -4241,7 +4238,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>68</v>
       </c>
@@ -4252,7 +4249,7 @@
         <v>69</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>70</v>
@@ -4296,7 +4293,7 @@
         <v>69</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>70</v>
@@ -4343,7 +4340,7 @@
         <v>69</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>70</v>
@@ -4361,7 +4358,7 @@
         <v>3056</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L52" s="12" t="s">
         <v>136</v>
@@ -4388,7 +4385,7 @@
         <v>69</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>70</v>
@@ -4435,7 +4432,7 @@
         <v>69</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>70</v>
@@ -4482,7 +4479,7 @@
         <v>69</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>70</v>
@@ -4529,7 +4526,7 @@
         <v>69</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>70</v>
@@ -4568,7 +4565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>68</v>
       </c>
@@ -4579,7 +4576,7 @@
         <v>69</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>70</v>
@@ -4623,7 +4620,7 @@
         <v>69</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>70</v>
@@ -4670,7 +4667,7 @@
         <v>69</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>70</v>
@@ -4717,7 +4714,7 @@
         <v>69</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>70</v>
@@ -4764,7 +4761,7 @@
         <v>69</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>70</v>
@@ -4811,7 +4808,7 @@
         <v>69</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>70</v>
@@ -4858,7 +4855,7 @@
         <v>69</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>70</v>
@@ -4897,7 +4894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
@@ -4908,7 +4905,7 @@
         <v>69</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>70</v>
@@ -4949,7 +4946,7 @@
         <v>69</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>70</v>
@@ -4967,7 +4964,7 @@
         <v>3072</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N65" s="12" t="s">
         <v>128</v>
@@ -4977,7 +4974,7 @@
       </c>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -4988,7 +4985,7 @@
         <v>69</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>70</v>
@@ -5035,7 +5032,7 @@
         <v>69</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>70</v>
@@ -5079,7 +5076,7 @@
         <v>69</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>70</v>
@@ -5097,7 +5094,7 @@
         <v>3023</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>136</v>
@@ -5120,7 +5117,7 @@
         <v>69</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>70</v>
@@ -5138,7 +5135,7 @@
         <v>3023</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L69" s="12" t="s">
         <v>136</v>
@@ -5161,7 +5158,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>70</v>
@@ -5208,7 +5205,7 @@
         <v>69</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>70</v>
@@ -5255,7 +5252,7 @@
         <v>69</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>70</v>
@@ -5305,7 +5302,7 @@
         <v>69</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>70</v>
@@ -5352,7 +5349,7 @@
         <v>69</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>70</v>
@@ -5399,7 +5396,7 @@
         <v>69</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>70</v>
@@ -5446,7 +5443,7 @@
         <v>69</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>70</v>
@@ -5493,7 +5490,7 @@
         <v>69</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>70</v>
@@ -5543,7 +5540,7 @@
         <v>69</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>70</v>
@@ -5593,7 +5590,7 @@
         <v>69</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>70</v>
@@ -5643,7 +5640,7 @@
         <v>69</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>70</v>
@@ -5693,7 +5690,7 @@
         <v>69</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>70</v>
@@ -5740,7 +5737,7 @@
         <v>69</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>70</v>
@@ -5793,7 +5790,7 @@
         <v>69</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>70</v>
@@ -5846,7 +5843,7 @@
         <v>69</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>70</v>
@@ -5899,7 +5896,7 @@
         <v>69</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>70</v>
@@ -5952,7 +5949,7 @@
         <v>69</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>70</v>
@@ -5996,13 +5993,13 @@
         <v>68</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>70</v>
@@ -6046,13 +6043,13 @@
         <v>68</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>70</v>
@@ -6091,7 +6088,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>68</v>
       </c>
@@ -6102,7 +6099,7 @@
         <v>69</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>70</v>
@@ -6146,7 +6143,7 @@
         <v>69</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>70</v>
@@ -6199,7 +6196,7 @@
         <v>69</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>70</v>
@@ -6252,7 +6249,7 @@
         <v>69</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>70</v>
@@ -6302,7 +6299,7 @@
         <v>69</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>70</v>
@@ -6352,7 +6349,7 @@
         <v>69</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>70</v>
@@ -6402,7 +6399,7 @@
         <v>69</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>70</v>
@@ -6452,7 +6449,7 @@
         <v>69</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>70</v>
@@ -6499,7 +6496,7 @@
         <v>69</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>70</v>
@@ -6552,7 +6549,7 @@
         <v>69</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>70</v>
@@ -6605,7 +6602,7 @@
         <v>69</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>70</v>
@@ -6655,7 +6652,7 @@
         <v>69</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>70</v>
@@ -6705,7 +6702,7 @@
         <v>69</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>70</v>
@@ -6735,7 +6732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>68</v>
       </c>
@@ -6746,7 +6743,7 @@
         <v>69</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>70</v>
@@ -6790,7 +6787,7 @@
         <v>69</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>70</v>
@@ -6834,7 +6831,7 @@
         <v>69</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>70</v>
@@ -6852,7 +6849,7 @@
         <v>3041</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L104" s="12" t="s">
         <v>136</v>
@@ -6879,7 +6876,7 @@
         <v>69</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>70</v>
@@ -6926,7 +6923,7 @@
         <v>69</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>70</v>
@@ -6973,7 +6970,7 @@
         <v>69</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>70</v>
@@ -7026,7 +7023,7 @@
         <v>69</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>70</v>
@@ -7079,7 +7076,7 @@
         <v>69</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>70</v>
@@ -7132,7 +7129,7 @@
         <v>69</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>70</v>
@@ -7185,7 +7182,7 @@
         <v>69</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>70</v>
@@ -7241,7 +7238,7 @@
         <v>69</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>70</v>
@@ -7297,7 +7294,7 @@
         <v>69</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>70</v>
@@ -7347,7 +7344,7 @@
         <v>69</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>70</v>
@@ -7397,7 +7394,7 @@
         <v>69</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>70</v>
@@ -7444,7 +7441,7 @@
         <v>69</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>70</v>
@@ -7497,7 +7494,7 @@
         <v>69</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>70</v>
@@ -7539,7 +7536,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>68</v>
       </c>
@@ -7550,7 +7547,7 @@
         <v>69</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>70</v>
@@ -7594,7 +7591,7 @@
         <v>69</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>70</v>
@@ -7641,7 +7638,7 @@
         <v>69</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>70</v>
@@ -7659,7 +7656,7 @@
         <v>3067</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L120" s="12" t="s">
         <v>136</v>
@@ -7686,7 +7683,7 @@
         <v>69</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>70</v>
@@ -7733,7 +7730,7 @@
         <v>69</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>70</v>
@@ -7780,7 +7777,7 @@
         <v>69</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>70</v>
@@ -7827,7 +7824,7 @@
         <v>69</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>70</v>
@@ -7877,7 +7874,7 @@
         <v>69</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>70</v>
@@ -7924,7 +7921,7 @@
         <v>69</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>70</v>
@@ -7963,7 +7960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>68</v>
       </c>
@@ -7974,7 +7971,7 @@
         <v>69</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>70</v>
@@ -8018,7 +8015,7 @@
         <v>69</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>70</v>
@@ -8071,7 +8068,7 @@
         <v>69</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>70</v>
@@ -8124,7 +8121,7 @@
         <v>69</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>70</v>
@@ -8174,7 +8171,7 @@
         <v>69</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>70</v>
@@ -8224,7 +8221,7 @@
         <v>69</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>70</v>
@@ -8274,7 +8271,7 @@
         <v>69</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>70</v>
@@ -8324,7 +8321,7 @@
         <v>69</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>70</v>
@@ -8371,7 +8368,7 @@
         <v>69</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>70</v>
@@ -8424,7 +8421,7 @@
         <v>69</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>70</v>
@@ -8477,7 +8474,7 @@
         <v>69</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>70</v>
@@ -8527,7 +8524,7 @@
         <v>69</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>70</v>
@@ -8592,7 +8589,7 @@
         <v>69</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>70</v>
@@ -8622,7 +8619,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>68</v>
       </c>
@@ -8633,7 +8630,7 @@
         <v>69</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>70</v>
@@ -8666,7 +8663,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>68</v>
       </c>
@@ -8677,7 +8674,7 @@
         <v>69</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>70</v>
@@ -8718,7 +8715,7 @@
         <v>69</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>70</v>
@@ -8759,7 +8756,7 @@
         <v>69</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>70</v>
@@ -8800,7 +8797,7 @@
         <v>69</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>70</v>
@@ -8841,7 +8838,7 @@
         <v>69</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>70</v>
@@ -8862,7 +8859,7 @@
         <v>4</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L145" s="12" t="s">
         <v>303</v>
@@ -8882,7 +8879,7 @@
         <v>69</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>70</v>
@@ -8903,7 +8900,7 @@
         <v>4</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L146" s="12" t="s">
         <v>303</v>
@@ -8923,7 +8920,7 @@
         <v>69</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>70</v>
@@ -8944,7 +8941,7 @@
         <v>4</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L147" s="12" t="s">
         <v>303</v>
@@ -8964,7 +8961,7 @@
         <v>69</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>70</v>
@@ -8985,7 +8982,7 @@
         <v>4</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L148" s="12" t="s">
         <v>303</v>
@@ -9005,7 +9002,7 @@
         <v>69</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>70</v>
@@ -9026,7 +9023,7 @@
         <v>4</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L149" s="12" t="s">
         <v>303</v>
@@ -9046,7 +9043,7 @@
         <v>69</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>70</v>
@@ -9067,7 +9064,7 @@
         <v>4</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L150" s="12" t="s">
         <v>303</v>
@@ -9076,7 +9073,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>68</v>
       </c>
@@ -9087,7 +9084,7 @@
         <v>69</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>70</v>
@@ -9122,7 +9119,7 @@
         <v>69</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>70</v>
@@ -9143,7 +9140,7 @@
         <v>2</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L152" s="12" t="s">
         <v>303</v>
@@ -9160,7 +9157,7 @@
         <v>69</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>70</v>
@@ -9181,7 +9178,7 @@
         <v>2</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L153" s="12" t="s">
         <v>303</v>
@@ -9198,7 +9195,7 @@
         <v>69</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>70</v>
@@ -9219,7 +9216,7 @@
         <v>2</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L154" s="12" t="s">
         <v>303</v>
@@ -9236,7 +9233,7 @@
         <v>69</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>70</v>
@@ -9257,7 +9254,7 @@
         <v>2</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L155" s="12" t="s">
         <v>303</v>
@@ -9274,7 +9271,7 @@
         <v>69</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>70</v>
@@ -9295,7 +9292,7 @@
         <v>2</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L156" s="12" t="s">
         <v>303</v>
@@ -9312,7 +9309,7 @@
         <v>69</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>70</v>
@@ -9333,13 +9330,13 @@
         <v>2</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L157" s="12" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>68</v>
       </c>
@@ -9350,7 +9347,7 @@
         <v>69</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>70</v>
@@ -9362,7 +9359,7 @@
         <v>302</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I158" s="12">
         <v>3097</v>
@@ -9374,7 +9371,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="159" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>68</v>
       </c>
@@ -9385,7 +9382,7 @@
         <v>69</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>70</v>
@@ -9397,7 +9394,7 @@
         <v>122</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I159" s="12">
         <v>3099</v>
@@ -9426,7 +9423,7 @@
         <v>69</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>70</v>
@@ -9438,7 +9435,7 @@
         <v>302</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I160" s="12">
         <v>3099</v>
@@ -9467,7 +9464,7 @@
         <v>69</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>70</v>
@@ -9479,7 +9476,7 @@
         <v>302</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I161" s="12">
         <v>3099</v>
@@ -9508,7 +9505,7 @@
         <v>69</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>70</v>
@@ -9520,7 +9517,7 @@
         <v>304</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I162" s="12">
         <v>3099</v>
@@ -9529,7 +9526,7 @@
         <v>2</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L162" s="12" t="s">
         <v>303</v>
@@ -9552,7 +9549,7 @@
         <v>69</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>70</v>
@@ -9564,7 +9561,7 @@
         <v>304</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I163" s="12">
         <v>3099</v>
@@ -9573,7 +9570,7 @@
         <v>2</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L163" s="12" t="s">
         <v>303</v>
@@ -9585,7 +9582,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="164" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>68</v>
       </c>
@@ -9596,7 +9593,7 @@
         <v>69</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>70</v>
@@ -9608,7 +9605,7 @@
         <v>122</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I164" s="12">
         <v>3101</v>
@@ -9623,7 +9620,7 @@
         <v>136</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AE164" s="15" t="s">
         <v>120</v>
@@ -9640,7 +9637,7 @@
         <v>69</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>70</v>
@@ -9652,7 +9649,7 @@
         <v>302</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I165" s="12">
         <v>3101</v>
@@ -9665,7 +9662,7 @@
         <v>303</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
@@ -9699,7 +9696,7 @@
         <v>69</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>70</v>
@@ -9711,7 +9708,7 @@
         <v>302</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I166" s="12">
         <v>3101</v>
@@ -9724,7 +9721,7 @@
         <v>303</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N166" s="12"/>
       <c r="O166" s="12"/>
@@ -9758,7 +9755,7 @@
         <v>69</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>70</v>
@@ -9770,7 +9767,7 @@
         <v>304</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I167" s="12">
         <v>3101</v>
@@ -9779,13 +9776,13 @@
         <v>3</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L167" s="12" t="s">
         <v>303</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AE167" s="15" t="s">
         <v>120</v>
@@ -9802,7 +9799,7 @@
         <v>69</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>70</v>
@@ -9814,7 +9811,7 @@
         <v>304</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I168" s="12">
         <v>3101</v>
@@ -9823,13 +9820,13 @@
         <v>3</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L168" s="12" t="s">
         <v>303</v>
       </c>
       <c r="M168" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AE168" s="15" t="s">
         <v>120</v>
@@ -9846,7 +9843,7 @@
         <v>69</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>70</v>
@@ -9893,7 +9890,7 @@
         <v>69</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>70</v>
@@ -9929,7 +9926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>68</v>
       </c>
@@ -9940,7 +9937,7 @@
         <v>69</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>70</v>
@@ -9981,9 +9978,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AE171">
-    <filterColumn colId="3">
+    <filterColumn colId="6">
       <filters>
-        <filter val="T1_104 - (Dz. U. z 2015 r. poz. 552)"/>
+        <filter val="3038"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Rp-31g"/>
+        <filter val="Rp-31-g"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="15" windowWidth="23415" windowHeight="9960" tabRatio="165"/>
+    <workbookView xWindow="3750" yWindow="15" windowWidth="23415" windowHeight="9960" tabRatio="165"/>
   </bookViews>
   <sheets>
     <sheet name="toSOS_S_TEKSTOW" sheetId="1" r:id="rId1"/>
@@ -962,27 +962,9 @@
     <t>T1_104 - (Dz. U. z 2015 r. poz. 552)</t>
   </si>
   <si>
-    <t>T148_49 - Po przelicz. KP, kwota ponownie oblicz. i zwal. KP - na Pana koncie wynosi …</t>
-  </si>
-  <si>
-    <t>T16_66 - Art. 55a - ... prawo do wcześn. em. zostanie przywrócone w przyp. wycofania wniosku …</t>
-  </si>
-  <si>
-    <t>T2_151 - Art. 26a - W związku z przyznaniem emerytury w powsz. wieku em. … prawo do em. wcześn. ustaje z dniem …</t>
-  </si>
-  <si>
-    <t>T2_152 - Art. 26a - W związku z obliczeniem emerytury w powsz. wieku em. … prawo do em. wcześn. ustaje z dniem …</t>
-  </si>
-  <si>
     <t>T2a_100 - Art 174 ust. 2a i 185a - w związku z przeliczeniem kapitału początkowego</t>
   </si>
   <si>
-    <t>T8_159 - Art 174 ust. 2a i 185a - Po ponownym ustaleniu wysokość … wynosi: SKL + KAP / ŚDTŻ</t>
-  </si>
-  <si>
-    <t>T8_160 - Art 174 ust. 2a i 185a - Po ponownym ustaleniu wysokość … wynosi: KAP / ŚDTZ</t>
-  </si>
-  <si>
     <t>T8_161 - Art. 26 ust. 5 i 6 - ŚDTŻ korzystniejsze [w dniu zgłoszenia wniosku] niż [w dniu osiągn. powsz. w. em.]</t>
   </si>
   <si>
@@ -1007,75 +989,33 @@
     <t>T8_168 - Art. 26 ust. 5 i 6 - ŚDTŻ korzystniejsze [w dniu zgłoszenia wniosku] niż [w dniu spełnienia warunków]</t>
   </si>
   <si>
-    <t>T8_169 - Art. 26 ust. 5 i 6 - ŚDTŻ … w dniu spełnienia warunków</t>
-  </si>
-  <si>
     <t>T8_170 - Art. 26 ust. 5 i 6 - ŚDTŻ korzystniejsze [w dniu 1.01.2009 r.] niż [w dniu zgłoszenia wniosku]</t>
   </si>
   <si>
     <t>T8_171 - Art. 26 ust. 5 i 6 - ŚDTŻ korzystniejsze [w dniu zgłoszenia wniosku] niż [w dniu 1.01.2009 r.]</t>
   </si>
   <si>
-    <t>T88_147 - Art. 55a - Podstawę obliczenia emerytury stanowi … kwota składek + KP</t>
-  </si>
-  <si>
-    <t>T88_148 - Art. 55a - Podstawę obliczenia emerytury stanowi … kwota składek</t>
-  </si>
-  <si>
-    <t>T88_149 - Art. 55a - Podstawę obliczenia emerytury stanowi … KP</t>
-  </si>
-  <si>
     <t>T16_67 - Art. 110a - Ponownego ustalenia em. dokonano ... może nastąpić wyłącznie jeden raz.</t>
   </si>
   <si>
     <t>T16_68 - Art. 110a - spełnia Pan warunki do ponownego ust. em na podst. Art. 110.</t>
   </si>
   <si>
-    <t xml:space="preserve">T10b_66 - Art. 26 ust. 5 i 6 - Do ustalenia wys. okr. em. przyjęto ŚDTŻ … w dniu zgłoszenia wniosku o em. … korzystniejsze od … w dniu osiągn. powsz. w. em. </t>
-  </si>
-  <si>
-    <t>T10b_67 - Art. 26 ust. 5 i 6 - Do ustalenia wys. okr. em. przyjęto ŚDTŻ … w dniu osiągn. powsz. w. em. … korzystniejsze od … w dniu zgłoszenia wniosku o em.</t>
-  </si>
-  <si>
-    <t>T10b_68 - Art. 26 ust. 5 i 6 - Do ustalenia wys. okr. em. przyjęto ŚDTŻ … w dniu osiągn. powsz. w. em. … korzystniejsze od … wypłata zawiesz. renty z tyt. niezd. do pracy</t>
-  </si>
-  <si>
-    <t>T10b_69 - Art. 26 ust. 5 i 6 - Do ustalenia wys. okr. em. przyjęto ŚDTŻ … wypłata zawiesz. renty z tyt. niezd. do pracy … korzystniejsze od … osiągn. powsz. w. em.</t>
-  </si>
-  <si>
     <t>T16_68 - Art. 110a - spełnia Pan/i warunki do ponownego ust. em na podst. Art. 110.</t>
   </si>
   <si>
-    <t>T148_50 - Po przelicz. KP, kwota ponownie oblicz. i zwal. KP - na koncie osoby zmarłej wynosi …</t>
-  </si>
-  <si>
     <t>T2b_55 - Art. 174 ust. 2a i Art. 185a - ponownie ustala wysokość</t>
   </si>
   <si>
     <t>T3_211 - Art. 174 ust. 2a i Art. 185a - renty rodzinnej</t>
   </si>
   <si>
-    <t>T8_172 - Art 174 ust. 2a i 185a - Po ponownym ustaleniu … wysokość świadcz. osoby zmarłej … wynosi: SKL + KAP / ŚDTŻ</t>
-  </si>
-  <si>
-    <t>T8_173 - Art 174 ust. 2a i 185a - Po ponownym ustaleniu … wysokość świadcz. osoby zmarłej … wynosi: KAP / ŚDTŻ</t>
-  </si>
-  <si>
     <t>T8_174 - Art. 26 ust. 5 i 6 - ŚDTŻ korzystniejsze [w dniu osiągn. wieku os. zm.] niż [w dniu zgłoszenia wniosku]</t>
   </si>
   <si>
     <t>T8_175 - Art. 26 ust. 5 i 6 - ŚDTŻ korzystniejsze [w dniu osiągn. wieku] niż [w dniu zgonu]</t>
   </si>
   <si>
-    <t>T8_176 - Art. 55 i 55a - Po ponownym ustaleniu … wysokość świadcz. osoby zmarłej … wynosi: SKL + KAP - POBR.EM. / ŚDTŻ</t>
-  </si>
-  <si>
-    <t>T8_177 - Art. 55 i 55a - Po ponownym ustaleniu … wysokość świadcz. osoby zmarłej … wynosi: SKL - POBR.EM. / ŚDTŻ</t>
-  </si>
-  <si>
-    <t>T8_178 - Art. 55 i 55a - Po ponownym ustaleniu … wysokość świadcz. osoby zmarłej … wynosi: KAP - POBR.EM. / ŚDTŻ</t>
-  </si>
-  <si>
     <t>T8_179 - Art. 26 ust. 5 i 6 - ŚDTŻ korzystniejsze [w dniu zgonu] niż [w dniu osiągn. wieku]</t>
   </si>
   <si>
@@ -1088,9 +1028,6 @@
     <t>T8_182 - Art. 26 ust. 5 i 6 - ŚDTŻ korzystniejsze [w dniu zgonu] niż [w dniu spełnienia warunków]</t>
   </si>
   <si>
-    <t>T8_183 - Art. 26 ust. 5 i 6 - ŚDTŻ … w dniu spełnienia warunków - dla osoby zmarłej</t>
-  </si>
-  <si>
     <t>T8_184 - Art. 26 ust. 5 i 6 - ŚDTŻ korzystniejsze [w dniu nast. po wieku] niż [w dniu zgonu]</t>
   </si>
   <si>
@@ -1103,48 +1040,9 @@
     <t>T8_187 - Art. 26 ust. 5 i 6 - ŚDTŻ korzystniejsze [w dniu zgonu] niż [w dniu 01.01.2009 r.]</t>
   </si>
   <si>
-    <t>T88_150 - Art. 55a - Podstawę obliczenia emerytury osoby zmarłej stanowi … kwota składek + KP</t>
-  </si>
-  <si>
-    <t>T88_151 - Art. 55a - Podstawę obliczenia emerytury osoby zmarłej stanowi … kwota składek</t>
-  </si>
-  <si>
-    <t>T88_152 - Art. 55a - Podstawę obliczenia emerytury osoby zmarłej stanowi … KP</t>
-  </si>
-  <si>
-    <t>T16_69 - Art. 110a - Ponownego ustalenia em. osoby zmarłej dokonano … może nastąpić wyłącznie jeden raz.</t>
-  </si>
-  <si>
-    <t>T8_163 - Art. 26 ust. 5 i 6 - z urzędu ŚDTŻ … w dniu osiągn. powsz. w. em. … korzystniejsze od … wypłata zawiesz. renty z tyt. niezd. do pracy</t>
-  </si>
-  <si>
-    <t>T50_449 - Zgodnie z art. 174 ust. 2a ... przy ustalaniu KP okresy urlopów lub niewyk. pracy oblicza się przyj. 1,3% PW …</t>
-  </si>
-  <si>
-    <t>T50_450 - Zgodnie z art. 185a … poprzez dodanie do okresów nieskładk. okresów studiów wyższ. w wymiarze 1/3 okr. składk.</t>
-  </si>
-  <si>
-    <t>T50_451 - Art. 55a - Wprowadzony ustawą … umożliwia ponowne obliczenie, z zast. art. 55 … osobie, która miała ustalone prawo do em. wcześn. i kontynuowała ubezp.</t>
-  </si>
-  <si>
-    <t>T50_452 - Art. 26 ust. 6 - Wysokość em. podlega ponownemu ustaleniu … jeżeli obowiązywała inna tablica ŚDTŻ …</t>
-  </si>
-  <si>
-    <t>T54_698 - Art. 55 i 55a - nie kontynuował/a Pan/i ubezp. … po osiągn. powsz. w. em. … brak podstaw do oblicz.</t>
-  </si>
-  <si>
-    <t>T54_699 - Art. 55 i 55a - emerytura została przyznana przed dniem 1 stycznia 2009 r., a zatem brak jest podstaw do obliczenia …</t>
-  </si>
-  <si>
     <t>T54_700 - Art. 55 i 55a - emerytura nie została przyznana na podstawie art. 27 ustawy emerytalnej, a zatem brak jest podstaw</t>
   </si>
   <si>
-    <t>T54_701 - wniosek o emeryturę zgłosił Pan(i) w miesiącu, w którym obowiązywała ta sama tablica ŚDTŻ …</t>
-  </si>
-  <si>
-    <t>T50_453 - Zgodnie z art. 110a … dotyczy wyłącznie em. i może nastąpić wyłącznie jeden raz</t>
-  </si>
-  <si>
     <t>T54_699 - Art. 110a - ponowne ustalenie świadczenia dotyczy wyłącznie emerytury</t>
   </si>
   <si>
@@ -1152,18 +1050,6 @@
   </si>
   <si>
     <t>T54_701 - Art. 110a - nowo ustalony wskaźnik wysokości podstawy wymiaru emerytury nie przekracza 250%</t>
-  </si>
-  <si>
-    <t>T54_702 - Art. 110a - do ponownego ustalenia … wskazano wynagrodzenia przyjęte do ostatnio obliczonej podstawy wymiaru</t>
-  </si>
-  <si>
-    <t>T54_703 - Art. 110a - do ponownego ustalenia podstawy wymiaru emerytury nie wskazano wynagrodzeń …</t>
-  </si>
-  <si>
-    <t>T54_704 - Art. 110a - nie podlegał/a Pan/i ubezp. społecz. … po przyznaniu em. … brak podstaw do ponownego przel.</t>
-  </si>
-  <si>
-    <t>T50_454 - Art. 110a - Wysokość emerytury podlega ponownemu ustaleniu … gdy zostały spełnione warunki …</t>
   </si>
   <si>
     <t>Zakład informuje, że prawo do wcześniejszej emerytury zostanie przywrócone w przypadku wycofania wniosku o emeryturę przyznaną na podstawie niniejszej decyzji. Wycofanie wniosku o emeryturę możliwe jest do dnia uprawomocnienia się decyzji, tj. w przypadku niezłożenia odwołania do sądu - w terminie miesiąca od dnia doręczenia decyzji.</t>
@@ -1210,6 +1096,120 @@
   </si>
   <si>
     <t>- nie podlegał&lt;A&gt; &lt;PANPANISWIADCZENIOBIORCA&gt; ubezpieczeniu społecznemu - ubezpieczeniom emerytalnemu i rentowym po przyznaniu emerytury, a zatem brak jest podstaw do ponownego obliczenia emerytury w myśl art. 110a ustawy emerytalnej</t>
+  </si>
+  <si>
+    <t>T148_49 - Po przelicz. KP, kwota ponownie oblicz. i zwal. KP - na Pana koncie wynosi ...</t>
+  </si>
+  <si>
+    <t>T16_66 - Art. 55a - ... prawo do wcześn. em. zostanie przywrócone w przyp. wycofania wniosku ...</t>
+  </si>
+  <si>
+    <t>T2_151 - Art. 26a - W związku z przyznaniem emerytury w powsz. wieku em. ... prawo do em. wcześn. ustaje z dniem ...</t>
+  </si>
+  <si>
+    <t>T2_152 - Art. 26a - W związku z obliczeniem emerytury w powsz. wieku em. ... prawo do em. wcześn. ustaje z dniem ...</t>
+  </si>
+  <si>
+    <t>T8_159 - Art 174 ust. 2a i 185a - Po ponownym ustaleniu wysokość ... wynosi: SKL + KAP / ŚDTŻ</t>
+  </si>
+  <si>
+    <t>T8_160 - Art 174 ust. 2a i 185a - Po ponownym ustaleniu wysokość ... wynosi: KAP / ŚDTZ</t>
+  </si>
+  <si>
+    <t>T8_169 - Art. 26 ust. 5 i 6 - ŚDTŻ ... w dniu spełnienia warunków</t>
+  </si>
+  <si>
+    <t>T88_147 - Art. 55a - Podstawę obliczenia emerytury stanowi ... kwota składek + KP</t>
+  </si>
+  <si>
+    <t>T88_148 - Art. 55a - Podstawę obliczenia emerytury stanowi ... kwota składek</t>
+  </si>
+  <si>
+    <t>T88_149 - Art. 55a - Podstawę obliczenia emerytury stanowi ... KP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10b_66 - Art. 26 ust. 5 i 6 - Do ustalenia wys. okr. em. przyjęto ŚDTŻ ... w dniu zgłoszenia wniosku o em. ... korzystniejsze od ... w dniu osiągn. powsz. w. em. </t>
+  </si>
+  <si>
+    <t>T10b_67 - Art. 26 ust. 5 i 6 - Do ustalenia wys. okr. em. przyjęto ŚDTŻ ... w dniu osiągn. powsz. w. em. ... korzystniejsze od ... w dniu zgłoszenia wniosku o em.</t>
+  </si>
+  <si>
+    <t>T10b_68 - Art. 26 ust. 5 i 6 - Do ustalenia wys. okr. em. przyjęto ŚDTŻ ... w dniu osiągn. powsz. w. em. ... korzystniejsze od ... wypłata zawiesz. renty z tyt. niezd. do pracy</t>
+  </si>
+  <si>
+    <t>T10b_69 - Art. 26 ust. 5 i 6 - Do ustalenia wys. okr. em. przyjęto ŚDTŻ ... wypłata zawiesz. renty z tyt. niezd. do pracy ... korzystniejsze od ... osiągn. powsz. w. em.</t>
+  </si>
+  <si>
+    <t>T148_50 - Po przelicz. KP, kwota ponownie oblicz. i zwal. KP - na koncie osoby zmarłej wynosi ...</t>
+  </si>
+  <si>
+    <t>T8_172 - Art 174 ust. 2a i 185a - Po ponownym ustaleniu ... wysokość świadcz. osoby zmarłej ... wynosi: SKL + KAP / ŚDTŻ</t>
+  </si>
+  <si>
+    <t>T8_173 - Art 174 ust. 2a i 185a - Po ponownym ustaleniu ... wysokość świadcz. osoby zmarłej ... wynosi: KAP / ŚDTŻ</t>
+  </si>
+  <si>
+    <t>T8_176 - Art. 55 i 55a - Po ponownym ustaleniu ... wysokość świadcz. osoby zmarłej ... wynosi: SKL + KAP - POBR.EM. / ŚDTŻ</t>
+  </si>
+  <si>
+    <t>T8_177 - Art. 55 i 55a - Po ponownym ustaleniu ... wysokość świadcz. osoby zmarłej ... wynosi: SKL - POBR.EM. / ŚDTŻ</t>
+  </si>
+  <si>
+    <t>T8_178 - Art. 55 i 55a - Po ponownym ustaleniu ... wysokość świadcz. osoby zmarłej ... wynosi: KAP - POBR.EM. / ŚDTŻ</t>
+  </si>
+  <si>
+    <t>T8_183 - Art. 26 ust. 5 i 6 - ŚDTŻ ... w dniu spełnienia warunków - dla osoby zmarłej</t>
+  </si>
+  <si>
+    <t>T88_150 - Art. 55a - Podstawę obliczenia emerytury osoby zmarłej stanowi ... kwota składek + KP</t>
+  </si>
+  <si>
+    <t>T88_151 - Art. 55a - Podstawę obliczenia emerytury osoby zmarłej stanowi ... kwota składek</t>
+  </si>
+  <si>
+    <t>T88_152 - Art. 55a - Podstawę obliczenia emerytury osoby zmarłej stanowi ... KP</t>
+  </si>
+  <si>
+    <t>T16_69 - Art. 110a - Ponownego ustalenia em. osoby zmarłej dokonano ... może nastąpić wyłącznie jeden raz.</t>
+  </si>
+  <si>
+    <t>T8_163 - Art. 26 ust. 5 i 6 - z urzędu ŚDTŻ ... w dniu osiągn. powsz. w. em. ... korzystniejsze od ... wypłata zawiesz. renty z tyt. niezd. do pracy</t>
+  </si>
+  <si>
+    <t>T50_449 - Zgodnie z art. 174 ust. 2a ... przy ustalaniu KP okresy urlopów lub niewyk. pracy oblicza się przyj. 1,3% PW ...</t>
+  </si>
+  <si>
+    <t>T50_450 - Zgodnie z art. 185a ... poprzez dodanie do okresów nieskładk. okresów studiów wyższ. w wymiarze 1/3 okr. składk.</t>
+  </si>
+  <si>
+    <t>T50_451 - Art. 55a - Wprowadzony ustawą ... umożliwia ponowne obliczenie, z zast. art. 55 ... osobie, która miała ustalone prawo do em. wcześn. i kontynuowała ubezp.</t>
+  </si>
+  <si>
+    <t>T50_452 - Art. 26 ust. 6 - Wysokość em. podlega ponownemu ustaleniu ... jeżeli obowiązywała inna tablica ŚDTŻ ...</t>
+  </si>
+  <si>
+    <t>T54_698 - Art. 55 i 55a - nie kontynuował/a Pan/i ubezp. ... po osiągn. powsz. w. em. ... brak podstaw do oblicz.</t>
+  </si>
+  <si>
+    <t>T54_699 - Art. 55 i 55a - emerytura została przyznana przed dniem 1 stycznia 2009 r., a zatem brak jest podstaw do obliczenia ...</t>
+  </si>
+  <si>
+    <t>T54_701 - wniosek o emeryturę zgłosił Pan(i) w miesiącu, w którym obowiązywała ta sama tablica ŚDTŻ ...</t>
+  </si>
+  <si>
+    <t>T50_453 - Zgodnie z art. 110a ... dotyczy wyłącznie em. i może nastąpić wyłącznie jeden raz</t>
+  </si>
+  <si>
+    <t>T54_702 - Art. 110a - do ponownego ustalenia ... wskazano wynagrodzenia przyjęte do ostatnio obliczonej podstawy wymiaru</t>
+  </si>
+  <si>
+    <t>T54_703 - Art. 110a - do ponownego ustalenia podstawy wymiaru emerytury nie wskazano wynagrodzeń ...</t>
+  </si>
+  <si>
+    <t>T54_704 - Art. 110a - nie podlegał/a Pan/i ubezp. społecz. ... po przyznaniu em. ... brak podstaw do ponownego przel.</t>
+  </si>
+  <si>
+    <t>T50_454 - Art. 110a - Wysokość emerytury podlega ponownemu ustaleniu ... gdy zostały spełnione warunki ...</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1648,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1830,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>58</v>
@@ -1877,13 +1877,13 @@
         <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>129</v>
@@ -1918,7 +1918,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>58</v>
@@ -1971,7 +1971,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>58</v>
@@ -2038,13 +2038,13 @@
         <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>112</v>
@@ -2084,7 +2084,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>58</v>
@@ -2128,7 +2128,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>58</v>
@@ -2172,7 +2172,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>58</v>
@@ -2228,7 +2228,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>58</v>
@@ -2286,7 +2286,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>58</v>
@@ -2337,7 +2337,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>58</v>
@@ -2395,7 +2395,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>58</v>
@@ -2456,7 +2456,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>58</v>
@@ -2514,7 +2514,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>58</v>
@@ -2565,7 +2565,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>58</v>
@@ -2616,7 +2616,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>58</v>
@@ -2663,7 +2663,7 @@
         <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>58</v>
@@ -2716,7 +2716,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>58</v>
@@ -2769,7 +2769,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>58</v>
@@ -2832,7 +2832,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>58</v>
@@ -2895,7 +2895,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>58</v>
@@ -2989,7 +2989,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>58</v>
@@ -3050,13 +3050,13 @@
         <v>57</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>112</v>
@@ -3095,7 +3095,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>58</v>
@@ -3143,7 +3143,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>58</v>
@@ -3235,7 +3235,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>58</v>
@@ -3296,13 +3296,13 @@
         <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>112</v>
@@ -3341,7 +3341,7 @@
         <v>57</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>58</v>
@@ -3386,7 +3386,7 @@
         <v>57</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>58</v>
@@ -3478,7 +3478,7 @@
         <v>57</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>58</v>
@@ -3523,13 +3523,13 @@
         <v>57</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>112</v>
@@ -3568,7 +3568,7 @@
         <v>57</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>58</v>
@@ -3613,7 +3613,7 @@
         <v>57</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>58</v>
@@ -3657,7 +3657,7 @@
         <v>57</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>58</v>
@@ -3710,7 +3710,7 @@
         <v>57</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>58</v>
@@ -3763,7 +3763,7 @@
         <v>57</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>58</v>
@@ -3816,7 +3816,7 @@
         <v>57</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>58</v>
@@ -3883,7 +3883,7 @@
         <v>57</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>58</v>
@@ -3939,7 +3939,7 @@
         <v>57</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>58</v>
@@ -3995,7 +3995,7 @@
         <v>57</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>58</v>
@@ -4045,7 +4045,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>58</v>
@@ -4095,7 +4095,7 @@
         <v>57</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>58</v>
@@ -4142,7 +4142,7 @@
         <v>57</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>58</v>
@@ -4195,7 +4195,7 @@
         <v>57</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>58</v>
@@ -4292,7 +4292,7 @@
         <v>57</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>58</v>
@@ -4339,13 +4339,13 @@
         <v>57</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>112</v>
@@ -4384,7 +4384,7 @@
         <v>57</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>58</v>
@@ -4431,7 +4431,7 @@
         <v>57</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>58</v>
@@ -4478,7 +4478,7 @@
         <v>57</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>58</v>
@@ -4525,7 +4525,7 @@
         <v>57</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>58</v>
@@ -4619,7 +4619,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>58</v>
@@ -4666,7 +4666,7 @@
         <v>57</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>58</v>
@@ -4713,7 +4713,7 @@
         <v>57</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>58</v>
@@ -4760,7 +4760,7 @@
         <v>57</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>58</v>
@@ -4807,7 +4807,7 @@
         <v>57</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>58</v>
@@ -4854,7 +4854,7 @@
         <v>57</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>58</v>
@@ -4945,13 +4945,13 @@
         <v>57</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>112</v>
@@ -5031,7 +5031,7 @@
         <v>57</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>58</v>
@@ -5075,7 +5075,7 @@
         <v>57</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>58</v>
@@ -5116,7 +5116,7 @@
         <v>57</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>58</v>
@@ -5157,13 +5157,13 @@
         <v>57</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>125</v>
@@ -5204,13 +5204,13 @@
         <v>57</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>125</v>
@@ -5251,7 +5251,7 @@
         <v>57</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>58</v>
@@ -5301,7 +5301,7 @@
         <v>57</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>58</v>
@@ -5348,13 +5348,13 @@
         <v>57</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>125</v>
@@ -5395,13 +5395,13 @@
         <v>57</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>125</v>
@@ -5442,13 +5442,13 @@
         <v>57</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>125</v>
@@ -5489,7 +5489,7 @@
         <v>57</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>58</v>
@@ -5539,7 +5539,7 @@
         <v>57</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>58</v>
@@ -5589,7 +5589,7 @@
         <v>57</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>58</v>
@@ -5639,7 +5639,7 @@
         <v>57</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>58</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>58</v>
@@ -5736,7 +5736,7 @@
         <v>57</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>58</v>
@@ -5789,7 +5789,7 @@
         <v>57</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>58</v>
@@ -5842,7 +5842,7 @@
         <v>57</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>58</v>
@@ -5895,7 +5895,7 @@
         <v>57</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>58</v>
@@ -5948,7 +5948,7 @@
         <v>57</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>58</v>
@@ -5998,7 +5998,7 @@
         <v>57</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>58</v>
@@ -6048,7 +6048,7 @@
         <v>57</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>58</v>
@@ -6142,7 +6142,7 @@
         <v>57</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>58</v>
@@ -6195,7 +6195,7 @@
         <v>57</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>58</v>
@@ -6248,7 +6248,7 @@
         <v>57</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>58</v>
@@ -6298,7 +6298,7 @@
         <v>57</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>58</v>
@@ -6348,7 +6348,7 @@
         <v>57</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>58</v>
@@ -6398,7 +6398,7 @@
         <v>57</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>58</v>
@@ -6448,7 +6448,7 @@
         <v>57</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>58</v>
@@ -6495,7 +6495,7 @@
         <v>57</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>58</v>
@@ -6548,7 +6548,7 @@
         <v>57</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>58</v>
@@ -6601,7 +6601,7 @@
         <v>57</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>58</v>
@@ -6651,7 +6651,7 @@
         <v>57</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>58</v>
@@ -6701,7 +6701,7 @@
         <v>57</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>58</v>
@@ -6786,7 +6786,7 @@
         <v>57</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>58</v>
@@ -6830,13 +6830,13 @@
         <v>57</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>112</v>
@@ -6875,7 +6875,7 @@
         <v>57</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>58</v>
@@ -6922,7 +6922,7 @@
         <v>57</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>58</v>
@@ -6969,7 +6969,7 @@
         <v>57</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>58</v>
@@ -7022,7 +7022,7 @@
         <v>57</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>58</v>
@@ -7075,7 +7075,7 @@
         <v>57</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>58</v>
@@ -7128,7 +7128,7 @@
         <v>57</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>58</v>
@@ -7181,7 +7181,7 @@
         <v>57</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>58</v>
@@ -7237,7 +7237,7 @@
         <v>57</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>58</v>
@@ -7293,7 +7293,7 @@
         <v>57</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>58</v>
@@ -7343,7 +7343,7 @@
         <v>57</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>58</v>
@@ -7393,7 +7393,7 @@
         <v>57</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>58</v>
@@ -7440,7 +7440,7 @@
         <v>57</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>58</v>
@@ -7493,7 +7493,7 @@
         <v>57</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>58</v>
@@ -7590,7 +7590,7 @@
         <v>57</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>58</v>
@@ -7637,13 +7637,13 @@
         <v>57</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>112</v>
@@ -7682,7 +7682,7 @@
         <v>57</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>58</v>
@@ -7729,7 +7729,7 @@
         <v>57</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>58</v>
@@ -7776,7 +7776,7 @@
         <v>57</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>58</v>
@@ -7823,7 +7823,7 @@
         <v>57</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>58</v>
@@ -7873,7 +7873,7 @@
         <v>57</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>58</v>
@@ -7920,7 +7920,7 @@
         <v>57</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>58</v>
@@ -8014,7 +8014,7 @@
         <v>57</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>58</v>
@@ -8067,7 +8067,7 @@
         <v>57</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>58</v>
@@ -8120,7 +8120,7 @@
         <v>57</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>58</v>
@@ -8170,7 +8170,7 @@
         <v>57</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>58</v>
@@ -8220,7 +8220,7 @@
         <v>57</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>58</v>
@@ -8270,7 +8270,7 @@
         <v>57</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>58</v>
@@ -8320,7 +8320,7 @@
         <v>57</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>58</v>
@@ -8367,7 +8367,7 @@
         <v>57</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>58</v>
@@ -8420,7 +8420,7 @@
         <v>57</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>58</v>
@@ -8473,7 +8473,7 @@
         <v>57</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>58</v>
@@ -8523,7 +8523,7 @@
         <v>57</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>58</v>
@@ -8588,7 +8588,7 @@
         <v>57</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>58</v>
@@ -8673,7 +8673,7 @@
         <v>57</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>58</v>
@@ -8714,7 +8714,7 @@
         <v>57</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>58</v>
@@ -8755,13 +8755,13 @@
         <v>57</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>290</v>
@@ -8796,7 +8796,7 @@
         <v>57</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>58</v>
@@ -8837,13 +8837,13 @@
         <v>57</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>292</v>
@@ -8878,13 +8878,13 @@
         <v>57</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>292</v>
@@ -8919,7 +8919,7 @@
         <v>57</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>58</v>
@@ -8960,7 +8960,7 @@
         <v>57</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>58</v>
@@ -9001,13 +9001,13 @@
         <v>57</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>292</v>
@@ -9042,7 +9042,7 @@
         <v>57</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>58</v>
@@ -9083,7 +9083,7 @@
         <v>57</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>58</v>
@@ -9118,7 +9118,7 @@
         <v>57</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>58</v>
@@ -9156,7 +9156,7 @@
         <v>57</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>58</v>
@@ -9194,7 +9194,7 @@
         <v>57</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>58</v>
@@ -9232,7 +9232,7 @@
         <v>57</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>58</v>
@@ -9270,7 +9270,7 @@
         <v>57</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>58</v>
@@ -9308,13 +9308,13 @@
         <v>57</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>292</v>
@@ -9346,7 +9346,7 @@
         <v>57</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>58</v>
@@ -9422,7 +9422,7 @@
         <v>57</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>58</v>
@@ -9463,7 +9463,7 @@
         <v>57</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>58</v>
@@ -9504,13 +9504,13 @@
         <v>57</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>292</v>
@@ -9548,13 +9548,13 @@
         <v>57</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>292</v>
@@ -9636,7 +9636,7 @@
         <v>57</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>58</v>
@@ -9695,7 +9695,7 @@
         <v>57</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>58</v>
@@ -9754,13 +9754,13 @@
         <v>57</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="G167" s="7" t="s">
         <v>292</v>
@@ -9798,13 +9798,13 @@
         <v>57</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>292</v>
@@ -9842,7 +9842,7 @@
         <v>57</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>58</v>
@@ -9889,7 +9889,7 @@
         <v>57</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>58</v>
@@ -9936,7 +9936,7 @@
         <v>57</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>58</v>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="15" windowWidth="23415" windowHeight="9960" tabRatio="165"/>
+    <workbookView xWindow="4680" yWindow="15" windowWidth="23415" windowHeight="9960" tabRatio="165"/>
   </bookViews>
   <sheets>
     <sheet name="toSOS_S_TEKSTOW" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="387">
   <si>
     <t>Po ponownym ustaleniu wysokość &lt;NAZWASWIADCZENIAGL&gt; wynosi: 
 &lt;KWOTAKAPITALUPOCZATKOWEGOKOR&gt;/&lt;SREDNIEDALSZETRWANIEZYCIA&gt; = &lt;KWOTAEMERYTURYKOR&gt; zł.</t>
@@ -401,9 +401,6 @@
     <t>,2,</t>
   </si>
   <si>
-    <t>,3,29,39,83</t>
-  </si>
-  <si>
     <t>3002</t>
   </si>
   <si>
@@ -1210,6 +1207,12 @@
   </si>
   <si>
     <t>T50_454 - Art. 110a - Wysokość emerytury podlega ponownemu ustaleniu ... gdy zostały spełnione warunki ...</t>
+  </si>
+  <si>
+    <t>,18,81,</t>
+  </si>
+  <si>
+    <t>,18,</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1651,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,8 +1660,8 @@
     <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="23" style="3" customWidth="1"/>
-    <col min="5" max="5" width="2" style="3" customWidth="1"/>
-    <col min="6" max="6" width="68.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="0.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="12" customWidth="1"/>
@@ -1705,13 +1708,13 @@
         <v>106</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="M1" s="2">
         <v>1</v>
@@ -1782,7 +1785,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>58</v>
@@ -1803,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>114</v>
@@ -1830,7 +1833,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>58</v>
@@ -1839,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>107</v>
@@ -1851,16 +1854,16 @@
         <v>4</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>115</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AE3" s="15" t="s">
         <v>108</v>
@@ -1877,16 +1880,16 @@
         <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>113</v>
@@ -1895,13 +1898,13 @@
         <v>3001</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA4" s="12" t="s">
         <v>108</v>
@@ -1918,7 +1921,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>58</v>
@@ -1927,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>113</v>
@@ -1939,13 +1942,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="12">
         <v>700</v>
@@ -1957,7 +1960,7 @@
         <v>108</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,7 +1974,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>58</v>
@@ -1980,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>113</v>
@@ -1992,13 +1995,13 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -2032,19 +2035,19 @@
         <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>112</v>
@@ -2056,19 +2059,19 @@
         <v>3001</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>116</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S7" s="13"/>
       <c r="AE7" s="13"/>
@@ -2078,13 +2081,13 @@
         <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>58</v>
@@ -2102,16 +2105,16 @@
         <v>3072</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>115</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE8" s="15" t="s">
         <v>108</v>
@@ -2122,13 +2125,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>58</v>
@@ -2146,16 +2149,16 @@
         <v>3072</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>115</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE9" s="15" t="s">
         <v>108</v>
@@ -2166,13 +2169,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>58</v>
@@ -2181,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>113</v>
@@ -2193,22 +2196,22 @@
         <v>7</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB10" s="12">
         <v>1</v>
@@ -2222,13 +2225,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>58</v>
@@ -2237,7 +2240,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>113</v>
@@ -2249,23 +2252,26 @@
         <v>7</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10">
@@ -2275,18 +2281,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>58</v>
@@ -2295,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>113</v>
@@ -2307,16 +2313,16 @@
         <v>7</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>114</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="11">
@@ -2331,13 +2337,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>58</v>
@@ -2346,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>113</v>
@@ -2358,10 +2364,10 @@
         <v>7</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>114</v>
@@ -2374,7 +2380,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10">
@@ -2389,13 +2395,13 @@
         <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>58</v>
@@ -2404,7 +2410,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>113</v>
@@ -2416,10 +2422,10 @@
         <v>7</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>114</v>
@@ -2428,14 +2434,14 @@
         <v>700</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10">
@@ -2445,18 +2451,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>58</v>
@@ -2465,7 +2471,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>113</v>
@@ -2477,23 +2483,26 @@
         <v>7</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>114</v>
       </c>
+      <c r="Q15" s="12">
+        <v>700</v>
+      </c>
       <c r="U15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10">
@@ -2508,13 +2517,13 @@
         <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>58</v>
@@ -2523,7 +2532,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>113</v>
@@ -2535,10 +2544,10 @@
         <v>7</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>114</v>
@@ -2559,13 +2568,13 @@
         <v>56</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>58</v>
@@ -2574,7 +2583,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>113</v>
@@ -2586,10 +2595,10 @@
         <v>7</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>114</v>
@@ -2610,13 +2619,13 @@
         <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>58</v>
@@ -2625,7 +2634,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>113</v>
@@ -2637,10 +2646,10 @@
         <v>7</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>114</v>
@@ -2657,13 +2666,13 @@
         <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>58</v>
@@ -2672,7 +2681,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>113</v>
@@ -2684,10 +2693,10 @@
         <v>7</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>114</v>
@@ -2710,13 +2719,13 @@
         <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>58</v>
@@ -2725,7 +2734,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>113</v>
@@ -2737,10 +2746,10 @@
         <v>7</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>114</v>
@@ -2763,13 +2772,13 @@
         <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>58</v>
@@ -2778,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>113</v>
@@ -2788,11 +2797,11 @@
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13" t="s">
@@ -2826,13 +2835,13 @@
         <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>58</v>
@@ -2841,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>113</v>
@@ -2851,15 +2860,15 @@
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P22" s="12" t="s">
         <v>108</v>
@@ -2889,13 +2898,13 @@
         <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>58</v>
@@ -2904,7 +2913,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>113</v>
@@ -2913,19 +2922,19 @@
         <v>3001</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>108</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="12">
         <v>700</v>
@@ -2945,7 +2954,7 @@
         <v>57</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>58</v>
@@ -2957,7 +2966,7 @@
         <v>110</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I24" s="12">
         <v>3049</v>
@@ -2966,13 +2975,13 @@
         <v>2</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE24" s="15" t="s">
         <v>108</v>
@@ -2989,7 +2998,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>58</v>
@@ -3008,10 +3017,10 @@
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>114</v>
@@ -3044,43 +3053,43 @@
         <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I26" s="12">
         <v>3049</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>116</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE26" s="13"/>
     </row>
@@ -3089,13 +3098,13 @@
         <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>58</v>
@@ -3104,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>113</v>
@@ -3116,16 +3125,16 @@
         <v>7</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>114</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S27" s="10"/>
       <c r="AE27" s="12" t="s">
@@ -3137,13 +3146,13 @@
         <v>56</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>58</v>
@@ -3152,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>113</v>
@@ -3164,16 +3173,16 @@
         <v>7</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>114</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S28" s="10"/>
       <c r="AE28" s="10" t="s">
@@ -3191,7 +3200,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>58</v>
@@ -3203,7 +3212,7 @@
         <v>110</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I29" s="12">
         <v>3068</v>
@@ -3212,13 +3221,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE29" s="10" t="s">
         <v>108</v>
@@ -3235,7 +3244,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>58</v>
@@ -3247,20 +3256,20 @@
         <v>3762</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I30" s="13">
         <v>3049</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -3290,43 +3299,43 @@
         <v>56</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" s="12">
         <v>3068</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N31" s="12" t="s">
         <v>116</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE31" s="13"/>
     </row>
@@ -3335,13 +3344,13 @@
         <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>58</v>
@@ -3350,25 +3359,25 @@
         <v>1</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I32" s="12">
         <v>3049</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S32" s="10"/>
       <c r="AE32" s="10" t="s">
@@ -3380,13 +3389,13 @@
         <v>56</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>58</v>
@@ -3395,25 +3404,25 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I33" s="12">
         <v>3049</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M33" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="R33" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="S33" s="10"/>
       <c r="AE33" s="10" t="s">
@@ -3431,7 +3440,7 @@
         <v>57</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>58</v>
@@ -3443,7 +3452,7 @@
         <v>110</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I34" s="12">
         <v>3003</v>
@@ -3452,13 +3461,13 @@
         <v>2</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC34" s="14" t="s">
         <v>108</v>
@@ -3478,7 +3487,7 @@
         <v>57</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>58</v>
@@ -3490,19 +3499,19 @@
         <v>3762</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I35" s="12">
         <v>3068</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R35" s="14" t="s">
         <v>111</v>
@@ -3517,43 +3526,43 @@
         <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I36" s="12">
         <v>3003</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>116</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE36" s="13"/>
     </row>
@@ -3562,13 +3571,13 @@
         <v>56</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>58</v>
@@ -3577,43 +3586,43 @@
         <v>1</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I37" s="12">
         <v>3068</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R37" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="S37" s="14"/>
-      <c r="AE37" s="10" t="s">
-        <v>108</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE37" s="10"/>
     </row>
     <row r="38" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>58</v>
@@ -3622,25 +3631,25 @@
         <v>0</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I38" s="12">
         <v>3068</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R38" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S38" s="10" t="s">
         <v>108</v>
@@ -3651,13 +3660,13 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>58</v>
@@ -3666,10 +3675,10 @@
         <v>9</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I39" s="12">
         <v>3003</v>
@@ -3678,19 +3687,19 @@
         <v>3</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB39" s="14">
         <v>1</v>
@@ -3704,13 +3713,13 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>58</v>
@@ -3719,10 +3728,10 @@
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I40" s="12">
         <v>3003</v>
@@ -3731,19 +3740,19 @@
         <v>3</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U40" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB40" s="14">
         <v>2</v>
@@ -3757,13 +3766,13 @@
         <v>56</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>58</v>
@@ -3772,10 +3781,10 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I41" s="12">
         <v>3003</v>
@@ -3784,19 +3793,19 @@
         <v>3</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U41" s="14" t="s">
         <v>108</v>
       </c>
       <c r="Z41" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB41" s="14">
         <v>2</v>
@@ -3810,13 +3819,13 @@
         <v>56</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>58</v>
@@ -3825,10 +3834,10 @@
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I42" s="12">
         <v>3003</v>
@@ -3837,13 +3846,13 @@
         <v>3</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
@@ -3860,7 +3869,7 @@
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA42" s="12"/>
       <c r="AB42" s="14">
@@ -3877,13 +3886,13 @@
         <v>56</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>58</v>
@@ -3892,10 +3901,10 @@
         <v>13</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I43" s="12">
         <v>3003</v>
@@ -3904,22 +3913,22 @@
         <v>3</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q43" s="10">
         <v>700</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z43" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB43" s="14">
         <v>2</v>
@@ -3933,13 +3942,13 @@
         <v>56</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>58</v>
@@ -3948,10 +3957,10 @@
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="12">
         <v>3003</v>
@@ -3960,22 +3969,22 @@
         <v>3</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q44" s="10">
         <v>700</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z44" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB44" s="14">
         <v>1</v>
@@ -3989,13 +3998,13 @@
         <v>56</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>58</v>
@@ -4004,10 +4013,10 @@
         <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="12">
         <v>3003</v>
@@ -4016,13 +4025,13 @@
         <v>3</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z45" s="14" t="s">
         <v>108</v>
@@ -4039,13 +4048,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>58</v>
@@ -4054,10 +4063,10 @@
         <v>16</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I46" s="12">
         <v>3003</v>
@@ -4066,13 +4075,13 @@
         <v>3</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z46" s="14" t="s">
         <v>108</v>
@@ -4089,13 +4098,13 @@
         <v>56</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>58</v>
@@ -4104,10 +4113,10 @@
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I47" s="12">
         <v>3003</v>
@@ -4116,13 +4125,13 @@
         <v>3</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB47" s="14">
         <v>4</v>
@@ -4136,13 +4145,13 @@
         <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>58</v>
@@ -4151,10 +4160,10 @@
         <v>18</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I48" s="12">
         <v>3003</v>
@@ -4163,13 +4172,13 @@
         <v>3</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V48" s="14" t="s">
         <v>108</v>
@@ -4189,13 +4198,13 @@
         <v>56</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>58</v>
@@ -4204,10 +4213,10 @@
         <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I49" s="12">
         <v>3003</v>
@@ -4216,13 +4225,13 @@
         <v>3</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V49" s="14" t="s">
         <v>108</v>
@@ -4248,7 +4257,7 @@
         <v>57</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>58</v>
@@ -4260,7 +4269,7 @@
         <v>110</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I50" s="12">
         <v>3056</v>
@@ -4269,13 +4278,13 @@
         <v>2</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE50" s="15" t="s">
         <v>108</v>
@@ -4292,7 +4301,7 @@
         <v>57</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>58</v>
@@ -4304,7 +4313,7 @@
         <v>3762</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I51" s="12">
         <v>3003</v>
@@ -4313,13 +4322,13 @@
         <v>1</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R51" s="14" t="s">
         <v>111</v>
@@ -4333,43 +4342,43 @@
         <v>56</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I52" s="12">
         <v>3056</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N52" s="12" t="s">
         <v>116</v>
       </c>
       <c r="R52" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE52" s="13"/>
     </row>
@@ -4378,13 +4387,13 @@
         <v>56</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>58</v>
@@ -4393,10 +4402,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I53" s="12">
         <v>3003</v>
@@ -4405,16 +4414,16 @@
         <v>3</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R53" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE53" s="14" t="s">
         <v>108</v>
@@ -4425,13 +4434,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>58</v>
@@ -4440,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I54" s="12">
         <v>3003</v>
@@ -4452,16 +4461,16 @@
         <v>3</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE54" s="14" t="s">
         <v>108</v>
@@ -4478,7 +4487,7 @@
         <v>57</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>58</v>
@@ -4487,10 +4496,10 @@
         <v>38</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I55" s="12">
         <v>3033</v>
@@ -4499,16 +4508,16 @@
         <v>1</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W55" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X55" s="15" t="s">
         <v>108</v>
@@ -4525,7 +4534,7 @@
         <v>57</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>58</v>
@@ -4534,10 +4543,10 @@
         <v>39</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I56" s="12">
         <v>3033</v>
@@ -4546,13 +4555,13 @@
         <v>2</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>108</v>
@@ -4575,7 +4584,7 @@
         <v>57</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>58</v>
@@ -4587,7 +4596,7 @@
         <v>110</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I57" s="12">
         <v>3058</v>
@@ -4596,13 +4605,13 @@
         <v>2</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC57" s="14" t="s">
         <v>108</v>
@@ -4619,7 +4628,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>58</v>
@@ -4628,25 +4637,25 @@
         <v>41</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I58" s="12">
         <v>3058</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U58" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB58" s="14">
         <v>1</v>
@@ -4666,7 +4675,7 @@
         <v>57</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>58</v>
@@ -4675,25 +4684,25 @@
         <v>41</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I59" s="12">
         <v>3058</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB59" s="14">
         <v>2</v>
@@ -4713,7 +4722,7 @@
         <v>57</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>58</v>
@@ -4722,22 +4731,22 @@
         <v>41</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I60" s="12">
         <v>3058</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U60" s="14" t="s">
         <v>108</v>
@@ -4760,7 +4769,7 @@
         <v>57</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>58</v>
@@ -4769,22 +4778,22 @@
         <v>42</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I61" s="12">
         <v>3058</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U61" s="14" t="s">
         <v>108</v>
@@ -4807,7 +4816,7 @@
         <v>57</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>58</v>
@@ -4816,10 +4825,10 @@
         <v>38</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I62" s="12">
         <v>3047</v>
@@ -4828,16 +4837,16 @@
         <v>1</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M62" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W62" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X62" s="17" t="s">
         <v>108</v>
@@ -4854,7 +4863,7 @@
         <v>57</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>58</v>
@@ -4863,10 +4872,10 @@
         <v>39</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I63" s="12">
         <v>3047</v>
@@ -4875,13 +4884,13 @@
         <v>2</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M63" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>108</v>
@@ -4904,7 +4913,7 @@
         <v>57</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>58</v>
@@ -4925,7 +4934,7 @@
         <v>2</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>115</v>
@@ -4945,13 +4954,13 @@
         <v>57</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>112</v>
@@ -4963,13 +4972,13 @@
         <v>3072</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N65" s="12" t="s">
         <v>116</v>
       </c>
       <c r="R65" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE65" s="13"/>
     </row>
@@ -4984,7 +4993,7 @@
         <v>57</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>58</v>
@@ -4996,7 +5005,7 @@
         <v>110</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I66" s="12">
         <v>3023</v>
@@ -5005,10 +5014,10 @@
         <v>2</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M66" s="14">
         <v>18</v>
@@ -5031,7 +5040,7 @@
         <v>57</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>58</v>
@@ -5043,16 +5052,16 @@
         <v>3762</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I67" s="12">
         <v>3023</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M67" s="10">
         <v>18</v>
@@ -5069,13 +5078,13 @@
         <v>56</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>58</v>
@@ -5084,19 +5093,19 @@
         <v>21</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I68" s="12">
         <v>3023</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M68" s="10">
         <v>18</v>
@@ -5110,13 +5119,13 @@
         <v>56</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>58</v>
@@ -5125,19 +5134,19 @@
         <v>22</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I69" s="12">
         <v>3023</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M69" s="10">
         <v>18</v>
@@ -5151,25 +5160,25 @@
         <v>56</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I70" s="12">
         <v>3023</v>
@@ -5178,16 +5187,16 @@
         <v>7</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R70" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE70" s="11" t="s">
         <v>108</v>
@@ -5198,25 +5207,25 @@
         <v>56</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I71" s="12">
         <v>3023</v>
@@ -5225,16 +5234,16 @@
         <v>7</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R71" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE71" s="11" t="s">
         <v>108</v>
@@ -5245,13 +5254,13 @@
         <v>56</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>58</v>
@@ -5260,10 +5269,10 @@
         <v>27</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I72" s="12">
         <v>3023</v>
@@ -5272,13 +5281,13 @@
         <v>8</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N72" s="11" t="s">
         <v>116</v>
@@ -5295,13 +5304,13 @@
         <v>56</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>58</v>
@@ -5310,10 +5319,10 @@
         <v>28</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I73" s="12">
         <v>3023</v>
@@ -5322,13 +5331,13 @@
         <v>8</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N73" s="11" t="s">
         <v>116</v>
@@ -5342,25 +5351,25 @@
         <v>56</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I74" s="12">
         <v>3023</v>
@@ -5369,16 +5378,16 @@
         <v>8</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R74" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T74" s="11" t="s">
         <v>108</v>
@@ -5389,25 +5398,25 @@
         <v>56</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I75" s="12">
         <v>3023</v>
@@ -5416,16 +5425,16 @@
         <v>8</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M75" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="R75" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="R75" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="T75" s="11" t="s">
         <v>108</v>
@@ -5436,25 +5445,25 @@
         <v>56</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I76" s="12">
         <v>3023</v>
@@ -5463,16 +5472,16 @@
         <v>8</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R76" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T76" s="11" t="s">
         <v>108</v>
@@ -5483,13 +5492,13 @@
         <v>56</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>58</v>
@@ -5498,10 +5507,10 @@
         <v>29</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I77" s="12">
         <v>3023</v>
@@ -5510,16 +5519,16 @@
         <v>8</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z77" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB77" s="11">
         <v>1</v>
@@ -5533,13 +5542,13 @@
         <v>56</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>58</v>
@@ -5548,10 +5557,10 @@
         <v>30</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I78" s="12">
         <v>3023</v>
@@ -5560,16 +5569,16 @@
         <v>8</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z78" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB78" s="11">
         <v>2</v>
@@ -5583,13 +5592,13 @@
         <v>56</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>58</v>
@@ -5598,10 +5607,10 @@
         <v>31</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I79" s="12">
         <v>3023</v>
@@ -5610,13 +5619,13 @@
         <v>8</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z79" s="11" t="s">
         <v>108</v>
@@ -5633,13 +5642,13 @@
         <v>56</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>58</v>
@@ -5648,10 +5657,10 @@
         <v>32</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I80" s="12">
         <v>3023</v>
@@ -5660,13 +5669,13 @@
         <v>8</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z80" s="11" t="s">
         <v>108</v>
@@ -5683,13 +5692,13 @@
         <v>56</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>58</v>
@@ -5698,10 +5707,10 @@
         <v>33</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I81" s="12">
         <v>3023</v>
@@ -5710,13 +5719,13 @@
         <v>8</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB81" s="11">
         <v>4</v>
@@ -5730,13 +5739,13 @@
         <v>56</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>58</v>
@@ -5745,10 +5754,10 @@
         <v>34</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I82" s="12">
         <v>3023</v>
@@ -5757,19 +5766,19 @@
         <v>8</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q82" s="11">
         <v>700</v>
       </c>
       <c r="Z82" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB82" s="11">
         <v>2</v>
@@ -5783,13 +5792,13 @@
         <v>56</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>58</v>
@@ -5798,10 +5807,10 @@
         <v>35</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I83" s="12">
         <v>3023</v>
@@ -5810,19 +5819,19 @@
         <v>8</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q83" s="11">
         <v>700</v>
       </c>
       <c r="Z83" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB83" s="11">
         <v>1</v>
@@ -5836,13 +5845,13 @@
         <v>56</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>58</v>
@@ -5851,10 +5860,10 @@
         <v>36</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I84" s="12">
         <v>3023</v>
@@ -5863,13 +5872,13 @@
         <v>8</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V84" s="11" t="s">
         <v>108</v>
@@ -5889,13 +5898,13 @@
         <v>56</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>58</v>
@@ -5904,10 +5913,10 @@
         <v>37</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I85" s="12">
         <v>3023</v>
@@ -5916,13 +5925,13 @@
         <v>8</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V85" s="11" t="s">
         <v>108</v>
@@ -5942,13 +5951,13 @@
         <v>56</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>58</v>
@@ -5957,22 +5966,22 @@
         <v>23</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I86" s="12">
         <v>3023</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>141</v>
+        <v>386</v>
       </c>
       <c r="O86" s="11" t="s">
         <v>108</v>
@@ -5992,13 +6001,13 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>58</v>
@@ -6007,31 +6016,31 @@
         <v>24</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I87" s="12">
         <v>3023</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M87" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="R87" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="O87" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="P87" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="R87" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="T87" s="11" t="s">
         <v>108</v>
@@ -6042,13 +6051,13 @@
         <v>56</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>58</v>
@@ -6057,31 +6066,31 @@
         <v>25</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I88" s="12">
         <v>3023</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>141</v>
+        <v>385</v>
       </c>
       <c r="O88" s="11" t="s">
         <v>108</v>
       </c>
       <c r="P88" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R88" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T88" s="11" t="s">
         <v>108</v>
@@ -6098,7 +6107,7 @@
         <v>57</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>58</v>
@@ -6110,7 +6119,7 @@
         <v>110</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I89" s="12">
         <v>3042</v>
@@ -6119,13 +6128,13 @@
         <v>2</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC89" s="15" t="s">
         <v>108</v>
@@ -6136,13 +6145,13 @@
         <v>56</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>58</v>
@@ -6151,10 +6160,10 @@
         <v>27</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I90" s="12">
         <v>3042</v>
@@ -6163,19 +6172,19 @@
         <v>3</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N90" s="10" t="s">
         <v>116</v>
       </c>
       <c r="Z90" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB90" s="15">
         <v>2</v>
@@ -6189,13 +6198,13 @@
         <v>56</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>58</v>
@@ -6204,10 +6213,10 @@
         <v>28</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I91" s="12">
         <v>3042</v>
@@ -6216,19 +6225,19 @@
         <v>3</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N91" s="10" t="s">
         <v>116</v>
       </c>
       <c r="Z91" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB91" s="15">
         <v>2</v>
@@ -6242,13 +6251,13 @@
         <v>56</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>58</v>
@@ -6257,10 +6266,10 @@
         <v>29</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I92" s="12">
         <v>3042</v>
@@ -6269,16 +6278,16 @@
         <v>3</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z92" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB92" s="15">
         <v>1</v>
@@ -6292,13 +6301,13 @@
         <v>56</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>58</v>
@@ -6307,10 +6316,10 @@
         <v>30</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I93" s="12">
         <v>3042</v>
@@ -6319,16 +6328,16 @@
         <v>3</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z93" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB93" s="15">
         <v>2</v>
@@ -6342,13 +6351,13 @@
         <v>56</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>58</v>
@@ -6357,10 +6366,10 @@
         <v>31</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I94" s="12">
         <v>3042</v>
@@ -6369,13 +6378,13 @@
         <v>3</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z94" s="15" t="s">
         <v>108</v>
@@ -6392,13 +6401,13 @@
         <v>56</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>58</v>
@@ -6407,10 +6416,10 @@
         <v>32</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I95" s="12">
         <v>3042</v>
@@ -6419,13 +6428,13 @@
         <v>3</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z95" s="15" t="s">
         <v>108</v>
@@ -6442,13 +6451,13 @@
         <v>56</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>58</v>
@@ -6457,10 +6466,10 @@
         <v>33</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I96" s="12">
         <v>3042</v>
@@ -6469,13 +6478,13 @@
         <v>3</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB96" s="15">
         <v>4</v>
@@ -6489,13 +6498,13 @@
         <v>56</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>58</v>
@@ -6504,10 +6513,10 @@
         <v>34</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I97" s="12">
         <v>3042</v>
@@ -6516,19 +6525,19 @@
         <v>3</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M97" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q97" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="Q97" s="14" t="s">
-        <v>155</v>
-      </c>
       <c r="Z97" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB97" s="15">
         <v>2</v>
@@ -6542,13 +6551,13 @@
         <v>56</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>58</v>
@@ -6557,10 +6566,10 @@
         <v>35</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I98" s="12">
         <v>3042</v>
@@ -6569,19 +6578,19 @@
         <v>3</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M98" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q98" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="Q98" s="14" t="s">
-        <v>155</v>
-      </c>
       <c r="Z98" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB98" s="15">
         <v>1</v>
@@ -6595,13 +6604,13 @@
         <v>56</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>58</v>
@@ -6610,10 +6619,10 @@
         <v>36</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I99" s="12">
         <v>3042</v>
@@ -6622,13 +6631,13 @@
         <v>3</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V99" s="15" t="s">
         <v>108</v>
@@ -6645,13 +6654,13 @@
         <v>56</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>58</v>
@@ -6660,10 +6669,10 @@
         <v>37</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I100" s="12">
         <v>3042</v>
@@ -6672,13 +6681,13 @@
         <v>3</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>108</v>
@@ -6701,7 +6710,7 @@
         <v>57</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>58</v>
@@ -6710,19 +6719,19 @@
         <v>40</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I101" s="12">
         <v>3048</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M101" s="14">
         <v>32</v>
@@ -6742,7 +6751,7 @@
         <v>57</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>58</v>
@@ -6754,7 +6763,7 @@
         <v>110</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I102" s="12">
         <v>3041</v>
@@ -6763,13 +6772,13 @@
         <v>2</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE102" s="14" t="s">
         <v>108</v>
@@ -6786,7 +6795,7 @@
         <v>57</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>58</v>
@@ -6798,19 +6807,19 @@
         <v>3762</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I103" s="12">
         <v>3056</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R103" s="14" t="s">
         <v>111</v>
@@ -6824,43 +6833,43 @@
         <v>56</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I104" s="12">
         <v>3041</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N104" s="10" t="s">
         <v>116</v>
       </c>
       <c r="R104" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE104" s="13"/>
     </row>
@@ -6869,13 +6878,13 @@
         <v>56</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>58</v>
@@ -6884,10 +6893,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I105" s="12">
         <v>3056</v>
@@ -6896,16 +6905,16 @@
         <v>1</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M105" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="R105" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="R105" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="AE105" s="15" t="s">
         <v>108</v>
@@ -6916,13 +6925,13 @@
         <v>56</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>58</v>
@@ -6931,10 +6940,10 @@
         <v>0</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I106" s="12">
         <v>3056</v>
@@ -6943,16 +6952,16 @@
         <v>1</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R106" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE106" s="15" t="s">
         <v>108</v>
@@ -6963,13 +6972,13 @@
         <v>56</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>58</v>
@@ -6978,10 +6987,10 @@
         <v>9</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I107" s="12">
         <v>3041</v>
@@ -6990,19 +6999,19 @@
         <v>4</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U107" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z107" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB107" s="14">
         <v>1</v>
@@ -7016,13 +7025,13 @@
         <v>56</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>58</v>
@@ -7031,10 +7040,10 @@
         <v>10</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I108" s="12">
         <v>3041</v>
@@ -7043,19 +7052,19 @@
         <v>4</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U108" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z108" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB108" s="14">
         <v>2</v>
@@ -7069,13 +7078,13 @@
         <v>56</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>58</v>
@@ -7084,10 +7093,10 @@
         <v>11</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I109" s="12">
         <v>3041</v>
@@ -7096,19 +7105,19 @@
         <v>4</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U109" s="14" t="s">
         <v>108</v>
       </c>
       <c r="Z109" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB109" s="14">
         <v>2</v>
@@ -7122,13 +7131,13 @@
         <v>56</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>58</v>
@@ -7137,10 +7146,10 @@
         <v>20</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I110" s="12">
         <v>3041</v>
@@ -7149,19 +7158,19 @@
         <v>4</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U110" s="14" t="s">
         <v>108</v>
       </c>
       <c r="Z110" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB110" s="14">
         <v>1</v>
@@ -7175,13 +7184,13 @@
         <v>56</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>58</v>
@@ -7190,10 +7199,10 @@
         <v>13</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I111" s="12">
         <v>3041</v>
@@ -7202,22 +7211,22 @@
         <v>4</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q111" s="11">
         <v>700</v>
       </c>
       <c r="U111" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z111" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB111" s="14">
         <v>2</v>
@@ -7231,13 +7240,13 @@
         <v>56</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>58</v>
@@ -7246,10 +7255,10 @@
         <v>14</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I112" s="12">
         <v>3041</v>
@@ -7258,22 +7267,22 @@
         <v>4</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q112" s="11">
         <v>700</v>
       </c>
       <c r="U112" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z112" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB112" s="14">
         <v>1</v>
@@ -7287,13 +7296,13 @@
         <v>56</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>58</v>
@@ -7302,10 +7311,10 @@
         <v>15</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I113" s="12">
         <v>3041</v>
@@ -7314,13 +7323,13 @@
         <v>4</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z113" s="14" t="s">
         <v>108</v>
@@ -7337,13 +7346,13 @@
         <v>56</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>58</v>
@@ -7352,10 +7361,10 @@
         <v>16</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I114" s="12">
         <v>3041</v>
@@ -7364,13 +7373,13 @@
         <v>4</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L114" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z114" s="14" t="s">
         <v>108</v>
@@ -7387,13 +7396,13 @@
         <v>56</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>58</v>
@@ -7402,10 +7411,10 @@
         <v>17</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I115" s="12">
         <v>3041</v>
@@ -7414,13 +7423,13 @@
         <v>4</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L115" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB115" s="14">
         <v>4</v>
@@ -7434,13 +7443,13 @@
         <v>56</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>58</v>
@@ -7449,10 +7458,10 @@
         <v>18</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I116" s="12">
         <v>3041</v>
@@ -7461,13 +7470,13 @@
         <v>4</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L116" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V116" s="14" t="s">
         <v>108</v>
@@ -7487,13 +7496,13 @@
         <v>56</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>58</v>
@@ -7502,10 +7511,10 @@
         <v>19</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I117" s="12">
         <v>3041</v>
@@ -7514,13 +7523,13 @@
         <v>4</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L117" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V117" s="14" t="s">
         <v>108</v>
@@ -7546,7 +7555,7 @@
         <v>57</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>58</v>
@@ -7558,7 +7567,7 @@
         <v>110</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I118" s="12">
         <v>3067</v>
@@ -7567,13 +7576,13 @@
         <v>2</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L118" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE118" s="10" t="s">
         <v>108</v>
@@ -7590,7 +7599,7 @@
         <v>57</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>58</v>
@@ -7602,7 +7611,7 @@
         <v>3762</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I119" s="12">
         <v>3041</v>
@@ -7611,13 +7620,13 @@
         <v>9</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L119" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R119" s="14" t="s">
         <v>111</v>
@@ -7631,43 +7640,43 @@
         <v>56</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I120" s="12">
         <v>3067</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L120" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N120" s="12" t="s">
         <v>116</v>
       </c>
       <c r="R120" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE120" s="13"/>
     </row>
@@ -7676,13 +7685,13 @@
         <v>56</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>58</v>
@@ -7691,10 +7700,10 @@
         <v>1</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I121" s="12">
         <v>3041</v>
@@ -7703,16 +7712,16 @@
         <v>4</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L121" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R121" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE121" s="14" t="s">
         <v>108</v>
@@ -7723,13 +7732,13 @@
         <v>56</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>58</v>
@@ -7738,10 +7747,10 @@
         <v>0</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I122" s="12">
         <v>3041</v>
@@ -7750,16 +7759,16 @@
         <v>4</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L122" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R122" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE122" s="14" t="s">
         <v>108</v>
@@ -7776,7 +7785,7 @@
         <v>57</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>58</v>
@@ -7785,10 +7794,10 @@
         <v>38</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I123" s="12">
         <v>3042</v>
@@ -7797,16 +7806,16 @@
         <v>1</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L123" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M123" s="11">
         <v>3</v>
       </c>
       <c r="W123" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X123" s="17" t="s">
         <v>108</v>
@@ -7823,7 +7832,7 @@
         <v>57</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>58</v>
@@ -7832,10 +7841,10 @@
         <v>39</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I124" s="12">
         <v>3042</v>
@@ -7844,10 +7853,10 @@
         <v>2</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M124" s="11">
         <v>3</v>
@@ -7873,7 +7882,7 @@
         <v>57</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>58</v>
@@ -7882,10 +7891,10 @@
         <v>38</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I125" s="12">
         <v>3070</v>
@@ -7894,16 +7903,16 @@
         <v>1</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L125" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W125" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X125" s="17" t="s">
         <v>108</v>
@@ -7920,7 +7929,7 @@
         <v>57</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>58</v>
@@ -7929,10 +7938,10 @@
         <v>39</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I126" s="12">
         <v>3070</v>
@@ -7941,13 +7950,13 @@
         <v>2</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L126" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W126" s="11" t="s">
         <v>108</v>
@@ -7970,7 +7979,7 @@
         <v>57</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>58</v>
@@ -7982,7 +7991,7 @@
         <v>3000</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I127" s="13">
         <v>3046</v>
@@ -7991,13 +8000,13 @@
         <v>2</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L127" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC127" s="15" t="s">
         <v>108</v>
@@ -8008,13 +8017,13 @@
         <v>56</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>58</v>
@@ -8023,10 +8032,10 @@
         <v>27</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I128" s="12">
         <v>3046</v>
@@ -8035,19 +8044,19 @@
         <v>3</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L128" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N128" s="10" t="s">
         <v>116</v>
       </c>
       <c r="Z128" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB128" s="15">
         <v>2</v>
@@ -8061,13 +8070,13 @@
         <v>56</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>58</v>
@@ -8076,10 +8085,10 @@
         <v>28</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I129" s="12">
         <v>3046</v>
@@ -8088,19 +8097,19 @@
         <v>3</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N129" s="10" t="s">
         <v>116</v>
       </c>
       <c r="Z129" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB129" s="15">
         <v>2</v>
@@ -8114,13 +8123,13 @@
         <v>56</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>58</v>
@@ -8129,10 +8138,10 @@
         <v>29</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I130" s="12">
         <v>3046</v>
@@ -8141,16 +8150,16 @@
         <v>3</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z130" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB130" s="15">
         <v>1</v>
@@ -8164,13 +8173,13 @@
         <v>56</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>58</v>
@@ -8179,10 +8188,10 @@
         <v>30</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I131" s="12">
         <v>3046</v>
@@ -8191,16 +8200,16 @@
         <v>3</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L131" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z131" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB131" s="15">
         <v>2</v>
@@ -8214,13 +8223,13 @@
         <v>56</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>58</v>
@@ -8229,10 +8238,10 @@
         <v>31</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I132" s="12">
         <v>3046</v>
@@ -8241,13 +8250,13 @@
         <v>3</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z132" s="15" t="s">
         <v>108</v>
@@ -8264,13 +8273,13 @@
         <v>56</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>58</v>
@@ -8279,10 +8288,10 @@
         <v>32</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I133" s="12">
         <v>3046</v>
@@ -8291,13 +8300,13 @@
         <v>3</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z133" s="15" t="s">
         <v>108</v>
@@ -8314,13 +8323,13 @@
         <v>56</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>58</v>
@@ -8329,10 +8338,10 @@
         <v>33</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I134" s="12">
         <v>3046</v>
@@ -8341,13 +8350,13 @@
         <v>3</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB134" s="15">
         <v>4</v>
@@ -8361,13 +8370,13 @@
         <v>56</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>58</v>
@@ -8376,10 +8385,10 @@
         <v>34</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I135" s="12">
         <v>3046</v>
@@ -8388,19 +8397,19 @@
         <v>3</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M135" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q135" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="Q135" s="14" t="s">
-        <v>155</v>
-      </c>
       <c r="Z135" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB135" s="15">
         <v>2</v>
@@ -8414,13 +8423,13 @@
         <v>56</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>58</v>
@@ -8429,10 +8438,10 @@
         <v>35</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I136" s="12">
         <v>3046</v>
@@ -8441,19 +8450,19 @@
         <v>3</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L136" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M136" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q136" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="Q136" s="14" t="s">
-        <v>155</v>
-      </c>
       <c r="Z136" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB136" s="15">
         <v>1</v>
@@ -8467,13 +8476,13 @@
         <v>56</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>58</v>
@@ -8482,10 +8491,10 @@
         <v>36</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I137" s="12">
         <v>3046</v>
@@ -8494,13 +8503,13 @@
         <v>3</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V137" s="15" t="s">
         <v>108</v>
@@ -8517,13 +8526,13 @@
         <v>56</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>58</v>
@@ -8532,10 +8541,10 @@
         <v>37</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I138" s="13">
         <v>3046</v>
@@ -8544,13 +8553,13 @@
         <v>3</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L138" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
@@ -8588,7 +8597,7 @@
         <v>57</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>58</v>
@@ -8597,19 +8606,19 @@
         <v>40</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I139" s="12">
         <v>3071</v>
       </c>
       <c r="K139" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L139" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M139" s="10">
         <v>32</v>
@@ -8629,7 +8638,7 @@
         <v>57</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>58</v>
@@ -8641,7 +8650,7 @@
         <v>110</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I140" s="12">
         <v>3091</v>
@@ -8650,13 +8659,13 @@
         <v>2</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L140" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AE140" s="15" t="s">
         <v>108</v>
@@ -8667,13 +8676,13 @@
         <v>56</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>58</v>
@@ -8682,10 +8691,10 @@
         <v>43</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I141" s="12">
         <v>3091</v>
@@ -8694,10 +8703,10 @@
         <v>3</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE141" s="15" t="s">
         <v>108</v>
@@ -8708,13 +8717,13 @@
         <v>56</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>58</v>
@@ -8723,10 +8732,10 @@
         <v>44</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I142" s="12">
         <v>3091</v>
@@ -8735,10 +8744,10 @@
         <v>3</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE142" s="15" t="s">
         <v>108</v>
@@ -8749,25 +8758,25 @@
         <v>56</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I143" s="12">
         <v>3091</v>
@@ -8776,10 +8785,10 @@
         <v>3</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L143" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE143" s="15" t="s">
         <v>108</v>
@@ -8790,13 +8799,13 @@
         <v>56</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>58</v>
@@ -8805,10 +8814,10 @@
         <v>45</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I144" s="12">
         <v>3091</v>
@@ -8817,10 +8826,10 @@
         <v>3</v>
       </c>
       <c r="K144" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE144" s="15" t="s">
         <v>108</v>
@@ -8831,25 +8840,25 @@
         <v>56</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D145" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F145" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="G145" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I145" s="12">
         <v>3091</v>
@@ -8858,10 +8867,10 @@
         <v>4</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE145" s="15" t="s">
         <v>108</v>
@@ -8872,25 +8881,25 @@
         <v>56</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D146" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F146" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E146" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="G146" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I146" s="12">
         <v>3091</v>
@@ -8899,10 +8908,10 @@
         <v>4</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE146" s="15" t="s">
         <v>108</v>
@@ -8913,13 +8922,13 @@
         <v>56</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>58</v>
@@ -8928,10 +8937,10 @@
         <v>46</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I147" s="12">
         <v>3091</v>
@@ -8940,10 +8949,10 @@
         <v>4</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE147" s="15" t="s">
         <v>108</v>
@@ -8954,13 +8963,13 @@
         <v>56</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>58</v>
@@ -8969,10 +8978,10 @@
         <v>47</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I148" s="12">
         <v>3091</v>
@@ -8981,10 +8990,10 @@
         <v>4</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L148" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE148" s="15" t="s">
         <v>108</v>
@@ -8995,25 +9004,25 @@
         <v>56</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I149" s="12">
         <v>3091</v>
@@ -9022,10 +9031,10 @@
         <v>4</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L149" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE149" s="15" t="s">
         <v>108</v>
@@ -9036,13 +9045,13 @@
         <v>56</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>58</v>
@@ -9051,10 +9060,10 @@
         <v>48</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I150" s="12">
         <v>3091</v>
@@ -9063,10 +9072,10 @@
         <v>4</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE150" s="15" t="s">
         <v>108</v>
@@ -9077,13 +9086,13 @@
         <v>56</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>58</v>
@@ -9092,19 +9101,19 @@
         <v>49</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I151" s="12">
         <v>3097</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L151" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9112,13 +9121,13 @@
         <v>56</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>58</v>
@@ -9127,10 +9136,10 @@
         <v>51</v>
       </c>
       <c r="G152" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H152" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="H152" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="I152" s="12">
         <v>3097</v>
@@ -9139,10 +9148,10 @@
         <v>2</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9150,13 +9159,13 @@
         <v>56</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>58</v>
@@ -9165,10 +9174,10 @@
         <v>52</v>
       </c>
       <c r="G153" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H153" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="H153" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="I153" s="12">
         <v>3097</v>
@@ -9177,10 +9186,10 @@
         <v>2</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9188,13 +9197,13 @@
         <v>56</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>58</v>
@@ -9203,10 +9212,10 @@
         <v>53</v>
       </c>
       <c r="G154" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H154" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="H154" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="I154" s="12">
         <v>3097</v>
@@ -9215,10 +9224,10 @@
         <v>2</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9226,13 +9235,13 @@
         <v>56</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>58</v>
@@ -9241,10 +9250,10 @@
         <v>54</v>
       </c>
       <c r="G155" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H155" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="I155" s="12">
         <v>3097</v>
@@ -9253,10 +9262,10 @@
         <v>2</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9264,13 +9273,13 @@
         <v>56</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>58</v>
@@ -9279,10 +9288,10 @@
         <v>55</v>
       </c>
       <c r="G156" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H156" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="H156" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="I156" s="12">
         <v>3097</v>
@@ -9291,10 +9300,10 @@
         <v>2</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9302,25 +9311,25 @@
         <v>56</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G157" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H157" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="H157" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="I157" s="12">
         <v>3097</v>
@@ -9329,10 +9338,10 @@
         <v>2</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -9340,13 +9349,13 @@
         <v>56</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>58</v>
@@ -9355,19 +9364,19 @@
         <v>50</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I158" s="12">
         <v>3097</v>
       </c>
       <c r="K158" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9381,7 +9390,7 @@
         <v>57</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>58</v>
@@ -9393,7 +9402,7 @@
         <v>110</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I159" s="12">
         <v>3099</v>
@@ -9402,10 +9411,10 @@
         <v>2</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE159" s="15" t="s">
         <v>108</v>
@@ -9416,13 +9425,13 @@
         <v>56</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>58</v>
@@ -9431,22 +9440,22 @@
         <v>43</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I160" s="12">
         <v>3099</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE160" s="15" t="s">
         <v>108</v>
@@ -9457,13 +9466,13 @@
         <v>56</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>58</v>
@@ -9472,22 +9481,22 @@
         <v>44</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I161" s="12">
         <v>3099</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M161" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE161" s="15" t="s">
         <v>108</v>
@@ -9498,25 +9507,25 @@
         <v>56</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D162" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F162" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E162" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="G162" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I162" s="12">
         <v>3099</v>
@@ -9525,13 +9534,13 @@
         <v>2</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M162" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE162" s="15" t="s">
         <v>108</v>
@@ -9542,25 +9551,25 @@
         <v>56</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D163" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F163" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E163" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="G163" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I163" s="12">
         <v>3099</v>
@@ -9569,13 +9578,13 @@
         <v>2</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L163" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M163" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE163" s="15" t="s">
         <v>108</v>
@@ -9592,7 +9601,7 @@
         <v>57</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>58</v>
@@ -9604,7 +9613,7 @@
         <v>110</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I164" s="12">
         <v>3101</v>
@@ -9613,13 +9622,13 @@
         <v>2</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L164" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE164" s="15" t="s">
         <v>108</v>
@@ -9630,13 +9639,13 @@
         <v>56</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>58</v>
@@ -9645,23 +9654,23 @@
         <v>43</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I165" s="12">
         <v>3101</v>
       </c>
       <c r="J165" s="12"/>
       <c r="K165" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L165" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
@@ -9689,13 +9698,13 @@
         <v>56</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>58</v>
@@ -9704,23 +9713,23 @@
         <v>44</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I166" s="12">
         <v>3101</v>
       </c>
       <c r="J166" s="12"/>
       <c r="K166" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N166" s="12"/>
       <c r="O166" s="12"/>
@@ -9748,25 +9757,25 @@
         <v>56</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D167" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E167" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="G167" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I167" s="12">
         <v>3101</v>
@@ -9775,13 +9784,13 @@
         <v>3</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L167" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE167" s="15" t="s">
         <v>108</v>
@@ -9792,25 +9801,25 @@
         <v>56</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D168" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F168" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E168" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="G168" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I168" s="12">
         <v>3101</v>
@@ -9819,13 +9828,13 @@
         <v>3</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L168" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M168" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE168" s="15" t="s">
         <v>108</v>
@@ -9842,7 +9851,7 @@
         <v>57</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>58</v>
@@ -9854,7 +9863,7 @@
         <v>3762</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I169" s="12">
         <v>3067</v>
@@ -9863,13 +9872,13 @@
         <v>5</v>
       </c>
       <c r="K169" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L169" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M169" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R169" s="10" t="s">
         <v>111</v>
@@ -9883,13 +9892,13 @@
         <v>56</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>58</v>
@@ -9898,10 +9907,10 @@
         <v>1</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I170" s="12">
         <v>3067</v>
@@ -9910,16 +9919,16 @@
         <v>1</v>
       </c>
       <c r="K170" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L170" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M170" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="R170" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="R170" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="AE170" s="10" t="s">
         <v>108</v>
@@ -9930,13 +9939,13 @@
         <v>56</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>58</v>
@@ -9945,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I171" s="12">
         <v>3067</v>
@@ -9957,16 +9966,16 @@
         <v>1</v>
       </c>
       <c r="K171" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L171" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M171" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R171" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE171" s="10" t="s">
         <v>108</v>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="15" windowWidth="23415" windowHeight="9960" tabRatio="165"/>
+    <workbookView xWindow="6540" yWindow="15" windowWidth="13950" windowHeight="7725" tabRatio="369"/>
   </bookViews>
   <sheets>
     <sheet name="toSOS_S_TEKSTOW" sheetId="1" r:id="rId1"/>
+    <sheet name="decyzje" sheetId="2" r:id="rId2"/>
+    <sheet name="parametry" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toSOS_S_TEKSTOW!$A$1:$AE$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toSOS_S_TEKSTOW!$A$1:$AE$175</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="513">
   <si>
     <t>Po ponownym ustaleniu wysokość &lt;NAZWASWIADCZENIAGL&gt; wynosi: 
 &lt;KWOTAKAPITALUPOCZATKOWEGOKOR&gt;/&lt;SREDNIEDALSZETRWANIEZYCIA&gt; = &lt;KWOTAEMERYTURYKOR&gt; zł.</t>
@@ -224,9 +226,6 @@
     <t>STW_ID_TEKST</t>
   </si>
   <si>
-    <t xml:space="preserve">STW_ID_JEDN_ZUS, STW_ID_ZNACZNIKA, </t>
-  </si>
-  <si>
     <t>STW_TEKST</t>
   </si>
   <si>
@@ -1200,9 +1199,6 @@
     <t>267</t>
   </si>
   <si>
-    <t>268</t>
-  </si>
-  <si>
     <t>269</t>
   </si>
   <si>
@@ -1497,14 +1493,113 @@
     <t>99</t>
   </si>
   <si>
-    <t>end</t>
+    <t>STA_KOD_PISMA</t>
+  </si>
+  <si>
+    <t>DEC B 1</t>
+  </si>
+  <si>
+    <t>DEC C 1</t>
+  </si>
+  <si>
+    <t>T8_55</t>
+  </si>
+  <si>
+    <t>T8_56</t>
+  </si>
+  <si>
+    <t>T8_23</t>
+  </si>
+  <si>
+    <t>T8_24</t>
+  </si>
+  <si>
+    <t>T8_25</t>
+  </si>
+  <si>
+    <t>TWT_ID_SEKCJI</t>
+  </si>
+  <si>
+    <t>TWT_ID_TEKST_PISMA</t>
+  </si>
+  <si>
+    <t>(320, 'Średnia długość trwania życia - źródło',               'E2','TPR_SDZ');</t>
+  </si>
+  <si>
+    <t>(321, 'Prawo do obliczenia z wykorzystaniem KSDTZ',           'E2','TPR_PRAWO_KSDTZ');</t>
+  </si>
+  <si>
+    <t>(322, 'Uwzględnienie daty odmowy ENK przy wyznaczeniu KSDTZ', 'E2','TPR_UWZGL_ODM_ENK');</t>
+  </si>
+  <si>
+    <t>(323, 'Ponowne obliczenie według Art.174 2a i Art. 185 a',    'E2','TPR_KOREK_UST_5MRC');</t>
+  </si>
+  <si>
+    <t>(324, 'Data osiągnięcia wieku emerytalnego przed 2009',       'E2','TPR_OWE_PRZE_ART55');</t>
+  </si>
+  <si>
+    <t>(325, 'Sprecyzowany wniosek o 110a',                          'E2','TPR_110A_WN_SPREC');</t>
+  </si>
+  <si>
+    <t>(326, 'Przeliczenie według 110a',                             'E2','TPR_110A_PRZELICZ');</t>
+  </si>
+  <si>
+    <t>(327, 'Prawo do przeliczenia 110/110a ',                      'E2','TPR_110A_PRAWO');</t>
+  </si>
+  <si>
+    <t>(328, 'SDTZ po spełnieniu wszystkich warunków',               'E2','TPR_SDTZ_SP_WAR');</t>
+  </si>
+  <si>
+    <t>(329, 'Kwota wcześniejszej emerytury wyższa niż bieżąca',     'E2','TPR_KW_POP_WIEKSZ');</t>
+  </si>
+  <si>
+    <t>TPR_KOREK_UST_5MRC</t>
+  </si>
+  <si>
+    <t>PRT_WIELE_PARAM</t>
+  </si>
+  <si>
+    <t>PRT_RODZAJ</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>TWT_ID_TEKST</t>
+  </si>
+  <si>
+    <t>T2c_137</t>
+  </si>
+  <si>
+    <t>48010</t>
+  </si>
+  <si>
+    <t>13142</t>
+  </si>
+  <si>
+    <t>T2b_44</t>
+  </si>
+  <si>
+    <t>3576</t>
+  </si>
+  <si>
+    <t>48062</t>
+  </si>
+  <si>
+    <t>T2b_2</t>
+  </si>
+  <si>
+    <t>3534</t>
+  </si>
+  <si>
+    <t>48057</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1543,6 +1638,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1565,7 +1667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1626,6 +1728,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1932,28 +2037,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE174"/>
+  <dimension ref="A1:AE176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G175" sqref="G175"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="0.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23" style="3" customWidth="1"/>
-    <col min="5" max="5" width="0.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="12" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="12" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="12" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="24" style="12" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="12" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" style="12" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" style="12" customWidth="1"/>
     <col min="16" max="16" width="2.85546875" style="12" customWidth="1"/>
@@ -1974,32 +2079,34 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="M1" s="2">
         <v>1</v>
@@ -2061,23 +2168,23 @@
     </row>
     <row r="2" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="12">
         <v>3001</v>
@@ -2086,41 +2193,41 @@
         <v>2</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S2" s="13"/>
       <c r="AE2" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="12">
         <v>3072</v>
@@ -2129,76 +2236,76 @@
         <v>4</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="12">
         <v>3001</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="12">
         <v>3001</v>
@@ -2207,47 +2314,47 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="12">
         <v>700</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="13">
         <v>3001</v>
@@ -2256,13 +2363,13 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -2273,7 +2380,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
@@ -2284,63 +2391,63 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE6" s="13"/>
     </row>
     <row r="7" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="I7" s="12">
         <v>3001</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S7" s="13"/>
       <c r="AE7" s="13"/>
     </row>
     <row r="8" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
@@ -2350,36 +2457,36 @@
         <v>3017</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="12">
         <v>3072</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
@@ -2389,46 +2496,46 @@
         <v>3017</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="12">
         <v>3072</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE9" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="12">
         <v>3001</v>
@@ -2437,49 +2544,49 @@
         <v>7</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB10" s="12">
         <v>1</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="12">
         <v>3001</v>
@@ -2488,54 +2595,54 @@
         <v>7</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10">
         <v>2</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="12">
         <v>3001</v>
@@ -2544,44 +2651,44 @@
         <v>7</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="11">
         <v>2</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="12">
         <v>3001</v>
@@ -2590,51 +2697,51 @@
         <v>7</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10">
         <v>1</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="12">
         <v>3001</v>
@@ -2643,54 +2750,54 @@
         <v>7</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="11">
         <v>700</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10">
         <v>2</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="12">
         <v>3001</v>
@@ -2699,54 +2806,54 @@
         <v>7</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="12">
         <v>700</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10">
         <v>1</v>
       </c>
       <c r="AC15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="12">
         <v>3001</v>
@@ -2755,44 +2862,44 @@
         <v>7</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10">
         <v>2</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="12">
         <v>3001</v>
@@ -2801,44 +2908,44 @@
         <v>7</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10">
         <v>1</v>
       </c>
       <c r="AC17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" s="12">
         <v>3001</v>
@@ -2847,40 +2954,40 @@
         <v>7</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB18" s="10">
         <v>4</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" s="12">
         <v>3001</v>
@@ -2889,16 +2996,16 @@
         <v>7</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
@@ -2907,28 +3014,28 @@
         <v>2</v>
       </c>
       <c r="AC19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="12">
         <v>3001</v>
@@ -2937,16 +3044,16 @@
         <v>7</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
@@ -2955,47 +3062,47 @@
         <v>1</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="13">
         <v>3001</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="13">
         <v>700</v>
@@ -3003,7 +3110,7 @@
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
@@ -3019,42 +3126,42 @@
     </row>
     <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="12">
         <v>3001</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="12">
         <v>700</v>
@@ -3062,7 +3169,7 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
@@ -3078,68 +3185,68 @@
     </row>
     <row r="23" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="12">
         <v>3001</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="12">
         <v>700</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="12">
         <v>3049</v>
@@ -3148,28 +3255,28 @@
         <v>2</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE24" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
@@ -3179,27 +3286,27 @@
         <v>3762</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I25" s="13">
         <v>3001</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
@@ -3214,68 +3321,68 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="12">
         <v>3049</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="R26" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="AE26" s="13"/>
     </row>
     <row r="27" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" s="12">
         <v>3001</v>
@@ -3284,41 +3391,41 @@
         <v>7</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S27" s="10"/>
       <c r="AE27" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="12">
         <v>3001</v>
@@ -3327,41 +3434,41 @@
         <v>7</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S28" s="10"/>
       <c r="AE28" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="12">
         <v>3068</v>
@@ -3370,27 +3477,27 @@
         <v>2</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE29" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="4" t="s">
@@ -3400,27 +3507,27 @@
         <v>3762</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" s="13">
         <v>3049</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S30" s="11"/>
       <c r="T30" s="13"/>
@@ -3435,148 +3542,148 @@
       <c r="AC30" s="13"/>
       <c r="AD30" s="13"/>
       <c r="AE30" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31" s="12">
         <v>3068</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE31" s="13"/>
     </row>
     <row r="32" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32" s="12">
         <v>3049</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S32" s="10"/>
       <c r="AE32" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33" s="12">
         <v>3049</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R33" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="S33" s="10"/>
       <c r="AE33" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I34" s="12">
         <v>3003</v>
@@ -3585,30 +3692,30 @@
         <v>2</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC34" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE34" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
@@ -3618,166 +3725,166 @@
         <v>3762</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I35" s="12">
         <v>3068</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R35" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S35" s="14"/>
       <c r="AE35" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I36" s="12">
         <v>3003</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE36" s="13"/>
     </row>
     <row r="37" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I37" s="12">
         <v>3068</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R37" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S37" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE37" s="10"/>
     </row>
     <row r="38" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I38" s="12">
         <v>3068</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R38" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I39" s="12">
         <v>3003</v>
@@ -3786,46 +3893,46 @@
         <v>3</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB39" s="14">
         <v>1</v>
       </c>
       <c r="AC39" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I40" s="12">
         <v>3003</v>
@@ -3834,46 +3941,46 @@
         <v>3</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U40" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB40" s="14">
         <v>2</v>
       </c>
       <c r="AC40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I41" s="12">
         <v>3003</v>
@@ -3882,47 +3989,47 @@
         <v>3</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U41" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z41" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB41" s="14">
         <v>2</v>
       </c>
       <c r="AC41" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I42" s="12">
         <v>3003</v>
@@ -3931,13 +4038,13 @@
         <v>3</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
@@ -3947,44 +4054,44 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA42" s="12"/>
       <c r="AB42" s="14">
         <v>1</v>
       </c>
       <c r="AC42" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
     </row>
     <row r="43" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I43" s="12">
         <v>3003</v>
@@ -3993,49 +4100,49 @@
         <v>3</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q43" s="10">
         <v>700</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z43" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB43" s="14">
         <v>2</v>
       </c>
       <c r="AC43" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I44" s="12">
         <v>3003</v>
@@ -4044,49 +4151,49 @@
         <v>3</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q44" s="10">
         <v>700</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z44" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB44" s="14">
         <v>1</v>
       </c>
       <c r="AC44" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I45" s="12">
         <v>3003</v>
@@ -4095,43 +4202,43 @@
         <v>3</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z45" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB45" s="14">
         <v>2</v>
       </c>
       <c r="AC45" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I46" s="12">
         <v>3003</v>
@@ -4140,43 +4247,43 @@
         <v>3</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z46" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB46" s="14">
         <v>1</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I47" s="12">
         <v>3003</v>
@@ -4185,40 +4292,40 @@
         <v>3</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB47" s="14">
         <v>4</v>
       </c>
       <c r="AC47" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I48" s="12">
         <v>3003</v>
@@ -4227,16 +4334,16 @@
         <v>3</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V48" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
@@ -4245,28 +4352,28 @@
         <v>2</v>
       </c>
       <c r="AC48" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I49" s="12">
         <v>3003</v>
@@ -4275,16 +4382,16 @@
         <v>3</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V49" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W49" s="14"/>
       <c r="X49" s="14"/>
@@ -4293,28 +4400,28 @@
         <v>1</v>
       </c>
       <c r="AC49" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I50" s="12">
         <v>3056</v>
@@ -4323,27 +4430,27 @@
         <v>2</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE50" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
@@ -4353,7 +4460,7 @@
         <v>3762</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I51" s="12">
         <v>3003</v>
@@ -4362,80 +4469,80 @@
         <v>1</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R51" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE51" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I52" s="12">
         <v>3056</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R52" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE52" s="13"/>
     </row>
     <row r="53" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I53" s="12">
         <v>3003</v>
@@ -4444,40 +4551,40 @@
         <v>3</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R53" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE53" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I54" s="12">
         <v>3003</v>
@@ -4486,40 +4593,40 @@
         <v>3</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE54" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I55" s="12">
         <v>3033</v>
@@ -4528,40 +4635,40 @@
         <v>1</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W55" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X55" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I56" s="12">
         <v>3033</v>
@@ -4570,19 +4677,19 @@
         <v>2</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W56" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X56" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y56" s="15">
         <v>3</v>
@@ -4590,23 +4697,23 @@
     </row>
     <row r="57" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I57" s="12">
         <v>3058</v>
@@ -4615,205 +4722,205 @@
         <v>2</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC57" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I58" s="12">
         <v>3058</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U58" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB58" s="14">
         <v>1</v>
       </c>
       <c r="AC58" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I59" s="12">
         <v>3058</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB59" s="14">
         <v>2</v>
       </c>
       <c r="AC59" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I60" s="12">
         <v>3058</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U60" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB60" s="14">
         <v>2</v>
       </c>
       <c r="AC60" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I61" s="12">
         <v>3058</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U61" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB61" s="10">
         <v>1</v>
       </c>
       <c r="AC61" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="16" t="s">
         <v>38</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I62" s="12">
         <v>3047</v>
@@ -4822,40 +4929,40 @@
         <v>1</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M62" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W62" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X62" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="16" t="s">
         <v>39</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I63" s="12">
         <v>3047</v>
@@ -4864,19 +4971,19 @@
         <v>2</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M63" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W63" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X63" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y63" s="17">
         <v>3</v>
@@ -4884,23 +4991,23 @@
     </row>
     <row r="64" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I64" s="12">
         <v>3072</v>
@@ -4909,68 +5016,68 @@
         <v>2</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE64" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I65" s="12">
         <v>3072</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R65" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE65" s="13"/>
     </row>
     <row r="66" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="12">
         <v>3023</v>
@@ -4979,30 +5086,30 @@
         <v>2</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M66" s="14">
         <v>18</v>
       </c>
       <c r="AC66" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE66" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="6" t="s">
@@ -5012,118 +5119,118 @@
         <v>3762</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="12">
         <v>3023</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M67" s="10">
         <v>18</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE67" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="12">
         <v>3023</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M68" s="10">
         <v>18</v>
       </c>
       <c r="AE68" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="12">
         <v>3023</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M69" s="10">
         <v>18</v>
       </c>
       <c r="AE69" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="12">
         <v>3023</v>
@@ -5132,40 +5239,40 @@
         <v>7</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R70" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE70" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="12">
         <v>3023</v>
@@ -5174,40 +5281,40 @@
         <v>7</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R71" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE71" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="12">
         <v>3023</v>
@@ -5216,43 +5323,43 @@
         <v>8</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB72" s="11">
         <v>2</v>
       </c>
       <c r="AC72" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="12">
         <v>3023</v>
@@ -5261,40 +5368,40 @@
         <v>8</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC73" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I74" s="12">
         <v>3023</v>
@@ -5303,40 +5410,40 @@
         <v>8</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R74" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I75" s="12">
         <v>3023</v>
@@ -5345,40 +5452,40 @@
         <v>8</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M75" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="R75" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R75" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="T75" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I76" s="12">
         <v>3023</v>
@@ -5387,40 +5494,40 @@
         <v>8</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R76" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I77" s="12">
         <v>3023</v>
@@ -5429,43 +5536,43 @@
         <v>8</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z77" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB77" s="11">
         <v>1</v>
       </c>
       <c r="AC77" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="12">
         <v>3023</v>
@@ -5474,43 +5581,43 @@
         <v>8</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z78" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB78" s="11">
         <v>2</v>
       </c>
       <c r="AC78" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="12">
         <v>3023</v>
@@ -5519,43 +5626,43 @@
         <v>8</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z79" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB79" s="11">
         <v>2</v>
       </c>
       <c r="AC79" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I80" s="12">
         <v>3023</v>
@@ -5564,43 +5671,43 @@
         <v>8</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z80" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB80" s="11">
         <v>1</v>
       </c>
       <c r="AC80" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I81" s="12">
         <v>3023</v>
@@ -5609,40 +5716,40 @@
         <v>8</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB81" s="11">
         <v>4</v>
       </c>
       <c r="AC81" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="12">
         <v>3023</v>
@@ -5651,46 +5758,46 @@
         <v>8</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q82" s="11">
         <v>700</v>
       </c>
       <c r="Z82" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB82" s="11">
         <v>2</v>
       </c>
       <c r="AC82" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="12">
         <v>3023</v>
@@ -5699,46 +5806,46 @@
         <v>8</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q83" s="11">
         <v>700</v>
       </c>
       <c r="Z83" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB83" s="11">
         <v>1</v>
       </c>
       <c r="AC83" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="12">
         <v>3023</v>
@@ -5747,16 +5854,16 @@
         <v>8</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V84" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W84" s="11"/>
       <c r="X84" s="11"/>
@@ -5765,28 +5872,28 @@
         <v>2</v>
       </c>
       <c r="AC84" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="12">
         <v>3023</v>
@@ -5795,16 +5902,16 @@
         <v>8</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V85" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W85" s="11"/>
       <c r="X85" s="11"/>
@@ -5813,163 +5920,163 @@
         <v>1</v>
       </c>
       <c r="AC85" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I86" s="12">
         <v>3023</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P86" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R86" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T86" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I87" s="12">
         <v>3023</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O87" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P87" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R87" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I88" s="12">
         <v>3023</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O88" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P88" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R88" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I89" s="12">
         <v>3042</v>
@@ -5978,37 +6085,37 @@
         <v>2</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC89" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I90" s="12">
         <v>3042</v>
@@ -6017,46 +6124,46 @@
         <v>3</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z90" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB90" s="15">
         <v>2</v>
       </c>
       <c r="AC90" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I91" s="12">
         <v>3042</v>
@@ -6065,46 +6172,46 @@
         <v>3</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z91" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB91" s="15">
         <v>2</v>
       </c>
       <c r="AC91" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I92" s="12">
         <v>3042</v>
@@ -6113,43 +6220,43 @@
         <v>3</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z92" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB92" s="15">
         <v>1</v>
       </c>
       <c r="AC92" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I93" s="12">
         <v>3042</v>
@@ -6158,43 +6265,43 @@
         <v>3</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z93" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB93" s="15">
         <v>2</v>
       </c>
       <c r="AC93" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I94" s="12">
         <v>3042</v>
@@ -6203,43 +6310,43 @@
         <v>3</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z94" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB94" s="15">
         <v>2</v>
       </c>
       <c r="AC94" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I95" s="12">
         <v>3042</v>
@@ -6248,43 +6355,43 @@
         <v>3</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z95" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB95" s="15">
         <v>1</v>
       </c>
       <c r="AC95" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I96" s="12">
         <v>3042</v>
@@ -6293,40 +6400,40 @@
         <v>3</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB96" s="15">
         <v>4</v>
       </c>
       <c r="AC96" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I97" s="12">
         <v>3042</v>
@@ -6335,46 +6442,46 @@
         <v>3</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M97" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q97" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="Q97" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="Z97" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB97" s="15">
         <v>2</v>
       </c>
       <c r="AC97" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I98" s="12">
         <v>3042</v>
@@ -6383,46 +6490,46 @@
         <v>3</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M98" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q98" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="Q98" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="Z98" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB98" s="15">
         <v>1</v>
       </c>
       <c r="AC98" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I99" s="12">
         <v>3042</v>
@@ -6431,43 +6538,43 @@
         <v>3</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V99" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB99" s="15">
         <v>2</v>
       </c>
       <c r="AC99" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I100" s="12">
         <v>3042</v>
@@ -6476,79 +6583,79 @@
         <v>3</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V100" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB100" s="15">
         <v>1</v>
       </c>
       <c r="AC100" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I101" s="12">
         <v>3048</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M101" s="14">
         <v>32</v>
       </c>
       <c r="X101" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I102" s="12">
         <v>3041</v>
@@ -6557,27 +6664,27 @@
         <v>2</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE102" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="6" t="s">
@@ -6587,86 +6694,86 @@
         <v>3762</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I103" s="12">
         <v>3056</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R103" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE103" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I104" s="12">
         <v>3041</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R104" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE104" s="13"/>
     </row>
     <row r="105" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I105" s="12">
         <v>3056</v>
@@ -6675,40 +6782,40 @@
         <v>1</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M105" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="R105" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="R105" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="AE105" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I106" s="12">
         <v>3056</v>
@@ -6717,40 +6824,40 @@
         <v>1</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R106" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE106" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I107" s="12">
         <v>3041</v>
@@ -6759,46 +6866,46 @@
         <v>4</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U107" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z107" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB107" s="14">
         <v>1</v>
       </c>
       <c r="AC107" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I108" s="12">
         <v>3041</v>
@@ -6807,46 +6914,46 @@
         <v>4</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U108" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z108" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB108" s="14">
         <v>2</v>
       </c>
       <c r="AC108" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I109" s="12">
         <v>3041</v>
@@ -6855,46 +6962,46 @@
         <v>4</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U109" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z109" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB109" s="14">
         <v>2</v>
       </c>
       <c r="AC109" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I110" s="12">
         <v>3041</v>
@@ -6903,46 +7010,46 @@
         <v>4</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U110" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z110" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB110" s="14">
         <v>1</v>
       </c>
       <c r="AC110" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I111" s="12">
         <v>3041</v>
@@ -6951,49 +7058,49 @@
         <v>4</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q111" s="11">
         <v>700</v>
       </c>
       <c r="U111" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z111" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB111" s="14">
         <v>2</v>
       </c>
       <c r="AC111" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I112" s="12">
         <v>3041</v>
@@ -7002,49 +7109,49 @@
         <v>4</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q112" s="11">
         <v>700</v>
       </c>
       <c r="U112" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z112" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB112" s="14">
         <v>1</v>
       </c>
       <c r="AC112" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I113" s="12">
         <v>3041</v>
@@ -7053,43 +7160,43 @@
         <v>4</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z113" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB113" s="14">
         <v>2</v>
       </c>
       <c r="AC113" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I114" s="12">
         <v>3041</v>
@@ -7098,43 +7205,43 @@
         <v>4</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L114" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z114" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB114" s="14">
         <v>1</v>
       </c>
       <c r="AC114" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I115" s="12">
         <v>3041</v>
@@ -7143,40 +7250,40 @@
         <v>4</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L115" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB115" s="14">
         <v>4</v>
       </c>
       <c r="AC115" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I116" s="12">
         <v>3041</v>
@@ -7185,16 +7292,16 @@
         <v>4</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L116" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V116" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W116" s="14"/>
       <c r="X116" s="14"/>
@@ -7203,28 +7310,28 @@
         <v>2</v>
       </c>
       <c r="AC116" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I117" s="12">
         <v>3041</v>
@@ -7233,16 +7340,16 @@
         <v>4</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L117" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V117" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W117" s="14"/>
       <c r="X117" s="14"/>
@@ -7251,28 +7358,28 @@
         <v>1</v>
       </c>
       <c r="AC117" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I118" s="12">
         <v>3067</v>
@@ -7281,27 +7388,27 @@
         <v>2</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L118" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE118" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="6" t="s">
@@ -7311,7 +7418,7 @@
         <v>3762</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I119" s="12">
         <v>3041</v>
@@ -7320,80 +7427,80 @@
         <v>9</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L119" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R119" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE119" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I120" s="12">
         <v>3067</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L120" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N120" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R120" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE120" s="13"/>
     </row>
-    <row r="121" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I121" s="12">
         <v>3041</v>
@@ -7402,40 +7509,40 @@
         <v>4</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L121" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R121" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE121" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I122" s="12">
         <v>3041</v>
@@ -7444,40 +7551,40 @@
         <v>4</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L122" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R122" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE122" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="16" t="s">
         <v>38</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I123" s="12">
         <v>3042</v>
@@ -7486,40 +7593,40 @@
         <v>1</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L123" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M123" s="11">
         <v>3</v>
       </c>
       <c r="W123" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X123" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="16" t="s">
         <v>39</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I124" s="12">
         <v>3042</v>
@@ -7528,19 +7635,19 @@
         <v>2</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M124" s="11">
         <v>3</v>
       </c>
       <c r="W124" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X124" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y124" s="17">
         <v>3</v>
@@ -7548,23 +7655,23 @@
     </row>
     <row r="125" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I125" s="12">
         <v>3070</v>
@@ -7573,40 +7680,40 @@
         <v>1</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L125" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W125" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X125" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I126" s="12">
         <v>3070</v>
@@ -7615,19 +7722,19 @@
         <v>2</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L126" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W126" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X126" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y126" s="11">
         <v>3</v>
@@ -7635,13 +7742,13 @@
     </row>
     <row r="127" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="6" t="s">
@@ -7651,7 +7758,7 @@
         <v>3000</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I127" s="13">
         <v>3046</v>
@@ -7660,37 +7767,37 @@
         <v>2</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L127" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC127" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I128" s="12">
         <v>3046</v>
@@ -7699,46 +7806,46 @@
         <v>3</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L128" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N128" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z128" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB128" s="15">
         <v>2</v>
       </c>
       <c r="AC128" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I129" s="12">
         <v>3046</v>
@@ -7747,46 +7854,46 @@
         <v>3</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z129" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB129" s="15">
         <v>2</v>
       </c>
       <c r="AC129" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I130" s="12">
         <v>3046</v>
@@ -7795,43 +7902,43 @@
         <v>3</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z130" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB130" s="15">
         <v>1</v>
       </c>
       <c r="AC130" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I131" s="12">
         <v>3046</v>
@@ -7840,43 +7947,43 @@
         <v>3</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L131" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z131" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB131" s="15">
         <v>2</v>
       </c>
       <c r="AC131" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I132" s="12">
         <v>3046</v>
@@ -7885,43 +7992,43 @@
         <v>3</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z132" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB132" s="15">
         <v>2</v>
       </c>
       <c r="AC132" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I133" s="12">
         <v>3046</v>
@@ -7930,43 +8037,43 @@
         <v>3</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z133" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB133" s="15">
         <v>1</v>
       </c>
       <c r="AC133" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I134" s="12">
         <v>3046</v>
@@ -7975,40 +8082,40 @@
         <v>3</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB134" s="15">
         <v>4</v>
       </c>
       <c r="AC134" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I135" s="12">
         <v>3046</v>
@@ -8017,46 +8124,46 @@
         <v>3</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M135" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q135" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="Q135" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="Z135" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB135" s="15">
         <v>2</v>
       </c>
       <c r="AC135" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I136" s="12">
         <v>3046</v>
@@ -8065,46 +8172,46 @@
         <v>3</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L136" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M136" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q136" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="Q136" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="Z136" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB136" s="15">
         <v>1</v>
       </c>
       <c r="AC136" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I137" s="12">
         <v>3046</v>
@@ -8113,44 +8220,44 @@
         <v>3</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V137" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB137" s="15">
         <v>2</v>
       </c>
       <c r="AC137" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I138" s="13">
         <v>3046</v>
@@ -8159,13 +8266,13 @@
         <v>3</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L138" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
@@ -8176,7 +8283,7 @@
       <c r="T138" s="13"/>
       <c r="U138" s="13"/>
       <c r="V138" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W138" s="13"/>
       <c r="X138" s="13"/>
@@ -8187,66 +8294,66 @@
         <v>1</v>
       </c>
       <c r="AC138" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD138" s="13"/>
       <c r="AE138" s="13"/>
     </row>
     <row r="139" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I139" s="12">
         <v>3071</v>
       </c>
       <c r="K139" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L139" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M139" s="10">
         <v>32</v>
       </c>
       <c r="X139" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I140" s="12">
         <v>3091</v>
@@ -8255,37 +8362,37 @@
         <v>2</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L140" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE140" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:31" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I141" s="12">
         <v>3091</v>
@@ -8294,34 +8401,34 @@
         <v>3</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE141" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I142" s="12">
         <v>3091</v>
@@ -8330,34 +8437,34 @@
         <v>3</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE142" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I143" s="12">
         <v>3091</v>
@@ -8366,34 +8473,34 @@
         <v>3</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L143" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE143" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I144" s="12">
         <v>3091</v>
@@ -8402,34 +8509,34 @@
         <v>3</v>
       </c>
       <c r="K144" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE144" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I145" s="12">
         <v>3091</v>
@@ -8438,34 +8545,34 @@
         <v>4</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE145" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="146" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I146" s="12">
         <v>3091</v>
@@ -8474,34 +8581,34 @@
         <v>4</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE146" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="147" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I147" s="12">
         <v>3091</v>
@@ -8510,34 +8617,34 @@
         <v>4</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE147" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I148" s="12">
         <v>3091</v>
@@ -8546,34 +8653,34 @@
         <v>4</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L148" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE148" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I149" s="12">
         <v>3091</v>
@@ -8582,34 +8689,34 @@
         <v>4</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L149" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE149" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I150" s="12">
         <v>3091</v>
@@ -8618,64 +8725,64 @@
         <v>4</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE150" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="16" t="s">
         <v>49</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I151" s="12">
         <v>3097</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L151" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G152" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H152" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="H152" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I152" s="12">
         <v>3097</v>
@@ -8684,31 +8791,31 @@
         <v>2</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G153" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H153" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="H153" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I153" s="12">
         <v>3097</v>
@@ -8717,31 +8824,31 @@
         <v>2</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G154" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H154" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="H154" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I154" s="12">
         <v>3097</v>
@@ -8750,31 +8857,31 @@
         <v>2</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G155" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H155" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I155" s="12">
         <v>3097</v>
@@ -8783,31 +8890,31 @@
         <v>2</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G156" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H156" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="H156" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I156" s="12">
         <v>3097</v>
@@ -8816,31 +8923,31 @@
         <v>2</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G157" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H157" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="H157" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I157" s="12">
         <v>3097</v>
@@ -8849,61 +8956,61 @@
         <v>2</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I158" s="12">
         <v>3097</v>
       </c>
       <c r="K158" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I159" s="12">
         <v>3099</v>
@@ -8912,106 +9019,106 @@
         <v>2</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE159" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I160" s="12">
         <v>3099</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE160" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I161" s="12">
         <v>3099</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M161" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE161" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I162" s="12">
         <v>3099</v>
@@ -9020,37 +9127,37 @@
         <v>2</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M162" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE162" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I163" s="12">
         <v>3099</v>
@@ -9059,37 +9166,37 @@
         <v>2</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L163" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M163" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE163" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I164" s="12">
         <v>3101</v>
@@ -9098,51 +9205,51 @@
         <v>2</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L164" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE164" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I165" s="12">
         <v>3101</v>
       </c>
       <c r="J165" s="12"/>
       <c r="K165" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L165" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
@@ -9162,42 +9269,42 @@
       <c r="AC165" s="12"/>
       <c r="AD165" s="12"/>
       <c r="AE165" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I166" s="12">
         <v>3101</v>
       </c>
       <c r="J166" s="12"/>
       <c r="K166" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N166" s="12"/>
       <c r="O166" s="12"/>
@@ -9217,28 +9324,28 @@
       <c r="AC166" s="12"/>
       <c r="AD166" s="12"/>
       <c r="AE166" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="167" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I167" s="12">
         <v>3101</v>
@@ -9247,37 +9354,37 @@
         <v>3</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L167" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE167" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="168" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I168" s="12">
         <v>3101</v>
@@ -9286,27 +9393,27 @@
         <v>3</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L168" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M168" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE168" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="169" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="6" t="s">
@@ -9316,7 +9423,7 @@
         <v>3762</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I169" s="12">
         <v>3067</v>
@@ -9325,40 +9432,40 @@
         <v>5</v>
       </c>
       <c r="K169" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L169" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M169" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R169" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE169" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I170" s="12">
         <v>3067</v>
@@ -9367,40 +9474,40 @@
         <v>1</v>
       </c>
       <c r="K170" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L170" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M170" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R170" s="10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AE170" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:31" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I171" s="12">
         <v>3067</v>
@@ -9409,40 +9516,40 @@
         <v>1</v>
       </c>
       <c r="K171" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L171" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M171" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R171" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE171" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H172" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I172" s="12">
         <v>3003</v>
@@ -9451,38 +9558,38 @@
         <v>2</v>
       </c>
       <c r="K172" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L172" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M172" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC172" s="14"/>
       <c r="AE172" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I173" s="12">
         <v>3003</v>
@@ -9491,33 +9598,788 @@
         <v>2</v>
       </c>
       <c r="K173" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L173" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M173" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC173" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE173" s="14"/>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>481</v>
+      <c r="C174" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H174" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I174" s="12">
+        <v>3003</v>
+      </c>
+      <c r="K174" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M174" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE174" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C175" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I175" s="12">
+        <v>3003</v>
+      </c>
+      <c r="K175" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M175" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE175" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C176" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H176" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I176" s="12">
+        <v>3003</v>
+      </c>
+      <c r="K176" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE176" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE173"/>
+  <autoFilter ref="A1:AE175"/>
   <sortState columnSort="1" ref="K1:T168">
     <sortCondition ref="K1:T1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" s="20" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="J1" s="20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="J2" s="20">
+        <v>323</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F8">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>486</v>
+      </c>
+      <c r="E9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F9">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11">
+        <v>4960</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>3003</v>
+      </c>
+      <c r="G11">
+        <v>3017</v>
+      </c>
+      <c r="H11">
+        <v>48241</v>
+      </c>
+      <c r="I11">
+        <v>323</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12">
+        <v>4961</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12">
+        <v>3003</v>
+      </c>
+      <c r="G12">
+        <v>3017</v>
+      </c>
+      <c r="H12">
+        <v>48242</v>
+      </c>
+      <c r="I12">
+        <v>323</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C13">
+        <v>4962</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13">
+        <v>3003</v>
+      </c>
+      <c r="G13">
+        <v>3017</v>
+      </c>
+      <c r="H13">
+        <v>48243</v>
+      </c>
+      <c r="I13">
+        <v>323</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16">
+        <v>4960</v>
+      </c>
+      <c r="E16" t="s">
+        <v>481</v>
+      </c>
+      <c r="F16">
+        <v>3056</v>
+      </c>
+      <c r="G16">
+        <v>3017</v>
+      </c>
+      <c r="H16">
+        <v>12467</v>
+      </c>
+      <c r="I16">
+        <v>323</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>485</v>
+      </c>
+      <c r="C17">
+        <v>4961</v>
+      </c>
+      <c r="E17" t="s">
+        <v>481</v>
+      </c>
+      <c r="F17">
+        <v>3056</v>
+      </c>
+      <c r="G17">
+        <v>3017</v>
+      </c>
+      <c r="H17">
+        <v>12468</v>
+      </c>
+      <c r="I17">
+        <v>323</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18">
+        <v>4962</v>
+      </c>
+      <c r="E18" t="s">
+        <v>481</v>
+      </c>
+      <c r="F18">
+        <v>3056</v>
+      </c>
+      <c r="G18">
+        <v>3017</v>
+      </c>
+      <c r="H18">
+        <v>12469</v>
+      </c>
+      <c r="I18">
+        <v>323</v>
+      </c>
+      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19">
+        <v>4960</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>3041</v>
+      </c>
+      <c r="G19">
+        <v>3017</v>
+      </c>
+      <c r="H19">
+        <v>8836</v>
+      </c>
+      <c r="I19">
+        <v>323</v>
+      </c>
+      <c r="J19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C20">
+        <v>4961</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <v>3041</v>
+      </c>
+      <c r="G20">
+        <v>3017</v>
+      </c>
+      <c r="H20">
+        <v>8837</v>
+      </c>
+      <c r="I20">
+        <v>323</v>
+      </c>
+      <c r="J20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>486</v>
+      </c>
+      <c r="C21">
+        <v>4962</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21">
+        <v>3041</v>
+      </c>
+      <c r="G21">
+        <v>3017</v>
+      </c>
+      <c r="H21">
+        <v>8838</v>
+      </c>
+      <c r="I21">
+        <v>323</v>
+      </c>
+      <c r="J21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>484</v>
+      </c>
+      <c r="C22">
+        <v>4960</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22">
+        <v>3067</v>
+      </c>
+      <c r="G22">
+        <v>3017</v>
+      </c>
+      <c r="H22">
+        <v>12763</v>
+      </c>
+      <c r="I22">
+        <v>323</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C23">
+        <v>4961</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23">
+        <v>3067</v>
+      </c>
+      <c r="G23">
+        <v>3017</v>
+      </c>
+      <c r="H23">
+        <v>12764</v>
+      </c>
+      <c r="I23">
+        <v>323</v>
+      </c>
+      <c r="J23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24">
+        <v>4962</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24">
+        <v>3067</v>
+      </c>
+      <c r="G24">
+        <v>3017</v>
+      </c>
+      <c r="H24">
+        <v>12765</v>
+      </c>
+      <c r="I24">
+        <v>323</v>
+      </c>
+      <c r="J24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>482</v>
+      </c>
+      <c r="C25">
+        <v>5572</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25">
+        <v>3072</v>
+      </c>
+      <c r="G25">
+        <v>3017</v>
+      </c>
+      <c r="H25">
+        <v>13621</v>
+      </c>
+      <c r="I25">
+        <v>323</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26">
+        <v>5573</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26">
+        <v>3072</v>
+      </c>
+      <c r="G26">
+        <v>3017</v>
+      </c>
+      <c r="H26">
+        <v>13622</v>
+      </c>
+      <c r="I26">
+        <v>323</v>
+      </c>
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="89.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>322</v>
+      </c>
+      <c r="B3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>325</v>
+      </c>
+      <c r="B6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>326</v>
+      </c>
+      <c r="B7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>328</v>
+      </c>
+      <c r="B9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>329</v>
+      </c>
+      <c r="B10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="15" windowWidth="13950" windowHeight="7725" tabRatio="369"/>
+    <workbookView xWindow="7470" yWindow="15" windowWidth="13950" windowHeight="7725" tabRatio="419"/>
   </bookViews>
   <sheets>
     <sheet name="toSOS_S_TEKSTOW" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="parametry" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toSOS_S_TEKSTOW!$A$1:$AE$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toSOS_S_TEKSTOW!$A$1:$AE$176</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="516">
   <si>
     <t>Po ponownym ustaleniu wysokość &lt;NAZWASWIADCZENIAGL&gt; wynosi: 
 &lt;KWOTAKAPITALUPOCZATKOWEGOKOR&gt;/&lt;SREDNIEDALSZETRWANIEZYCIA&gt; = &lt;KWOTAEMERYTURYKOR&gt; zł.</t>
@@ -1586,13 +1586,22 @@
     <t>48062</t>
   </si>
   <si>
-    <t>T2b_2</t>
-  </si>
-  <si>
     <t>3534</t>
   </si>
   <si>
     <t>48057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2b_2 </t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
   </si>
 </sst>
 </file>
@@ -2037,21 +2046,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE176"/>
+  <dimension ref="A1:AE178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
+      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="12" customWidth="1"/>
@@ -9612,6 +9621,12 @@
       <c r="AE173" s="14"/>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>513</v>
+      </c>
       <c r="C174" s="3" t="s">
         <v>506</v>
       </c>
@@ -9633,25 +9648,25 @@
       <c r="K174" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="M174" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="AE174" s="12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>513</v>
+      </c>
       <c r="C175" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>92</v>
+        <v>502</v>
       </c>
       <c r="H175" s="12" t="s">
         <v>88</v>
@@ -9670,14 +9685,20 @@
       </c>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>514</v>
+      </c>
       <c r="C176" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>92</v>
@@ -9695,8 +9716,72 @@
         <v>73</v>
       </c>
     </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I177" s="12">
+        <v>3003</v>
+      </c>
+      <c r="K177" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M177" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE177" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H178" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I178" s="12">
+        <v>3003</v>
+      </c>
+      <c r="K178" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE178" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE175"/>
+  <autoFilter ref="A1:AE176"/>
   <sortState columnSort="1" ref="K1:T168">
     <sortCondition ref="K1:T1"/>
   </sortState>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="15" windowWidth="13950" windowHeight="7725" tabRatio="419"/>
+    <workbookView xWindow="8400" yWindow="15" windowWidth="13950" windowHeight="7725" tabRatio="465"/>
   </bookViews>
   <sheets>
     <sheet name="toSOS_S_TEKSTOW" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="567">
   <si>
     <t>Po ponownym ustaleniu wysokość &lt;NAZWASWIADCZENIAGL&gt; wynosi: 
 &lt;KWOTAKAPITALUPOCZATKOWEGOKOR&gt;/&lt;SREDNIEDALSZETRWANIEZYCIA&gt; = &lt;KWOTAEMERYTURYKOR&gt; zł.</t>
@@ -1603,17 +1603,178 @@
   <si>
     <t>274</t>
   </si>
+  <si>
+    <t>48241</t>
+  </si>
+  <si>
+    <t>4960</t>
+  </si>
+  <si>
+    <t>4961</t>
+  </si>
+  <si>
+    <t>4962</t>
+  </si>
+  <si>
+    <t>48242</t>
+  </si>
+  <si>
+    <t>48243</t>
+  </si>
+  <si>
+    <t>12467</t>
+  </si>
+  <si>
+    <t>12468</t>
+  </si>
+  <si>
+    <t>12469</t>
+  </si>
+  <si>
+    <t>8836</t>
+  </si>
+  <si>
+    <t>8837</t>
+  </si>
+  <si>
+    <t>8838</t>
+  </si>
+  <si>
+    <t>12763</t>
+  </si>
+  <si>
+    <t>12764</t>
+  </si>
+  <si>
+    <t>12765</t>
+  </si>
+  <si>
+    <t>5572</t>
+  </si>
+  <si>
+    <t>5573</t>
+  </si>
+  <si>
+    <t>13621</t>
+  </si>
+  <si>
+    <t>13622</t>
+  </si>
+  <si>
+    <t>T8_29</t>
+  </si>
+  <si>
+    <t>T8_30</t>
+  </si>
+  <si>
+    <t>T8_31</t>
+  </si>
+  <si>
+    <t>5546</t>
+  </si>
+  <si>
+    <t>5547</t>
+  </si>
+  <si>
+    <t>5548</t>
+  </si>
+  <si>
+    <t>46703</t>
+  </si>
+  <si>
+    <t>46704</t>
+  </si>
+  <si>
+    <t>46705</t>
+  </si>
+  <si>
+    <t>4645</t>
+  </si>
+  <si>
+    <t>4646</t>
+  </si>
+  <si>
+    <t>4647</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1654,6 +1815,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1672,78 +1840,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normalny 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2046,11 +2218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE178"/>
+  <dimension ref="A1:AE198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,26 +2230,25 @@
     <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="5" style="12" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="12" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="12" customWidth="1"/>
     <col min="16" max="16" width="2.85546875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="12" customWidth="1"/>
+    <col min="17" max="18" width="5.28515625" style="12" customWidth="1"/>
     <col min="19" max="19" width="4.5703125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" style="12" customWidth="1"/>
     <col min="21" max="28" width="3.5703125" style="12" customWidth="1"/>
     <col min="29" max="29" width="3.85546875" style="12" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" style="12" customWidth="1"/>
+    <col min="30" max="30" width="4.42578125" style="12" customWidth="1"/>
     <col min="31" max="31" width="4.140625" style="12" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="12"/>
   </cols>
@@ -9780,6 +9951,697 @@
         <v>73</v>
       </c>
     </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I179" s="12">
+        <v>3003</v>
+      </c>
+      <c r="J179" s="12">
+        <v>1</v>
+      </c>
+      <c r="K179" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE179" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H180" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I180" s="12">
+        <v>3003</v>
+      </c>
+      <c r="J180" s="12">
+        <v>1</v>
+      </c>
+      <c r="K180" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE180" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H181" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I181" s="12">
+        <v>3003</v>
+      </c>
+      <c r="J181" s="12">
+        <v>1</v>
+      </c>
+      <c r="K181" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE181" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H182" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I182" s="12">
+        <v>3056</v>
+      </c>
+      <c r="J182" s="12">
+        <v>1</v>
+      </c>
+      <c r="K182" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE182" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I183" s="12">
+        <v>3056</v>
+      </c>
+      <c r="J183" s="12">
+        <v>1</v>
+      </c>
+      <c r="K183" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE183" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H184" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I184" s="12">
+        <v>3056</v>
+      </c>
+      <c r="J184" s="12">
+        <v>1</v>
+      </c>
+      <c r="K184" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE184" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H185" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I185" s="12">
+        <v>3041</v>
+      </c>
+      <c r="J185" s="12">
+        <v>1</v>
+      </c>
+      <c r="K185" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE185" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I186" s="12">
+        <v>3041</v>
+      </c>
+      <c r="J186" s="12">
+        <v>1</v>
+      </c>
+      <c r="K186" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE186" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H187" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I187" s="12">
+        <v>3041</v>
+      </c>
+      <c r="J187" s="12">
+        <v>1</v>
+      </c>
+      <c r="K187" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE187" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I188" s="12">
+        <v>3067</v>
+      </c>
+      <c r="J188" s="12">
+        <v>1</v>
+      </c>
+      <c r="K188" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE188" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H189" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I189" s="12">
+        <v>3067</v>
+      </c>
+      <c r="J189" s="12">
+        <v>1</v>
+      </c>
+      <c r="K189" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE189" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H190" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I190" s="12">
+        <v>3067</v>
+      </c>
+      <c r="J190" s="12">
+        <v>1</v>
+      </c>
+      <c r="K190" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE190" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I191" s="12">
+        <v>3072</v>
+      </c>
+      <c r="J191" s="12">
+        <v>1</v>
+      </c>
+      <c r="K191" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE191" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I192" s="12">
+        <v>3072</v>
+      </c>
+      <c r="J192" s="12">
+        <v>1</v>
+      </c>
+      <c r="K192" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE192" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H193" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I193" s="12">
+        <v>3001</v>
+      </c>
+      <c r="J193" s="12">
+        <v>1</v>
+      </c>
+      <c r="K193" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE193" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H194" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I194" s="12">
+        <v>3001</v>
+      </c>
+      <c r="J194" s="12">
+        <v>1</v>
+      </c>
+      <c r="K194" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE194" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H195" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I195" s="12">
+        <v>3001</v>
+      </c>
+      <c r="J195" s="12">
+        <v>1</v>
+      </c>
+      <c r="K195" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE195" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H196" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I196" s="12">
+        <v>3049</v>
+      </c>
+      <c r="K196" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE196" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H197" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I197" s="12">
+        <v>3049</v>
+      </c>
+      <c r="K197" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE197" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H198" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I198" s="12">
+        <v>3049</v>
+      </c>
+      <c r="K198" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE198" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE176"/>
   <sortState columnSort="1" ref="K1:T168">
@@ -9794,11 +10656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="15" windowWidth="10200" windowHeight="3960" tabRatio="424"/>
+    <workbookView xWindow="19050" yWindow="15" windowWidth="10200" windowHeight="3960" tabRatio="388"/>
   </bookViews>
   <sheets>
     <sheet name="toSOS_S_TEKSTOW" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="593">
   <si>
     <t>Po ponownym ustaleniu wysokość &lt;NAZWASWIADCZENIAGL&gt; wynosi: 
 &lt;KWOTAKAPITALUPOCZATKOWEGOKOR&gt;/&lt;SREDNIEDALSZETRWANIEZYCIA&gt; = &lt;KWOTAEMERYTURYKOR&gt; zł.</t>
@@ -279,9 +279,6 @@
     <t>,KPS,</t>
   </si>
   <si>
-    <t>&lt;&gt;700</t>
-  </si>
-  <si>
     <t>3035</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
   </si>
   <si>
     <t>,4,23,</t>
-  </si>
-  <si>
-    <t>,KKKP,</t>
   </si>
   <si>
     <t>DRZ DEC C1</t>
@@ -1804,10 +1798,6 @@
 &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu, od którego byłaby podjęta wypłata zawieszonej renty z tytułu niezdolności do pracy.</t>
   </si>
   <si>
-    <t>Do obliczenia emerytury przyznanej z urzędu przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu, od którego zostałaby podjęta wypłata renty z tytułu niezdolności do pracy, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. 
-niższe niż średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu osiągnięcia powszechnego wieku emerytalnego.</t>
-  </si>
-  <si>
     <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu następnym po dniu osiągnięcia powszechnego wieku emerytalnego, ponieważ jest dla 
 &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę.</t>
   </si>
@@ -1820,16 +1810,35 @@
 &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę.</t>
   </si>
   <si>
-    <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu 1.01.2009 r., tj. w dniu, od którego istniała możliwość stosowania przy obliczaniu emerytury przepisu art. 55 ustawy emerytalnej, ponieważ jest dla 
-&lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę.</t>
-  </si>
-  <si>
-    <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę, ponieważ jest dla 
-&lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu 1.01.2009 r., tj. w dniu, od którego istniała możliwość stosowania przy obliczaniu emerytury przepisu art. 55 ustawy emerytalnej.</t>
-  </si>
-  <si>
     <t>Do obliczenia emerytury przyznanej z urzędu przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu, od którego zostałaby podjęta wypłata renty z tytułu niezdolności do pracy ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. 
 niższe niż średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu osiągnięcia powszechnego wieku emerytalnego.</t>
+  </si>
+  <si>
+    <t>Do obliczenia emerytury przyznanej z urzędu przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu osiągnięcia powszechnego wieku emerytalnego ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu, od którego byłaby podjęta wypłata zawieszonej renty z tytułu niezdolności do pracy.</t>
+  </si>
+  <si>
+    <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu następnym po dniu osiągnięcia powszechnego wieku emerytalnego, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę.</t>
+  </si>
+  <si>
+    <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu osiągnięcia powszechnego wieku emerytalnego.</t>
+  </si>
+  <si>
+    <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu 1.01.2009 r., tj. w dniu, od którego istniała możliwość stosowania przy obliczaniu emerytury przepisu art. 55 ustawy emerytalnej, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę.</t>
+  </si>
+  <si>
+    <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu 1.01.2009 r., tj. w dniu, od którego istniała możliwość stosowania przy obliczaniu emerytury przepisu art. 55 ustawy emerytalnej.</t>
+  </si>
+  <si>
+    <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu następnym po dniu osiągnięcia powszechnego wieku emerytalnego.</t>
+  </si>
+  <si>
+    <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu spełnienia wszystkich warunków wymaganych do nabycia prawa do emerytury, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę.</t>
+  </si>
+  <si>
+    <t>Do obliczenia emerytury przyznanej z urzędu przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu, od którego zostałaby podjęta wypłata renty z tytułu niezdolności do pracy, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu osiągnięcia powszechnego wieku emerytalnego.</t>
+  </si>
+  <si>
+    <t>,29,39,53,83,</t>
   </si>
 </sst>
 </file>
@@ -2330,33 +2339,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE201"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AE202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R105" sqref="R105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7" style="3" customWidth="1"/>
-    <col min="6" max="6" width="109.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.140625" style="12" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="12" customWidth="1"/>
     <col min="10" max="10" width="3.7109375" style="12" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" style="12" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="12" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="8" style="12" customWidth="1"/>
     <col min="16" max="16" width="2.85546875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="12" customWidth="1"/>
     <col min="19" max="19" width="4.5703125" style="12" customWidth="1"/>
     <col min="20" max="20" width="3.7109375" style="12" customWidth="1"/>
     <col min="21" max="27" width="3.5703125" style="12" customWidth="1"/>
@@ -2379,13 +2389,13 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>55</v>
@@ -2397,7 +2407,7 @@
         <v>70</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>71</v>
@@ -2460,15 +2470,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
@@ -2503,22 +2513,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>57</v>
@@ -2539,28 +2549,28 @@
         <v>64</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE3" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>62</v>
@@ -2581,15 +2591,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
@@ -2629,16 +2639,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
@@ -2692,19 +2702,19 @@
       </c>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>61</v>
@@ -2716,7 +2726,7 @@
         <v>3001</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>72</v>
@@ -2728,20 +2738,20 @@
         <v>65</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S7" s="13"/>
       <c r="AE7" s="13"/>
     </row>
-    <row r="8" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
@@ -2772,15 +2782,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
@@ -2811,19 +2821,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>73</v>
@@ -2844,11 +2854,9 @@
         <v>72</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="Q10" s="10"/>
       <c r="U10" s="12" t="s">
         <v>68</v>
       </c>
@@ -2862,19 +2870,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>73</v>
@@ -2895,11 +2903,9 @@
         <v>72</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="Q11" s="10"/>
       <c r="U11" s="10" t="s">
         <v>68</v>
       </c>
@@ -2918,19 +2924,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>73</v>
@@ -2952,6 +2958,9 @@
       </c>
       <c r="M12" s="11" t="s">
         <v>63</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="Z12" s="10" t="s">
         <v>68</v>
@@ -2964,19 +2973,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>73</v>
@@ -3017,19 +3026,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="94.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>73</v>
@@ -3073,19 +3082,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>73</v>
@@ -3129,19 +3138,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>73</v>
@@ -3175,19 +3184,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>73</v>
@@ -3221,15 +3230,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
@@ -3263,19 +3272,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>73</v>
@@ -3311,19 +3320,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>73</v>
@@ -3359,16 +3368,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
@@ -3418,16 +3427,16 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
@@ -3477,15 +3486,15 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
@@ -3522,15 +3531,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
@@ -3540,7 +3549,7 @@
         <v>59</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="12">
         <v>3049</v>
@@ -3555,22 +3564,22 @@
         <v>72</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE24" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
@@ -3618,55 +3627,55 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="12">
         <v>3049</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>72</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>65</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE26" s="13"/>
     </row>
-    <row r="27" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
@@ -3701,15 +3710,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
@@ -3744,15 +3753,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
@@ -3762,7 +3771,7 @@
         <v>59</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="12">
         <v>3068</v>
@@ -3777,21 +3786,21 @@
         <v>72</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE29" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="4" t="s">
@@ -3801,7 +3810,7 @@
         <v>3762</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="13">
         <v>3049</v>
@@ -3814,7 +3823,7 @@
         <v>72</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -3839,55 +3848,55 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="12">
         <v>3068</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>72</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N31" s="12" t="s">
         <v>65</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE31" s="13"/>
     </row>
-    <row r="32" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
@@ -3897,7 +3906,7 @@
         <v>73</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" s="12">
         <v>3049</v>
@@ -3909,7 +3918,7 @@
         <v>72</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>74</v>
@@ -3919,15 +3928,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
@@ -3937,7 +3946,7 @@
         <v>73</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33" s="12">
         <v>3049</v>
@@ -3949,25 +3958,25 @@
         <v>72</v>
       </c>
       <c r="M33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R33" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="S33" s="10"/>
       <c r="AE33" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
@@ -3977,7 +3986,7 @@
         <v>59</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="12">
         <v>3003</v>
@@ -3992,7 +4001,7 @@
         <v>72</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC34" s="14" t="s">
         <v>58</v>
@@ -4001,15 +4010,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
@@ -4019,7 +4028,7 @@
         <v>3762</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="12">
         <v>3068</v>
@@ -4031,7 +4040,7 @@
         <v>72</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R35" s="14" t="s">
         <v>60</v>
@@ -4041,55 +4050,55 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I36" s="12">
         <v>3003</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>72</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>65</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
@@ -4099,7 +4108,7 @@
         <v>73</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I37" s="12">
         <v>3068</v>
@@ -4111,7 +4120,7 @@
         <v>72</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R37" s="14" t="s">
         <v>74</v>
@@ -4121,15 +4130,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
@@ -4139,7 +4148,7 @@
         <v>73</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" s="12">
         <v>3068</v>
@@ -4151,35 +4160,35 @@
         <v>72</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R38" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S38" s="10"/>
       <c r="AE38" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I39" s="12">
         <v>3003</v>
@@ -4194,7 +4203,7 @@
         <v>72</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U39" s="14" t="s">
         <v>68</v>
@@ -4209,25 +4218,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I40" s="12">
         <v>3003</v>
@@ -4242,7 +4251,7 @@
         <v>72</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U40" s="14" t="s">
         <v>68</v>
@@ -4257,25 +4266,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I41" s="12">
         <v>3003</v>
@@ -4290,7 +4299,7 @@
         <v>72</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U41" s="14" t="s">
         <v>58</v>
@@ -4305,26 +4314,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I42" s="12">
         <v>3003</v>
@@ -4339,7 +4348,7 @@
         <v>72</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
@@ -4368,25 +4377,25 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
     </row>
-    <row r="43" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I43" s="12">
         <v>3003</v>
@@ -4401,7 +4410,7 @@
         <v>72</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q43" s="10">
         <v>700</v>
@@ -4419,25 +4428,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I44" s="12">
         <v>3003</v>
@@ -4452,7 +4461,7 @@
         <v>72</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q44" s="10">
         <v>700</v>
@@ -4470,25 +4479,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I45" s="12">
         <v>3003</v>
@@ -4503,7 +4512,7 @@
         <v>72</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z45" s="14" t="s">
         <v>58</v>
@@ -4515,25 +4524,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I46" s="12">
         <v>3003</v>
@@ -4548,7 +4557,7 @@
         <v>72</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z46" s="14" t="s">
         <v>58</v>
@@ -4560,15 +4569,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
@@ -4578,7 +4587,7 @@
         <v>73</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="12">
         <v>3003</v>
@@ -4593,7 +4602,7 @@
         <v>72</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB47" s="14">
         <v>4</v>
@@ -4602,15 +4611,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
@@ -4620,7 +4629,7 @@
         <v>73</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I48" s="12">
         <v>3003</v>
@@ -4635,7 +4644,7 @@
         <v>72</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V48" s="14" t="s">
         <v>58</v>
@@ -4650,15 +4659,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6" t="s">
@@ -4668,7 +4677,7 @@
         <v>73</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="12">
         <v>3003</v>
@@ -4683,7 +4692,7 @@
         <v>72</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V49" s="14" t="s">
         <v>58</v>
@@ -4700,13 +4709,13 @@
     </row>
     <row r="50" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="4" t="s">
@@ -4716,7 +4725,7 @@
         <v>59</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I50" s="12">
         <v>3056</v>
@@ -4731,21 +4740,21 @@
         <v>72</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
@@ -4755,7 +4764,7 @@
         <v>3762</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I51" s="12">
         <v>3003</v>
@@ -4770,7 +4779,7 @@
         <v>72</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R51" s="14" t="s">
         <v>60</v>
@@ -4781,53 +4790,53 @@
     </row>
     <row r="52" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I52" s="12">
         <v>3056</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L52" s="12" t="s">
         <v>72</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N52" s="12" t="s">
         <v>65</v>
       </c>
       <c r="R52" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
@@ -4837,7 +4846,7 @@
         <v>73</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I53" s="12">
         <v>3003</v>
@@ -4852,7 +4861,7 @@
         <v>72</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R53" s="14" t="s">
         <v>74</v>
@@ -4861,15 +4870,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
@@ -4879,7 +4888,7 @@
         <v>73</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I54" s="12">
         <v>3003</v>
@@ -4894,34 +4903,34 @@
         <v>72</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE54" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I55" s="12">
         <v>3033</v>
@@ -4936,7 +4945,7 @@
         <v>72</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W55" s="15" t="s">
         <v>68</v>
@@ -4945,25 +4954,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I56" s="12">
         <v>3033</v>
@@ -4978,7 +4987,7 @@
         <v>72</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>58</v>
@@ -4990,15 +4999,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6" t="s">
@@ -5008,7 +5017,7 @@
         <v>59</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I57" s="12">
         <v>3058</v>
@@ -5023,31 +5032,31 @@
         <v>72</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC57" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I58" s="12">
         <v>3058</v>
@@ -5059,7 +5068,7 @@
         <v>72</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U58" s="14" t="s">
         <v>68</v>
@@ -5071,25 +5080,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I59" s="12">
         <v>3058</v>
@@ -5101,7 +5110,7 @@
         <v>72</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U59" s="14" t="s">
         <v>68</v>
@@ -5113,25 +5122,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I60" s="12">
         <v>3058</v>
@@ -5143,7 +5152,7 @@
         <v>72</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U60" s="14" t="s">
         <v>58</v>
@@ -5155,25 +5164,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I61" s="12">
         <v>3058</v>
@@ -5185,7 +5194,7 @@
         <v>72</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U61" s="14" t="s">
         <v>58</v>
@@ -5197,25 +5206,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I62" s="12">
         <v>3047</v>
@@ -5230,7 +5239,7 @@
         <v>72</v>
       </c>
       <c r="M62" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W62" s="17" t="s">
         <v>68</v>
@@ -5239,25 +5248,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="16" t="s">
         <v>37</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I63" s="12">
         <v>3047</v>
@@ -5272,7 +5281,7 @@
         <v>72</v>
       </c>
       <c r="M63" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>58</v>
@@ -5284,15 +5293,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6" t="s">
@@ -5320,19 +5329,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>61</v>
@@ -5344,25 +5353,25 @@
         <v>3072</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N65" s="12" t="s">
         <v>65</v>
       </c>
       <c r="R65" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6" t="s">
@@ -5372,7 +5381,7 @@
         <v>59</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I66" s="12">
         <v>3023</v>
@@ -5396,15 +5405,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="6" t="s">
@@ -5414,7 +5423,7 @@
         <v>3762</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I67" s="12">
         <v>3023</v>
@@ -5435,31 +5444,31 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I68" s="12">
         <v>3023</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>72</v>
@@ -5471,31 +5480,31 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I69" s="12">
         <v>3023</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L69" s="12" t="s">
         <v>72</v>
@@ -5507,25 +5516,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I70" s="12">
         <v>3023</v>
@@ -5540,7 +5549,7 @@
         <v>72</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R70" s="11" t="s">
         <v>74</v>
@@ -5549,25 +5558,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I71" s="12">
         <v>3023</v>
@@ -5582,24 +5591,24 @@
         <v>72</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R71" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE71" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="6" t="s">
@@ -5609,7 +5618,7 @@
         <v>73</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I72" s="12">
         <v>3023</v>
@@ -5624,7 +5633,7 @@
         <v>72</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N72" s="11" t="s">
         <v>65</v>
@@ -5636,15 +5645,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="6" t="s">
@@ -5654,7 +5663,7 @@
         <v>73</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I73" s="12">
         <v>3023</v>
@@ -5669,7 +5678,7 @@
         <v>72</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N73" s="11" t="s">
         <v>65</v>
@@ -5678,25 +5687,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I74" s="12">
         <v>3023</v>
@@ -5711,7 +5720,7 @@
         <v>72</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R74" s="11" t="s">
         <v>74</v>
@@ -5720,25 +5729,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I75" s="12">
         <v>3023</v>
@@ -5753,34 +5762,34 @@
         <v>72</v>
       </c>
       <c r="M75" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="R75" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="R75" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="T75" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I76" s="12">
         <v>3023</v>
@@ -5795,24 +5804,24 @@
         <v>72</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R76" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T76" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="6" t="s">
@@ -5822,7 +5831,7 @@
         <v>73</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I77" s="12">
         <v>3023</v>
@@ -5837,7 +5846,7 @@
         <v>72</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z77" s="11" t="s">
         <v>68</v>
@@ -5849,15 +5858,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="6" t="s">
@@ -5867,7 +5876,7 @@
         <v>73</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I78" s="12">
         <v>3023</v>
@@ -5882,7 +5891,7 @@
         <v>72</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z78" s="11" t="s">
         <v>68</v>
@@ -5894,15 +5903,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="6" t="s">
@@ -5912,7 +5921,7 @@
         <v>73</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I79" s="12">
         <v>3023</v>
@@ -5927,7 +5936,7 @@
         <v>72</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z79" s="11" t="s">
         <v>58</v>
@@ -5939,15 +5948,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="6" t="s">
@@ -5957,7 +5966,7 @@
         <v>73</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I80" s="12">
         <v>3023</v>
@@ -5972,7 +5981,7 @@
         <v>72</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z80" s="11" t="s">
         <v>58</v>
@@ -5984,15 +5993,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="6" t="s">
@@ -6002,7 +6011,7 @@
         <v>73</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I81" s="12">
         <v>3023</v>
@@ -6017,7 +6026,7 @@
         <v>72</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB81" s="11">
         <v>4</v>
@@ -6026,15 +6035,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="6" t="s">
@@ -6044,7 +6053,7 @@
         <v>73</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I82" s="12">
         <v>3023</v>
@@ -6059,7 +6068,7 @@
         <v>72</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q82" s="11">
         <v>700</v>
@@ -6074,15 +6083,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="6" t="s">
@@ -6092,7 +6101,7 @@
         <v>73</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I83" s="12">
         <v>3023</v>
@@ -6107,7 +6116,7 @@
         <v>72</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q83" s="11">
         <v>700</v>
@@ -6122,15 +6131,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="6" t="s">
@@ -6140,7 +6149,7 @@
         <v>73</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I84" s="12">
         <v>3023</v>
@@ -6155,7 +6164,7 @@
         <v>72</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V84" s="11" t="s">
         <v>58</v>
@@ -6170,15 +6179,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="6" t="s">
@@ -6188,7 +6197,7 @@
         <v>73</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I85" s="12">
         <v>3023</v>
@@ -6203,7 +6212,7 @@
         <v>72</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V85" s="11" t="s">
         <v>58</v>
@@ -6218,15 +6227,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="6" t="s">
@@ -6236,7 +6245,7 @@
         <v>69</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I86" s="12">
         <v>3023</v>
@@ -6248,7 +6257,7 @@
         <v>72</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O86" s="11" t="s">
         <v>58</v>
@@ -6263,15 +6272,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6" t="s">
@@ -6281,7 +6290,7 @@
         <v>69</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I87" s="12">
         <v>3023</v>
@@ -6293,7 +6302,7 @@
         <v>72</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O87" s="11" t="s">
         <v>68</v>
@@ -6302,21 +6311,21 @@
         <v>58</v>
       </c>
       <c r="R87" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T87" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="6" t="s">
@@ -6326,7 +6335,7 @@
         <v>69</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I88" s="12">
         <v>3023</v>
@@ -6338,7 +6347,7 @@
         <v>72</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O88" s="11" t="s">
         <v>58</v>
@@ -6347,21 +6356,21 @@
         <v>68</v>
       </c>
       <c r="R88" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T88" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6" t="s">
@@ -6371,7 +6380,7 @@
         <v>59</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I89" s="12">
         <v>3042</v>
@@ -6386,21 +6395,21 @@
         <v>72</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC89" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="6" t="s">
@@ -6410,7 +6419,7 @@
         <v>73</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I90" s="12">
         <v>3042</v>
@@ -6425,7 +6434,7 @@
         <v>72</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N90" s="10" t="s">
         <v>65</v>
@@ -6440,15 +6449,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6" t="s">
@@ -6458,7 +6467,7 @@
         <v>73</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I91" s="12">
         <v>3042</v>
@@ -6473,7 +6482,7 @@
         <v>72</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N91" s="10" t="s">
         <v>65</v>
@@ -6488,15 +6497,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="6" t="s">
@@ -6506,7 +6515,7 @@
         <v>73</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I92" s="12">
         <v>3042</v>
@@ -6521,7 +6530,7 @@
         <v>72</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z92" s="15" t="s">
         <v>68</v>
@@ -6533,15 +6542,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6" t="s">
@@ -6551,7 +6560,7 @@
         <v>73</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I93" s="12">
         <v>3042</v>
@@ -6566,7 +6575,7 @@
         <v>72</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z93" s="15" t="s">
         <v>68</v>
@@ -6578,15 +6587,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="6" t="s">
@@ -6596,7 +6605,7 @@
         <v>73</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I94" s="12">
         <v>3042</v>
@@ -6611,7 +6620,7 @@
         <v>72</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z94" s="15" t="s">
         <v>58</v>
@@ -6623,15 +6632,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="6" t="s">
@@ -6641,7 +6650,7 @@
         <v>73</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I95" s="12">
         <v>3042</v>
@@ -6656,7 +6665,7 @@
         <v>72</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z95" s="15" t="s">
         <v>58</v>
@@ -6668,15 +6677,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="6" t="s">
@@ -6686,7 +6695,7 @@
         <v>73</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I96" s="12">
         <v>3042</v>
@@ -6701,7 +6710,7 @@
         <v>72</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB96" s="15">
         <v>4</v>
@@ -6710,15 +6719,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="6" t="s">
@@ -6728,7 +6737,7 @@
         <v>73</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I97" s="12">
         <v>3042</v>
@@ -6743,10 +6752,10 @@
         <v>72</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q97" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z97" s="15" t="s">
         <v>68</v>
@@ -6758,15 +6767,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="6" t="s">
@@ -6776,7 +6785,7 @@
         <v>73</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I98" s="12">
         <v>3042</v>
@@ -6791,10 +6800,10 @@
         <v>72</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q98" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z98" s="15" t="s">
         <v>68</v>
@@ -6806,15 +6815,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="6" t="s">
@@ -6824,7 +6833,7 @@
         <v>73</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I99" s="12">
         <v>3042</v>
@@ -6839,7 +6848,7 @@
         <v>72</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V99" s="15" t="s">
         <v>58</v>
@@ -6851,15 +6860,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="6" t="s">
@@ -6869,7 +6878,7 @@
         <v>73</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I100" s="12">
         <v>3042</v>
@@ -6884,7 +6893,7 @@
         <v>72</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>58</v>
@@ -6896,25 +6905,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I101" s="12">
         <v>3048</v>
@@ -6932,15 +6941,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="6" t="s">
@@ -6950,7 +6959,7 @@
         <v>59</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I102" s="12">
         <v>3041</v>
@@ -6965,7 +6974,7 @@
         <v>72</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE102" s="14" t="s">
         <v>58</v>
@@ -6973,13 +6982,13 @@
     </row>
     <row r="103" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="6" t="s">
@@ -6989,7 +6998,7 @@
         <v>3762</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I103" s="12">
         <v>3056</v>
@@ -7001,7 +7010,7 @@
         <v>72</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R103" s="14" t="s">
         <v>60</v>
@@ -7010,55 +7019,55 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I104" s="12">
         <v>3041</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L104" s="12" t="s">
         <v>72</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N104" s="10" t="s">
         <v>65</v>
       </c>
       <c r="R104" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE104" s="13"/>
     </row>
     <row r="105" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
@@ -7068,7 +7077,7 @@
         <v>73</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I105" s="12">
         <v>3056</v>
@@ -7083,10 +7092,10 @@
         <v>72</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R105" s="14" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AE105" s="15" t="s">
         <v>58</v>
@@ -7094,13 +7103,13 @@
     </row>
     <row r="106" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
@@ -7110,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I106" s="12">
         <v>3056</v>
@@ -7125,24 +7134,24 @@
         <v>72</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R106" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE106" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
@@ -7152,7 +7161,7 @@
         <v>73</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I107" s="12">
         <v>3041</v>
@@ -7167,7 +7176,7 @@
         <v>72</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U107" s="14" t="s">
         <v>68</v>
@@ -7182,15 +7191,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="6" t="s">
@@ -7200,7 +7209,7 @@
         <v>73</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I108" s="12">
         <v>3041</v>
@@ -7215,7 +7224,7 @@
         <v>72</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U108" s="14" t="s">
         <v>68</v>
@@ -7230,15 +7239,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="6" t="s">
@@ -7248,7 +7257,7 @@
         <v>73</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I109" s="12">
         <v>3041</v>
@@ -7263,7 +7272,7 @@
         <v>72</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U109" s="14" t="s">
         <v>58</v>
@@ -7278,15 +7287,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
@@ -7296,7 +7305,7 @@
         <v>73</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I110" s="12">
         <v>3041</v>
@@ -7311,7 +7320,7 @@
         <v>72</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U110" s="14" t="s">
         <v>58</v>
@@ -7326,15 +7335,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
@@ -7344,7 +7353,7 @@
         <v>73</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I111" s="12">
         <v>3041</v>
@@ -7359,7 +7368,7 @@
         <v>72</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q111" s="11">
         <v>700</v>
@@ -7377,15 +7386,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
@@ -7395,7 +7404,7 @@
         <v>73</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I112" s="12">
         <v>3041</v>
@@ -7410,7 +7419,7 @@
         <v>72</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q112" s="11">
         <v>700</v>
@@ -7428,15 +7437,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="6" t="s">
@@ -7446,7 +7455,7 @@
         <v>73</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I113" s="12">
         <v>3041</v>
@@ -7461,7 +7470,7 @@
         <v>72</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z113" s="14" t="s">
         <v>58</v>
@@ -7473,25 +7482,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I114" s="12">
         <v>3041</v>
@@ -7506,7 +7515,7 @@
         <v>72</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z114" s="14" t="s">
         <v>58</v>
@@ -7518,15 +7527,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="6" t="s">
@@ -7536,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I115" s="12">
         <v>3041</v>
@@ -7551,7 +7560,7 @@
         <v>72</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB115" s="14">
         <v>4</v>
@@ -7560,15 +7569,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="6" t="s">
@@ -7578,7 +7587,7 @@
         <v>73</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I116" s="12">
         <v>3041</v>
@@ -7593,7 +7602,7 @@
         <v>72</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V116" s="14" t="s">
         <v>58</v>
@@ -7608,15 +7617,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="6" t="s">
@@ -7626,7 +7635,7 @@
         <v>73</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I117" s="12">
         <v>3041</v>
@@ -7641,7 +7650,7 @@
         <v>72</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V117" s="14" t="s">
         <v>58</v>
@@ -7656,15 +7665,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="6" t="s">
@@ -7674,7 +7683,7 @@
         <v>59</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I118" s="12">
         <v>3067</v>
@@ -7689,21 +7698,21 @@
         <v>72</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE118" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="6" t="s">
@@ -7713,7 +7722,7 @@
         <v>3762</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I119" s="12">
         <v>3041</v>
@@ -7728,7 +7737,7 @@
         <v>72</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R119" s="14" t="s">
         <v>60</v>
@@ -7737,55 +7746,55 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I120" s="12">
         <v>3067</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L120" s="12" t="s">
         <v>72</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N120" s="12" t="s">
         <v>65</v>
       </c>
       <c r="R120" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE120" s="13"/>
     </row>
-    <row r="121" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="6" t="s">
@@ -7795,7 +7804,7 @@
         <v>73</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I121" s="12">
         <v>3041</v>
@@ -7810,7 +7819,7 @@
         <v>72</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R121" s="14" t="s">
         <v>74</v>
@@ -7819,15 +7828,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="6" t="s">
@@ -7837,7 +7846,7 @@
         <v>73</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I122" s="12">
         <v>3041</v>
@@ -7852,7 +7861,7 @@
         <v>72</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R122" s="14" t="s">
         <v>75</v>
@@ -7861,25 +7870,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I123" s="12">
         <v>3042</v>
@@ -7903,25 +7912,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="16" t="s">
         <v>37</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I124" s="12">
         <v>3042</v>
@@ -7948,25 +7957,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I125" s="12">
         <v>3070</v>
@@ -7981,7 +7990,7 @@
         <v>72</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W125" s="17" t="s">
         <v>68</v>
@@ -7990,25 +7999,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I126" s="12">
         <v>3070</v>
@@ -8023,7 +8032,7 @@
         <v>72</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W126" s="11" t="s">
         <v>58</v>
@@ -8035,15 +8044,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="6" t="s">
@@ -8053,7 +8062,7 @@
         <v>3000</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I127" s="13">
         <v>3046</v>
@@ -8068,21 +8077,21 @@
         <v>72</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC127" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="6" t="s">
@@ -8092,7 +8101,7 @@
         <v>73</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I128" s="12">
         <v>3046</v>
@@ -8107,7 +8116,7 @@
         <v>72</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N128" s="10" t="s">
         <v>65</v>
@@ -8122,15 +8131,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="6" t="s">
@@ -8140,7 +8149,7 @@
         <v>73</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I129" s="12">
         <v>3046</v>
@@ -8155,7 +8164,7 @@
         <v>72</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N129" s="10" t="s">
         <v>65</v>
@@ -8170,15 +8179,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="6" t="s">
@@ -8188,7 +8197,7 @@
         <v>73</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I130" s="12">
         <v>3046</v>
@@ -8203,7 +8212,7 @@
         <v>72</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z130" s="15" t="s">
         <v>68</v>
@@ -8215,15 +8224,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="6" t="s">
@@ -8233,7 +8242,7 @@
         <v>73</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I131" s="12">
         <v>3046</v>
@@ -8248,7 +8257,7 @@
         <v>72</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z131" s="15" t="s">
         <v>68</v>
@@ -8260,15 +8269,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="6" t="s">
@@ -8278,7 +8287,7 @@
         <v>73</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I132" s="12">
         <v>3046</v>
@@ -8293,7 +8302,7 @@
         <v>72</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z132" s="15" t="s">
         <v>58</v>
@@ -8305,15 +8314,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="6" t="s">
@@ -8323,7 +8332,7 @@
         <v>73</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I133" s="12">
         <v>3046</v>
@@ -8338,7 +8347,7 @@
         <v>72</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z133" s="15" t="s">
         <v>58</v>
@@ -8350,15 +8359,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="6" t="s">
@@ -8368,7 +8377,7 @@
         <v>73</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I134" s="12">
         <v>3046</v>
@@ -8383,7 +8392,7 @@
         <v>72</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB134" s="15">
         <v>4</v>
@@ -8392,15 +8401,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="6" t="s">
@@ -8410,7 +8419,7 @@
         <v>73</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I135" s="12">
         <v>3046</v>
@@ -8425,10 +8434,10 @@
         <v>72</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q135" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z135" s="15" t="s">
         <v>68</v>
@@ -8440,15 +8449,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="6" t="s">
@@ -8458,7 +8467,7 @@
         <v>73</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I136" s="12">
         <v>3046</v>
@@ -8473,10 +8482,10 @@
         <v>72</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q136" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z136" s="15" t="s">
         <v>68</v>
@@ -8488,15 +8497,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="6" t="s">
@@ -8506,7 +8515,7 @@
         <v>73</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I137" s="12">
         <v>3046</v>
@@ -8521,7 +8530,7 @@
         <v>72</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V137" s="15" t="s">
         <v>58</v>
@@ -8533,16 +8542,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="6" t="s">
@@ -8552,7 +8561,7 @@
         <v>73</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I138" s="13">
         <v>3046</v>
@@ -8567,7 +8576,7 @@
         <v>72</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
@@ -8594,25 +8603,25 @@
       <c r="AD138" s="13"/>
       <c r="AE138" s="13"/>
     </row>
-    <row r="139" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I139" s="12">
         <v>3071</v>
@@ -8630,15 +8639,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="6" t="s">
@@ -8648,7 +8657,7 @@
         <v>59</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I140" s="12">
         <v>3091</v>
@@ -8663,31 +8672,31 @@
         <v>72</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AE140" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I141" s="12">
         <v>3091</v>
@@ -8699,31 +8708,31 @@
         <v>68</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE141" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I142" s="12">
         <v>3091</v>
@@ -8735,31 +8744,31 @@
         <v>68</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE142" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I143" s="12">
         <v>3091</v>
@@ -8771,31 +8780,31 @@
         <v>68</v>
       </c>
       <c r="L143" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE143" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I144" s="12">
         <v>3091</v>
@@ -8807,31 +8816,31 @@
         <v>68</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE144" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I145" s="12">
         <v>3091</v>
@@ -8840,34 +8849,34 @@
         <v>4</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE145" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I146" s="12">
         <v>3091</v>
@@ -8876,34 +8885,34 @@
         <v>4</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE146" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I147" s="12">
         <v>3091</v>
@@ -8912,34 +8921,34 @@
         <v>4</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE147" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I148" s="12">
         <v>3091</v>
@@ -8948,34 +8957,34 @@
         <v>4</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L148" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE148" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I149" s="12">
         <v>3091</v>
@@ -8984,34 +8993,34 @@
         <v>4</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L149" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE149" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I150" s="12">
         <v>3091</v>
@@ -9020,34 +9029,34 @@
         <v>4</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE150" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I151" s="12">
         <v>3097</v>
@@ -9056,28 +9065,28 @@
         <v>68</v>
       </c>
       <c r="L151" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="152" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I152" s="12">
         <v>3097</v>
@@ -9086,31 +9095,31 @@
         <v>2</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I153" s="12">
         <v>3097</v>
@@ -9119,31 +9128,31 @@
         <v>2</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I154" s="12">
         <v>3097</v>
@@ -9152,31 +9161,31 @@
         <v>2</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="155" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I155" s="12">
         <v>3097</v>
@@ -9185,31 +9194,31 @@
         <v>2</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I156" s="12">
         <v>3097</v>
@@ -9218,31 +9227,31 @@
         <v>2</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="157" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I157" s="12">
         <v>3097</v>
@@ -9251,31 +9260,31 @@
         <v>2</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I158" s="12">
         <v>3097</v>
@@ -9284,18 +9293,18 @@
         <v>68</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="159" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="6" t="s">
@@ -9305,7 +9314,7 @@
         <v>59</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I159" s="12">
         <v>3099</v>
@@ -9323,25 +9332,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I160" s="12">
         <v>3099</v>
@@ -9350,34 +9359,34 @@
         <v>68</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE160" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I161" s="12">
         <v>3099</v>
@@ -9386,34 +9395,34 @@
         <v>68</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M161" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE161" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G162" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H162" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="H162" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="I162" s="12">
         <v>3099</v>
@@ -9422,37 +9431,37 @@
         <v>2</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M162" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE162" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G163" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H163" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="H163" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="I163" s="12">
         <v>3099</v>
@@ -9461,27 +9470,27 @@
         <v>2</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L163" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M163" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE163" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="6" t="s">
@@ -9491,7 +9500,7 @@
         <v>59</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I164" s="12">
         <v>3101</v>
@@ -9506,32 +9515,32 @@
         <v>72</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AE164" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I165" s="12">
         <v>3101</v>
@@ -9541,10 +9550,10 @@
         <v>68</v>
       </c>
       <c r="L165" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
@@ -9567,26 +9576,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I166" s="12">
         <v>3101</v>
@@ -9596,10 +9605,10 @@
         <v>68</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N166" s="12"/>
       <c r="O166" s="12"/>
@@ -9622,25 +9631,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I167" s="12">
         <v>3101</v>
@@ -9649,37 +9658,37 @@
         <v>3</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L167" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AE167" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I168" s="12">
         <v>3101</v>
@@ -9688,27 +9697,27 @@
         <v>3</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L168" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M168" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AE168" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="6" t="s">
@@ -9718,7 +9727,7 @@
         <v>3762</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I169" s="12">
         <v>3067</v>
@@ -9733,7 +9742,7 @@
         <v>72</v>
       </c>
       <c r="M169" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R169" s="10" t="s">
         <v>60</v>
@@ -9742,15 +9751,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="6" t="s">
@@ -9760,7 +9769,7 @@
         <v>73</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I170" s="12">
         <v>3067</v>
@@ -9775,7 +9784,7 @@
         <v>72</v>
       </c>
       <c r="M170" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R170" s="10" t="s">
         <v>74</v>
@@ -9784,15 +9793,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="6" t="s">
@@ -9802,7 +9811,7 @@
         <v>73</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I171" s="12">
         <v>3067</v>
@@ -9817,7 +9826,7 @@
         <v>72</v>
       </c>
       <c r="M171" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R171" s="10" t="s">
         <v>75</v>
@@ -9826,15 +9835,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="6" t="s">
@@ -9844,7 +9853,7 @@
         <v>59</v>
       </c>
       <c r="H172" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I172" s="12">
         <v>3003</v>
@@ -9859,22 +9868,22 @@
         <v>72</v>
       </c>
       <c r="M172" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC172" s="14"/>
       <c r="AE172" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="6" t="s">
@@ -9884,7 +9893,7 @@
         <v>59</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I173" s="12">
         <v>3003</v>
@@ -9899,34 +9908,34 @@
         <v>72</v>
       </c>
       <c r="M173" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC173" s="14" t="s">
         <v>58</v>
       </c>
       <c r="AE173" s="14"/>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I174" s="12">
         <v>3003</v>
@@ -9938,24 +9947,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I175" s="12">
         <v>3003</v>
@@ -9964,33 +9973,33 @@
         <v>68</v>
       </c>
       <c r="M175" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE175" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D176" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>503</v>
-      </c>
       <c r="G176" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H176" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I176" s="12">
         <v>3003</v>
@@ -10002,24 +10011,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H177" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I177" s="12">
         <v>3003</v>
@@ -10028,33 +10037,33 @@
         <v>68</v>
       </c>
       <c r="M177" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE177" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C178" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>506</v>
-      </c>
       <c r="E178" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H178" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I178" s="12">
         <v>3003</v>
@@ -10066,27 +10075,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I179" s="12">
         <v>3003</v>
@@ -10101,27 +10110,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C180" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E180" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I180" s="12">
         <v>3003</v>
@@ -10136,27 +10145,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C181" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I181" s="12">
         <v>3003</v>
@@ -10171,27 +10180,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I182" s="12">
         <v>3056</v>
@@ -10206,27 +10215,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I183" s="12">
         <v>3056</v>
@@ -10241,27 +10250,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H184" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I184" s="12">
         <v>3056</v>
@@ -10276,27 +10285,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="185" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I185" s="12">
         <v>3041</v>
@@ -10311,27 +10320,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="186" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I186" s="12">
         <v>3041</v>
@@ -10346,27 +10355,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H187" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I187" s="12">
         <v>3041</v>
@@ -10381,27 +10390,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H188" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I188" s="12">
         <v>3067</v>
@@ -10416,27 +10425,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H189" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I189" s="12">
         <v>3067</v>
@@ -10451,27 +10460,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H190" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I190" s="12">
         <v>3067</v>
@@ -10486,21 +10495,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E191" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>73</v>
@@ -10521,21 +10530,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="192" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E192" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>73</v>
@@ -10556,21 +10565,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>73</v>
@@ -10591,21 +10600,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>73</v>
@@ -10626,21 +10635,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>73</v>
@@ -10661,27 +10670,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H196" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I196" s="12">
         <v>3049</v>
@@ -10693,27 +10702,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H197" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I197" s="12">
         <v>3049</v>
@@ -10725,27 +10734,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H198" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I198" s="12">
         <v>3049</v>
@@ -10757,27 +10766,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H199" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I199" s="12">
         <v>3068</v>
@@ -10792,27 +10801,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H200" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I200" s="12">
         <v>3068</v>
@@ -10827,27 +10836,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H201" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I201" s="12">
         <v>3068</v>
@@ -10859,8 +10868,15 @@
         <v>68</v>
       </c>
     </row>
+    <row r="202" spans="1:31" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AE202"/>
+  <autoFilter ref="A1:AE202">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="DEC C1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState columnSort="1" ref="K1:T168">
     <sortCondition ref="K1:T1"/>
   </sortState>
@@ -10888,21 +10904,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>570</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10950,7 +10966,7 @@
   <sheetData>
     <row r="1" spans="2:12" s="20" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="J1" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="2:12" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10961,30 +10977,30 @@
         <v>53</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>56</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J2" s="20">
         <v>323</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -10995,7 +11011,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
@@ -11006,7 +11022,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
@@ -11017,10 +11033,10 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F7">
         <v>3049</v>
@@ -11028,10 +11044,10 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F8">
         <v>3049</v>
@@ -11039,10 +11055,10 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F9">
         <v>3049</v>
@@ -11050,13 +11066,13 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C11">
         <v>4960</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <v>3003</v>
@@ -11082,13 +11098,13 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C12">
         <v>4961</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>3003</v>
@@ -11114,13 +11130,13 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C13">
         <v>4962</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13">
         <v>3003</v>
@@ -11146,13 +11162,13 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C16">
         <v>4960</v>
       </c>
       <c r="E16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F16">
         <v>3056</v>
@@ -11178,13 +11194,13 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C17">
         <v>4961</v>
       </c>
       <c r="E17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F17">
         <v>3056</v>
@@ -11210,13 +11226,13 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C18">
         <v>4962</v>
       </c>
       <c r="E18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F18">
         <v>3056</v>
@@ -11242,13 +11258,13 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C19">
         <v>4960</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>3041</v>
@@ -11274,13 +11290,13 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C20">
         <v>4961</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <v>3041</v>
@@ -11306,13 +11322,13 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C21">
         <v>4962</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21">
         <v>3041</v>
@@ -11338,13 +11354,13 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C22">
         <v>4960</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22">
         <v>3067</v>
@@ -11370,13 +11386,13 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C23">
         <v>4961</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23">
         <v>3067</v>
@@ -11402,13 +11418,13 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C24">
         <v>4962</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F24">
         <v>3067</v>
@@ -11434,7 +11450,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C25">
         <v>5572</v>
@@ -11466,7 +11482,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C26">
         <v>5573</v>
@@ -11513,7 +11529,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="89.85546875" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11521,7 +11537,7 @@
         <v>320</v>
       </c>
       <c r="B1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11529,7 +11545,7 @@
         <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11537,7 +11553,7 @@
         <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11545,7 +11561,7 @@
         <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11553,7 +11569,7 @@
         <v>324</v>
       </c>
       <c r="B5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11561,7 +11577,7 @@
         <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11569,7 +11585,7 @@
         <v>326</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -11577,7 +11593,7 @@
         <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11585,7 +11601,7 @@
         <v>328</v>
       </c>
       <c r="B9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -11593,7 +11609,7 @@
         <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/UEFTA_Teksty.xlsx
+++ b/UEFTA_Teksty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="15" windowWidth="10200" windowHeight="3960" tabRatio="388"/>
+    <workbookView xWindow="22860" yWindow="15" windowWidth="10200" windowHeight="3960" tabRatio="372"/>
   </bookViews>
   <sheets>
     <sheet name="toSOS_S_TEKSTOW" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="584">
   <si>
     <t>Po ponownym ustaleniu wysokość &lt;NAZWASWIADCZENIAGL&gt; wynosi: 
 &lt;KWOTAKAPITALUPOCZATKOWEGOKOR&gt;/&lt;SREDNIEDALSZETRWANIEZYCIA&gt; = &lt;KWOTAEMERYTURYKOR&gt; zł.</t>
@@ -1752,15 +1752,7 @@
     <t>Do ustalenia wysokości okresowej emerytury kapitałowej przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu osiągnięcia powszechnego wieku emerytalnego, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę.</t>
   </si>
   <si>
-    <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę, ponieważ jest dla 
-&lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu osiągnięcia powszechnego wieku emerytalnego.</t>
-  </si>
-  <si>
     <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu osiągnięcia powszechnego wieku emerytalnego, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę.</t>
-  </si>
-  <si>
-    <t>Do obliczenia emerytury przyznanej z urzędu przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu osiągnięcia powszechnego wieku emerytalnego ponieważ jest dla 
-&lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu, od którego byłaby podjęta wypłata zawieszonej renty z tytułu niezdolności do pracy.</t>
   </si>
   <si>
     <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu następnym po dniu osiągnięcia powszechnego wieku emerytalnego, ponieważ jest dla 
@@ -1791,9 +1783,6 @@
     <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu 1.01.2009 r., tj. w dniu, od którego istniała możliwość stosowania przy obliczaniu emerytury przepisu art. 55 ustawy emerytalnej, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę.</t>
   </si>
   <si>
-    <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu 1.01.2009 r., tj. w dniu, od którego istniała możliwość stosowania przy obliczaniu emerytury przepisu art. 55 ustawy emerytalnej.</t>
-  </si>
-  <si>
     <t>Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu następnym po dniu osiągnięcia powszechnego wieku emerytalnego.</t>
   </si>
   <si>
@@ -1804,13 +1793,27 @@
   </si>
   <si>
     <t>,29,39,53,83,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po ponownym ustaleniu wysokość &lt;NAZWASWIADCZENIAGL&gt; wynosi:  
+(&lt;KWOTASKLADEKNAKONCIE&gt; + &lt;KWOTAKAPITALUPOCZATKOWEGOKOR&gt;) / &lt;SREDNIEDALSZETRWANIEZYCIA&gt; = &lt;KWOTAEMERYTURYKOR&gt; zł. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po ponownym ustaleniu wysokość &lt;NAZWASWIADCZENIAGL&gt; wynosi:  
+(&lt;KWOTASKLADEKNAKONCIE&gt; + &lt;KWOTAKAPITALUPOCZATKOWEGOKOR&gt;) / &lt;SREDNIEDALSZETRWANIEZYCIA&gt; = &lt;KWOTAEMERYTURYKOR&gt; zł.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do obliczenia emerytury przyjęto średnie dalsze trwanie życia wynikające z tablicy trwania życia obowiązującej w dniu zgłoszenia wniosku o emeryturę, ponieważ jest dla &lt;PANAPANISWIADCZENIOBIORCA&gt; korzystniejsze, tj. niższe niż średnie dalsze trwanie życia ustalone na podstawie tablicy trwania życia obowiązującej w dniu 1.01.2009 r., tj. w dniu, od którego istniała możliwość stosowania przy obliczaniu emerytury przepisu art. 55 ustawy emerytalnej.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1886,13 +1889,26 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1915,13 +1931,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1997,8 +2014,12 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -2304,11 +2325,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE201"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AF202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y212" sqref="Y212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,9 +2338,9 @@
     <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="4" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.140625" style="12" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="12" customWidth="1"/>
@@ -2338,10 +2360,11 @@
     <col min="29" max="29" width="4.28515625" style="12" customWidth="1"/>
     <col min="30" max="30" width="4.42578125" style="12" customWidth="1"/>
     <col min="31" max="31" width="4.140625" style="12" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="12"/>
+    <col min="32" max="32" width="9.140625" style="24"/>
+    <col min="33" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>44</v>
@@ -2433,8 +2456,9 @@
       <c r="AE1" s="2">
         <v>323</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF1" s="24"/>
+    </row>
+    <row r="2" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
@@ -2477,7 +2501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>368</v>
       </c>
@@ -2518,8 +2542,9 @@
       <c r="AE3" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF3" s="12"/>
+    </row>
+    <row r="4" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
@@ -2555,7 +2580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>369</v>
       </c>
@@ -2603,7 +2628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>370</v>
       </c>
@@ -2666,7 +2691,7 @@
       </c>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>371</v>
       </c>
@@ -2707,7 +2732,7 @@
       <c r="S7" s="13"/>
       <c r="AE7" s="13"/>
     </row>
-    <row r="8" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>372</v>
       </c>
@@ -2719,7 +2744,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="G8" s="12">
         <v>3017</v>
@@ -2745,8 +2770,9 @@
       <c r="AE8" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF8" s="12"/>
+    </row>
+    <row r="9" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>373</v>
       </c>
@@ -2784,8 +2810,9 @@
       <c r="AE9" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="10" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>374</v>
       </c>
@@ -2797,7 +2824,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>64</v>
@@ -2818,7 +2845,7 @@
         <v>63</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="U10" s="12" t="s">
@@ -2834,7 +2861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>375</v>
       </c>
@@ -2846,7 +2873,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>64</v>
@@ -2867,7 +2894,7 @@
         <v>63</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="U11" s="10" t="s">
@@ -2888,7 +2915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>376</v>
       </c>
@@ -2900,7 +2927,7 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>64</v>
@@ -2937,7 +2964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>377</v>
       </c>
@@ -2949,7 +2976,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>64</v>
@@ -2990,7 +3017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="94.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>378</v>
       </c>
@@ -3002,7 +3029,7 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>64</v>
@@ -3046,7 +3073,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>379</v>
       </c>
@@ -3058,7 +3085,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>64</v>
@@ -3102,7 +3129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>380</v>
       </c>
@@ -3114,7 +3141,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>64</v>
@@ -3148,7 +3175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>381</v>
       </c>
@@ -3194,7 +3221,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>382</v>
       </c>
@@ -3236,7 +3263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>91</v>
       </c>
@@ -3248,7 +3275,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>64</v>
@@ -3284,7 +3311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>383</v>
       </c>
@@ -3296,7 +3323,7 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>64</v>
@@ -3332,7 +3359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>384</v>
       </c>
@@ -3391,7 +3418,7 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>385</v>
       </c>
@@ -3449,8 +3476,9 @@
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
-    </row>
-    <row r="23" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF22" s="24"/>
+    </row>
+    <row r="23" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>386</v>
       </c>
@@ -3495,7 +3523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>387</v>
       </c>
@@ -3533,8 +3561,9 @@
       <c r="AE24" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF24" s="12"/>
+    </row>
+    <row r="25" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>388</v>
       </c>
@@ -3591,7 +3620,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>389</v>
       </c>
@@ -3630,8 +3659,9 @@
         <v>70</v>
       </c>
       <c r="AE26" s="13"/>
-    </row>
-    <row r="27" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF26" s="12"/>
+    </row>
+    <row r="27" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>390</v>
       </c>
@@ -3643,7 +3673,7 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>64</v>
@@ -3674,7 +3704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>391</v>
       </c>
@@ -3717,7 +3747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>392</v>
       </c>
@@ -3755,8 +3785,9 @@
       <c r="AE29" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF29" s="12"/>
+    </row>
+    <row r="30" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>393</v>
       </c>
@@ -3811,8 +3842,9 @@
       <c r="AE30" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF30" s="12"/>
+    </row>
+    <row r="31" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>394</v>
       </c>
@@ -3851,8 +3883,9 @@
         <v>70</v>
       </c>
       <c r="AE31" s="13"/>
-    </row>
-    <row r="32" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF31" s="12"/>
+    </row>
+    <row r="32" spans="1:32" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>395</v>
       </c>
@@ -3891,14 +3924,16 @@
       <c r="AE32" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF32" s="12"/>
+    </row>
+    <row r="33" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="6" t="s">
         <v>162</v>
       </c>
@@ -3932,13 +3967,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
         <v>112</v>
       </c>
@@ -3974,13 +4010,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="6" t="s">
         <v>157</v>
       </c>
@@ -4014,13 +4051,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>231</v>
       </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
         <v>113</v>
       </c>
@@ -4054,19 +4092,20 @@
       </c>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>400</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>64</v>
@@ -4094,13 +4133,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="12" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>233</v>
       </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="6" t="s">
         <v>162</v>
       </c>
@@ -4134,19 +4174,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>234</v>
       </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>64</v>
@@ -4182,19 +4223,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>235</v>
       </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>64</v>
@@ -4230,19 +4272,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>236</v>
       </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>64</v>
@@ -4278,7 +4321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>405</v>
       </c>
@@ -4291,7 +4334,7 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>64</v>
@@ -4341,19 +4384,20 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
     </row>
-    <row r="43" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>238</v>
       </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>64</v>
@@ -4392,19 +4436,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>239</v>
       </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>64</v>
@@ -4443,19 +4488,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>64</v>
@@ -4488,13 +4534,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>241</v>
       </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="6" t="s">
         <v>121</v>
       </c>
@@ -4533,13 +4580,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C47" s="3"/>
       <c r="D47" s="4" t="s">
         <v>163</v>
       </c>
@@ -4575,19 +4623,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="C48" s="3"/>
       <c r="D48" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>64</v>
@@ -4623,19 +4672,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>244</v>
       </c>
+      <c r="C49" s="3"/>
       <c r="D49" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>64</v>
@@ -4671,13 +4721,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>245</v>
       </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="4" t="s">
         <v>112</v>
       </c>
@@ -4710,13 +4761,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="4" t="s">
         <v>157</v>
       </c>
@@ -4752,13 +4804,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>247</v>
       </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="4" t="s">
         <v>113</v>
       </c>
@@ -4792,19 +4845,20 @@
       </c>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>64</v>
@@ -4834,13 +4888,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="4" t="s">
         <v>162</v>
       </c>
@@ -4876,13 +4931,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="12" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>250</v>
       </c>
+      <c r="C55" s="3"/>
       <c r="D55" s="6" t="s">
         <v>124</v>
       </c>
@@ -4911,20 +4967,19 @@
       <c r="M55" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="W55" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="W55" s="15"/>
       <c r="X55" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="12" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>418</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>251</v>
       </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="6" t="s">
         <v>125</v>
       </c>
@@ -4953,9 +5008,7 @@
       <c r="M56" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="W56" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="W56" s="15"/>
       <c r="X56" s="15" t="s">
         <v>49</v>
       </c>
@@ -4963,13 +5016,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>252</v>
       </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="4" t="s">
         <v>112</v>
       </c>
@@ -5002,13 +5056,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="12" customFormat="1" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>420</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>253</v>
       </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="4" t="s">
         <v>167</v>
       </c>
@@ -5044,13 +5099,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" s="12" customFormat="1" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>254</v>
       </c>
+      <c r="C59" s="3"/>
       <c r="D59" s="4" t="s">
         <v>168</v>
       </c>
@@ -5086,13 +5142,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" s="12" customFormat="1" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>255</v>
       </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="4" t="s">
         <v>169</v>
       </c>
@@ -5128,13 +5185,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" s="12" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>256</v>
       </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="4" t="s">
         <v>170</v>
       </c>
@@ -5170,13 +5228,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" s="12" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>424</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="C62" s="3"/>
       <c r="D62" s="16" t="s">
         <v>124</v>
       </c>
@@ -5205,20 +5264,19 @@
       <c r="M62" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="W62" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="W62" s="17"/>
       <c r="X62" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" s="12" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>258</v>
       </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="16" t="s">
         <v>126</v>
       </c>
@@ -5247,9 +5305,7 @@
       <c r="M63" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="W63" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="W63" s="17"/>
       <c r="X63" s="17" t="s">
         <v>49</v>
       </c>
@@ -5257,13 +5313,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>259</v>
       </c>
+      <c r="C64" s="3"/>
       <c r="D64" s="4" t="s">
         <v>112</v>
       </c>
@@ -5293,13 +5350,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>260</v>
       </c>
+      <c r="C65" s="3"/>
       <c r="D65" s="4" t="s">
         <v>113</v>
       </c>
@@ -5327,13 +5385,14 @@
       </c>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>261</v>
       </c>
+      <c r="C66" s="3"/>
       <c r="D66" s="4" t="s">
         <v>112</v>
       </c>
@@ -5369,13 +5428,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="C67" s="3"/>
       <c r="D67" s="6" t="s">
         <v>171</v>
       </c>
@@ -5408,13 +5468,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="C68" s="3"/>
       <c r="D68" s="6" t="s">
         <v>127</v>
       </c>
@@ -5444,13 +5505,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>264</v>
       </c>
+      <c r="C69" s="3"/>
       <c r="D69" s="6" t="s">
         <v>128</v>
       </c>
@@ -5480,13 +5542,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>265</v>
       </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="4" t="s">
         <v>172</v>
       </c>
@@ -5522,13 +5585,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>266</v>
       </c>
+      <c r="C71" s="3"/>
       <c r="D71" s="4" t="s">
         <v>173</v>
       </c>
@@ -5564,13 +5628,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="C72" s="3"/>
       <c r="D72" s="4" t="s">
         <v>129</v>
       </c>
@@ -5609,13 +5674,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>268</v>
       </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="4" t="s">
         <v>130</v>
       </c>
@@ -5651,13 +5717,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="C74" s="3"/>
       <c r="D74" s="4" t="s">
         <v>174</v>
       </c>
@@ -5693,13 +5760,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="C75" s="3"/>
       <c r="D75" s="4" t="s">
         <v>175</v>
       </c>
@@ -5735,13 +5803,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>271</v>
       </c>
+      <c r="C76" s="3"/>
       <c r="D76" s="4" t="s">
         <v>176</v>
       </c>
@@ -5777,13 +5846,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>272</v>
       </c>
+      <c r="C77" s="3"/>
       <c r="D77" s="4" t="s">
         <v>131</v>
       </c>
@@ -5822,13 +5892,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="C78" s="3"/>
       <c r="D78" s="4" t="s">
         <v>132</v>
       </c>
@@ -5867,13 +5938,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="C79" s="3"/>
       <c r="D79" s="4" t="s">
         <v>133</v>
       </c>
@@ -5912,13 +5984,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="C80" s="3"/>
       <c r="D80" s="4" t="s">
         <v>134</v>
       </c>
@@ -5957,13 +6030,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="C81" s="3"/>
       <c r="D81" s="4" t="s">
         <v>177</v>
       </c>
@@ -5999,13 +6073,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="C82" s="3"/>
       <c r="D82" s="4" t="s">
         <v>135</v>
       </c>
@@ -6047,13 +6122,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>278</v>
       </c>
+      <c r="C83" s="3"/>
       <c r="D83" s="4" t="s">
         <v>136</v>
       </c>
@@ -6095,13 +6171,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>279</v>
       </c>
+      <c r="C84" s="3"/>
       <c r="D84" s="4" t="s">
         <v>137</v>
       </c>
@@ -6143,13 +6220,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>280</v>
       </c>
+      <c r="C85" s="3"/>
       <c r="D85" s="4" t="s">
         <v>138</v>
       </c>
@@ -6191,13 +6269,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="C86" s="3"/>
       <c r="D86" s="4" t="s">
         <v>178</v>
       </c>
@@ -6236,13 +6315,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="C87" s="3"/>
       <c r="D87" s="4" t="s">
         <v>179</v>
       </c>
@@ -6281,13 +6361,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>283</v>
       </c>
+      <c r="C88" s="3"/>
       <c r="D88" s="4" t="s">
         <v>180</v>
       </c>
@@ -6326,13 +6407,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>284</v>
       </c>
+      <c r="C89" s="3"/>
       <c r="D89" s="4" t="s">
         <v>112</v>
       </c>
@@ -6365,13 +6447,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>285</v>
       </c>
+      <c r="C90" s="3"/>
       <c r="D90" s="4" t="s">
         <v>129</v>
       </c>
@@ -6413,13 +6496,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>286</v>
       </c>
+      <c r="C91" s="3"/>
       <c r="D91" s="4" t="s">
         <v>130</v>
       </c>
@@ -6461,13 +6545,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="C92" s="3"/>
       <c r="D92" s="4" t="s">
         <v>131</v>
       </c>
@@ -6506,13 +6591,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="C93" s="3"/>
       <c r="D93" s="4" t="s">
         <v>132</v>
       </c>
@@ -6551,13 +6637,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="C94" s="3"/>
       <c r="D94" s="4" t="s">
         <v>133</v>
       </c>
@@ -6596,13 +6683,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" s="12" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>290</v>
       </c>
+      <c r="C95" s="3"/>
       <c r="D95" s="4" t="s">
         <v>134</v>
       </c>
@@ -6641,13 +6729,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="C96" s="3"/>
       <c r="D96" s="4" t="s">
         <v>177</v>
       </c>
@@ -6683,13 +6772,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>292</v>
       </c>
+      <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
         <v>135</v>
       </c>
@@ -6731,13 +6821,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>460</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>293</v>
       </c>
+      <c r="C98" s="3"/>
       <c r="D98" s="4" t="s">
         <v>136</v>
       </c>
@@ -6779,13 +6870,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>294</v>
       </c>
+      <c r="C99" s="3"/>
       <c r="D99" s="4" t="s">
         <v>137</v>
       </c>
@@ -6824,13 +6916,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>295</v>
       </c>
+      <c r="C100" s="3"/>
       <c r="D100" s="4" t="s">
         <v>138</v>
       </c>
@@ -6869,13 +6962,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>296</v>
       </c>
+      <c r="C101" s="3"/>
       <c r="D101" s="4" t="s">
         <v>181</v>
       </c>
@@ -6905,13 +6999,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>297</v>
       </c>
+      <c r="C102" s="3"/>
       <c r="D102" s="4" t="s">
         <v>112</v>
       </c>
@@ -6944,13 +7039,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>298</v>
       </c>
+      <c r="C103" s="3"/>
       <c r="D103" s="4" t="s">
         <v>157</v>
       </c>
@@ -6983,13 +7079,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>299</v>
       </c>
+      <c r="C104" s="3"/>
       <c r="D104" s="4" t="s">
         <v>113</v>
       </c>
@@ -7023,19 +7120,20 @@
       </c>
       <c r="AE104" s="13"/>
     </row>
-    <row r="105" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>300</v>
       </c>
+      <c r="C105" s="3"/>
       <c r="D105" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>64</v>
@@ -7065,13 +7163,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>301</v>
       </c>
+      <c r="C106" s="3"/>
       <c r="D106" s="4" t="s">
         <v>162</v>
       </c>
@@ -7107,19 +7206,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>302</v>
       </c>
+      <c r="C107" s="3"/>
       <c r="D107" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>64</v>
@@ -7155,19 +7255,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="C108" s="3"/>
       <c r="D108" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>64</v>
@@ -7203,19 +7304,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="C109" s="3"/>
       <c r="D109" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>64</v>
@@ -7251,19 +7353,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>305</v>
       </c>
+      <c r="C110" s="3"/>
       <c r="D110" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>64</v>
@@ -7299,19 +7402,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>306</v>
       </c>
+      <c r="C111" s="3"/>
       <c r="D111" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>64</v>
@@ -7350,19 +7454,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>307</v>
       </c>
+      <c r="C112" s="3"/>
       <c r="D112" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>64</v>
@@ -7401,19 +7506,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="C113" s="3"/>
       <c r="D113" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>64</v>
@@ -7446,13 +7552,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>309</v>
       </c>
+      <c r="C114" s="3"/>
       <c r="D114" s="6" t="s">
         <v>121</v>
       </c>
@@ -7491,13 +7598,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>310</v>
       </c>
+      <c r="C115" s="3"/>
       <c r="D115" s="4" t="s">
         <v>163</v>
       </c>
@@ -7533,19 +7641,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>311</v>
       </c>
+      <c r="C116" s="3"/>
       <c r="D116" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>64</v>
@@ -7581,19 +7690,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>312</v>
       </c>
+      <c r="C117" s="3"/>
       <c r="D117" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="6" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>64</v>
@@ -7629,13 +7739,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>313</v>
       </c>
+      <c r="C118" s="3"/>
       <c r="D118" s="6" t="s">
         <v>112</v>
       </c>
@@ -7668,13 +7779,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>314</v>
       </c>
+      <c r="C119" s="3"/>
       <c r="D119" s="4" t="s">
         <v>157</v>
       </c>
@@ -7710,13 +7822,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>315</v>
       </c>
+      <c r="C120" s="3"/>
       <c r="D120" s="6" t="s">
         <v>113</v>
       </c>
@@ -7750,19 +7863,20 @@
       </c>
       <c r="AE120" s="13"/>
     </row>
-    <row r="121" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" s="12" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>316</v>
       </c>
+      <c r="C121" s="3"/>
       <c r="D121" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="6" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>64</v>
@@ -7792,13 +7906,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>317</v>
       </c>
+      <c r="C122" s="3"/>
       <c r="D122" s="4" t="s">
         <v>162</v>
       </c>
@@ -7834,13 +7949,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" s="12" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>318</v>
       </c>
+      <c r="C123" s="3"/>
       <c r="D123" s="16" t="s">
         <v>124</v>
       </c>
@@ -7869,20 +7985,19 @@
       <c r="M123" s="11">
         <v>3</v>
       </c>
-      <c r="W123" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="W123" s="17"/>
       <c r="X123" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" s="12" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>319</v>
       </c>
+      <c r="C124" s="3"/>
       <c r="D124" s="16" t="s">
         <v>126</v>
       </c>
@@ -7911,9 +8026,7 @@
       <c r="M124" s="11">
         <v>3</v>
       </c>
-      <c r="W124" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="W124" s="17"/>
       <c r="X124" s="17" t="s">
         <v>49</v>
       </c>
@@ -7921,13 +8034,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" s="12" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>320</v>
       </c>
+      <c r="C125" s="3"/>
       <c r="D125" s="6" t="s">
         <v>124</v>
       </c>
@@ -7956,20 +8070,19 @@
       <c r="M125" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="W125" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="W125" s="17"/>
       <c r="X125" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" s="12" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="C126" s="3"/>
       <c r="D126" s="6" t="s">
         <v>126</v>
       </c>
@@ -7998,9 +8111,7 @@
       <c r="M126" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="W126" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="W126" s="11"/>
       <c r="X126" s="11" t="s">
         <v>49</v>
       </c>
@@ -8008,13 +8119,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>322</v>
       </c>
+      <c r="C127" s="3"/>
       <c r="D127" s="4" t="s">
         <v>112</v>
       </c>
@@ -8047,13 +8159,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>323</v>
       </c>
+      <c r="C128" s="3"/>
       <c r="D128" s="4" t="s">
         <v>129</v>
       </c>
@@ -8095,13 +8208,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>324</v>
       </c>
+      <c r="C129" s="3"/>
       <c r="D129" s="4" t="s">
         <v>130</v>
       </c>
@@ -8143,13 +8257,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>325</v>
       </c>
+      <c r="C130" s="3"/>
       <c r="D130" s="4" t="s">
         <v>131</v>
       </c>
@@ -8188,13 +8303,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>326</v>
       </c>
+      <c r="C131" s="3"/>
       <c r="D131" s="4" t="s">
         <v>132</v>
       </c>
@@ -8233,13 +8349,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="C132" s="3"/>
       <c r="D132" s="4" t="s">
         <v>133</v>
       </c>
@@ -8278,13 +8395,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>328</v>
       </c>
+      <c r="C133" s="3"/>
       <c r="D133" s="4" t="s">
         <v>134</v>
       </c>
@@ -8323,13 +8441,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>329</v>
       </c>
+      <c r="C134" s="3"/>
       <c r="D134" s="4" t="s">
         <v>177</v>
       </c>
@@ -8365,13 +8484,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>330</v>
       </c>
+      <c r="C135" s="3"/>
       <c r="D135" s="4" t="s">
         <v>135</v>
       </c>
@@ -8413,13 +8533,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>331</v>
       </c>
+      <c r="C136" s="3"/>
       <c r="D136" s="4" t="s">
         <v>136</v>
       </c>
@@ -8461,13 +8582,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>332</v>
       </c>
+      <c r="C137" s="3"/>
       <c r="D137" s="6" t="s">
         <v>137</v>
       </c>
@@ -8506,7 +8628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>234</v>
       </c>
@@ -8567,13 +8689,14 @@
       <c r="AD138" s="13"/>
       <c r="AE138" s="13"/>
     </row>
-    <row r="139" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>334</v>
       </c>
+      <c r="C139" s="3"/>
       <c r="D139" s="4" t="s">
         <v>181</v>
       </c>
@@ -8603,13 +8726,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>335</v>
       </c>
+      <c r="C140" s="3"/>
       <c r="D140" s="4" t="s">
         <v>112</v>
       </c>
@@ -8642,13 +8766,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" s="12" customFormat="1" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="C141" s="3"/>
       <c r="D141" s="4" t="s">
         <v>183</v>
       </c>
@@ -8678,13 +8803,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>337</v>
       </c>
+      <c r="C142" s="3"/>
       <c r="D142" s="4" t="s">
         <v>184</v>
       </c>
@@ -8714,13 +8840,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>338</v>
       </c>
+      <c r="C143" s="3"/>
       <c r="D143" s="4" t="s">
         <v>185</v>
       </c>
@@ -8750,13 +8877,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>339</v>
       </c>
+      <c r="C144" s="3"/>
       <c r="D144" s="4" t="s">
         <v>186</v>
       </c>
@@ -8786,13 +8914,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="C145" s="3"/>
       <c r="D145" s="4" t="s">
         <v>151</v>
       </c>
@@ -8822,13 +8951,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>341</v>
       </c>
+      <c r="C146" s="3"/>
       <c r="D146" s="4" t="s">
         <v>153</v>
       </c>
@@ -8858,13 +8988,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>342</v>
       </c>
+      <c r="C147" s="3"/>
       <c r="D147" s="4" t="s">
         <v>187</v>
       </c>
@@ -8894,13 +9025,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="C148" s="3"/>
       <c r="D148" s="4" t="s">
         <v>188</v>
       </c>
@@ -8930,13 +9062,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>344</v>
       </c>
+      <c r="C149" s="3"/>
       <c r="D149" s="4" t="s">
         <v>139</v>
       </c>
@@ -8966,13 +9099,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>345</v>
       </c>
+      <c r="C150" s="3"/>
       <c r="D150" s="4" t="s">
         <v>189</v>
       </c>
@@ -9002,13 +9136,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" s="12" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>346</v>
       </c>
+      <c r="C151" s="3"/>
       <c r="D151" s="16" t="s">
         <v>190</v>
       </c>
@@ -9032,13 +9167,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>347</v>
       </c>
+      <c r="C152" s="3"/>
       <c r="D152" s="6" t="s">
         <v>140</v>
       </c>
@@ -9065,13 +9201,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>348</v>
       </c>
+      <c r="C153" s="3"/>
       <c r="D153" s="6" t="s">
         <v>141</v>
       </c>
@@ -9098,13 +9235,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>349</v>
       </c>
+      <c r="C154" s="3"/>
       <c r="D154" s="6" t="s">
         <v>142</v>
       </c>
@@ -9131,13 +9269,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>350</v>
       </c>
+      <c r="C155" s="3"/>
       <c r="D155" s="6" t="s">
         <v>191</v>
       </c>
@@ -9164,13 +9303,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>351</v>
       </c>
+      <c r="C156" s="3"/>
       <c r="D156" s="6" t="s">
         <v>192</v>
       </c>
@@ -9197,13 +9337,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="C157" s="3"/>
       <c r="D157" s="6" t="s">
         <v>193</v>
       </c>
@@ -9230,13 +9371,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" s="12" customFormat="1" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>353</v>
       </c>
+      <c r="C158" s="3"/>
       <c r="D158" s="16" t="s">
         <v>194</v>
       </c>
@@ -9260,13 +9402,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>354</v>
       </c>
+      <c r="C159" s="3"/>
       <c r="D159" s="4" t="s">
         <v>112</v>
       </c>
@@ -9296,13 +9439,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>355</v>
       </c>
+      <c r="C160" s="3"/>
       <c r="D160" s="4" t="s">
         <v>183</v>
       </c>
@@ -9332,13 +9476,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>356</v>
       </c>
+      <c r="C161" s="3"/>
       <c r="D161" s="4" t="s">
         <v>184</v>
       </c>
@@ -9368,13 +9513,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>357</v>
       </c>
+      <c r="C162" s="3"/>
       <c r="D162" s="4" t="s">
         <v>151</v>
       </c>
@@ -9407,13 +9553,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>358</v>
       </c>
+      <c r="C163" s="3"/>
       <c r="D163" s="4" t="s">
         <v>153</v>
       </c>
@@ -9446,13 +9593,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>359</v>
       </c>
+      <c r="C164" s="3"/>
       <c r="D164" s="4" t="s">
         <v>112</v>
       </c>
@@ -9485,7 +9633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>261</v>
       </c>
@@ -9540,7 +9688,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="13" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>262</v>
       </c>
@@ -9595,13 +9743,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" s="12" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="C167" s="3"/>
       <c r="D167" s="4" t="s">
         <v>151</v>
       </c>
@@ -9634,13 +9783,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" s="12" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>363</v>
       </c>
+      <c r="C168" s="3"/>
       <c r="D168" s="4" t="s">
         <v>153</v>
       </c>
@@ -9673,13 +9823,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" s="12" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>364</v>
       </c>
+      <c r="C169" s="3"/>
       <c r="D169" s="6" t="s">
         <v>157</v>
       </c>
@@ -9715,19 +9866,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>364</v>
       </c>
+      <c r="C170" s="3"/>
       <c r="D170" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="6" t="s">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="G170" s="7" t="s">
         <v>64</v>
@@ -9757,13 +9909,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" s="12" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>365</v>
       </c>
+      <c r="C171" s="3"/>
       <c r="D171" s="6" t="s">
         <v>162</v>
       </c>
@@ -9799,13 +9952,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>366</v>
       </c>
+      <c r="C172" s="3"/>
       <c r="D172" s="4" t="s">
         <v>112</v>
       </c>
@@ -9839,13 +9993,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" s="12" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>367</v>
       </c>
+      <c r="C173" s="3"/>
       <c r="D173" s="4" t="s">
         <v>112</v>
       </c>
@@ -9879,7 +10034,7 @@
       </c>
       <c r="AE173" s="14"/>
     </row>
-    <row r="174" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>270</v>
       </c>
@@ -9895,6 +10050,7 @@
       <c r="E174" s="3" t="s">
         <v>488</v>
       </c>
+      <c r="F174" s="3"/>
       <c r="G174" s="3" t="s">
         <v>486</v>
       </c>
@@ -9911,7 +10067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>271</v>
       </c>
@@ -9924,6 +10080,8 @@
       <c r="D175" s="3" t="s">
         <v>487</v>
       </c>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
       <c r="G175" s="3" t="s">
         <v>486</v>
       </c>
@@ -9943,7 +10101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>272</v>
       </c>
@@ -9959,6 +10117,7 @@
       <c r="E176" s="3" t="s">
         <v>492</v>
       </c>
+      <c r="F176" s="3"/>
       <c r="G176" s="3" t="s">
         <v>77</v>
       </c>
@@ -9975,7 +10134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>273</v>
       </c>
@@ -9988,6 +10147,8 @@
       <c r="D177" s="3" t="s">
         <v>490</v>
       </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
       <c r="G177" s="3" t="s">
         <v>77</v>
       </c>
@@ -10007,7 +10168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="178" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>274</v>
       </c>
@@ -10023,6 +10184,7 @@
       <c r="E178" s="3" t="s">
         <v>494</v>
       </c>
+      <c r="F178" s="3"/>
       <c r="G178" s="3" t="s">
         <v>77</v>
       </c>
@@ -10039,7 +10201,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>275</v>
       </c>
@@ -10055,6 +10217,7 @@
       <c r="E179" s="3" t="s">
         <v>499</v>
       </c>
+      <c r="F179" s="3"/>
       <c r="G179" s="3" t="s">
         <v>64</v>
       </c>
@@ -10074,7 +10237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>276</v>
       </c>
@@ -10090,6 +10253,7 @@
       <c r="E180" s="3" t="s">
         <v>503</v>
       </c>
+      <c r="F180" s="3"/>
       <c r="G180" s="3" t="s">
         <v>64</v>
       </c>
@@ -10109,7 +10273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="181" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>277</v>
       </c>
@@ -10125,6 +10289,7 @@
       <c r="E181" s="3" t="s">
         <v>504</v>
       </c>
+      <c r="F181" s="3"/>
       <c r="G181" s="3" t="s">
         <v>64</v>
       </c>
@@ -10144,7 +10309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>278</v>
       </c>
@@ -10160,6 +10325,7 @@
       <c r="E182" s="3" t="s">
         <v>505</v>
       </c>
+      <c r="F182" s="3"/>
       <c r="G182" s="3" t="s">
         <v>64</v>
       </c>
@@ -10179,7 +10345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>279</v>
       </c>
@@ -10195,6 +10361,7 @@
       <c r="E183" s="3" t="s">
         <v>506</v>
       </c>
+      <c r="F183" s="3"/>
       <c r="G183" s="3" t="s">
         <v>64</v>
       </c>
@@ -10214,7 +10381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>280</v>
       </c>
@@ -10230,6 +10397,7 @@
       <c r="E184" s="3" t="s">
         <v>507</v>
       </c>
+      <c r="F184" s="3"/>
       <c r="G184" s="3" t="s">
         <v>64</v>
       </c>
@@ -10249,7 +10417,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>281</v>
       </c>
@@ -10265,6 +10433,7 @@
       <c r="E185" s="3" t="s">
         <v>508</v>
       </c>
+      <c r="F185" s="3"/>
       <c r="G185" s="3" t="s">
         <v>64</v>
       </c>
@@ -10284,7 +10453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>282</v>
       </c>
@@ -10300,6 +10469,7 @@
       <c r="E186" s="3" t="s">
         <v>509</v>
       </c>
+      <c r="F186" s="3"/>
       <c r="G186" s="3" t="s">
         <v>64</v>
       </c>
@@ -10319,7 +10489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>283</v>
       </c>
@@ -10335,6 +10505,7 @@
       <c r="E187" s="3" t="s">
         <v>510</v>
       </c>
+      <c r="F187" s="3"/>
       <c r="G187" s="3" t="s">
         <v>64</v>
       </c>
@@ -10354,7 +10525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>284</v>
       </c>
@@ -10370,6 +10541,7 @@
       <c r="E188" s="3" t="s">
         <v>511</v>
       </c>
+      <c r="F188" s="3"/>
       <c r="G188" s="3" t="s">
         <v>64</v>
       </c>
@@ -10389,7 +10561,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>285</v>
       </c>
@@ -10405,6 +10577,7 @@
       <c r="E189" s="3" t="s">
         <v>512</v>
       </c>
+      <c r="F189" s="3"/>
       <c r="G189" s="3" t="s">
         <v>64</v>
       </c>
@@ -10424,7 +10597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>286</v>
       </c>
@@ -10440,6 +10613,7 @@
       <c r="E190" s="3" t="s">
         <v>513</v>
       </c>
+      <c r="F190" s="3"/>
       <c r="G190" s="3" t="s">
         <v>64</v>
       </c>
@@ -10459,7 +10633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>287</v>
       </c>
@@ -10475,6 +10649,7 @@
       <c r="E191" s="3" t="s">
         <v>516</v>
       </c>
+      <c r="F191" s="3"/>
       <c r="G191" s="3" t="s">
         <v>64</v>
       </c>
@@ -10494,7 +10669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>288</v>
       </c>
@@ -10510,6 +10685,7 @@
       <c r="E192" s="3" t="s">
         <v>517</v>
       </c>
+      <c r="F192" s="3"/>
       <c r="G192" s="3" t="s">
         <v>64</v>
       </c>
@@ -10529,7 +10705,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="193" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>289</v>
       </c>
@@ -10564,7 +10740,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>290</v>
       </c>
@@ -10599,7 +10775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="195" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>291</v>
       </c>
@@ -10634,7 +10810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>292</v>
       </c>
@@ -10665,8 +10841,9 @@
       <c r="AE196" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="197" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF196" s="12"/>
+    </row>
+    <row r="197" spans="1:32" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>293</v>
       </c>
@@ -10697,8 +10874,9 @@
       <c r="AE197" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="198" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF197" s="12"/>
+    </row>
+    <row r="198" spans="1:32" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>294</v>
       </c>
@@ -10729,8 +10907,9 @@
       <c r="AE198" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="199" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF198" s="12"/>
+    </row>
+    <row r="199" spans="1:32" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>295</v>
       </c>
@@ -10764,8 +10943,9 @@
       <c r="AE199" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="200" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF199" s="12"/>
+    </row>
+    <row r="200" spans="1:32" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>296</v>
       </c>
@@ -10799,8 +10979,9 @@
       <c r="AE200" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="201" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF200" s="12"/>
+    </row>
+    <row r="201" spans="1:32" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>297</v>
       </c>
@@ -10831,9 +11012,19 @@
       <c r="AE201" s="12" t="s">
         <v>59</v>
       </c>
+      <c r="AF201" s="12"/>
+    </row>
+    <row r="202" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AF202" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE202"/>
+  <autoFilter ref="A1:AE202">
+    <filterColumn colId="22">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState columnSort="1" ref="K1:T168">
     <sortCondition ref="K1:T1"/>
   </sortState>
